--- a/reports/strategy_results.xlsx
+++ b/reports/strategy_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>timestamp</t>
   </si>
@@ -25,6 +25,12 @@
     <t>orig_code</t>
   </si>
   <si>
+    <t>improved_desc</t>
+  </si>
+  <si>
+    <t>improved_code</t>
+  </si>
+  <si>
     <t>orig_initial_capital</t>
   </si>
   <si>
@@ -46,12 +52,6 @@
     <t>orig_commission</t>
   </si>
   <si>
-    <t>improved_desc</t>
-  </si>
-  <si>
-    <t>improved_code</t>
-  </si>
-  <si>
     <t>improved_initial_capital</t>
   </si>
   <si>
@@ -61,6 +61,9 @@
     <t>improved_return_pct</t>
   </si>
   <si>
+    <t>improved_sharpe</t>
+  </si>
+  <si>
     <t>improved_max_drawdown_pct</t>
   </si>
   <si>
@@ -70,23 +73,31 @@
     <t>improved_commission</t>
   </si>
   <si>
-    <t xml:space="preserve">content="1️⃣ Explanation: **TSLA Intraday Momentum Reversal Strategy** - Generates 'signal' based on 5-min bar momentum: Buy when price closes above the 3-period high after a 2-period downtrend, Sell when below the 3-period low after a 2-period uptrend, else Hold.
+    <t xml:space="preserve">content="1️⃣ Explanation: **TSLA Intraday Momentum Reversal Strategy** - Generate 'signal' based on 5-min bar momentum: Buy if Close &gt; High of 3 periods ago &amp; RSI(10) &lt; 70, Sell if Close &lt; Low of 3 periods ago &amp; RSI(10) &gt; 30, else Hold.
 </t>
   </si>
   <si>
     <t xml:space="preserve">
 def add_signal(df):
-    df['pct_change'] = df['Close'].pct_change().fillna(0)
-    up_days = df['pct_change'] &gt; 0
-    down_days = ~up_days
-    df['recent_uptrend'] = (up_days.shift(1)) &amp; (up_days.shift(2))
-    df['recent_downtrend'] = (down_days.shift(1)) &amp; (down_days.shift(2))
-    df['above_3high'] = df['Close'] &gt; df['High'].shift(1).rolling(3).max()
-    df['below_3low'] = df['Close'] &lt; df['Low'].shift(1).rolling(3).min()
-    df['signal'] = -1
-    df.loc[(df['recent_downtrend']) &amp; (df['above_3high']), 'signal'] = 1
-    df.loc[(df['recent_uptrend']) &amp; (df['below_3low']), 'signal'] = -1
-    df.loc[df['signal'] == -1, 'signal'] = 0
+    df['CloseShift3'] = df['Close'].shift(3)
+    df['HighShift3'] = df['High'].shift(3)
+    df['LowShift3'] = df['Low'].shift(3)
+    df['DeltaClose'] = df['Close'] - df['CloseShift3']
+    df['RSI_Period'] = 10
+    df['Gain'] = df['Close'].diff().clip(lower=0)
+    df['Loss'] = -df['Close'].diff().clip(upper=0)
+    df['AvgGain'] = df['Gain'].rolling(df['RSI_Period'].iloc[0]).mean()
+    df['AvgLoss'] = df['Loss'].rolling(df['RSI_Period'].iloc[0]).mean()
+    df['RS'] = df['AvgGain'] / df['AvgLoss']
+    df['RSI'] = 100 - (100 / (1 + df['RS']))
+    buy_condition = (df['Close'] &gt; df['HighShift3']) &amp; (df['RSI'] &lt; 70)
+    sell_condition = (df['Close'] &lt; df['LowShift3']) &amp; (df['RSI'] &gt; 30)
+    df['signal'] = 0
+    df.loc[buy_condition, 'signal'] = 1
+    df.loc[sell_condition, 'signal'] = -1
+    df.drop(columns=['CloseShift3', 'HighShift3', 'LowShift3', 
+                      'DeltaClose', 'RSI_Period', 'Gain', 'Loss', 
+                      'AvgGain', 'AvgLoss', 'RS', 'RSI'], inplace=True)
 </t>
   </si>
   <si>
@@ -455,13 +466,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,89 +527,63 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="2">
-        <v>45789.99205212963</v>
+        <v>45791.58182560412</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2">
-        <v>10000</v>
-      </c>
-      <c r="E2">
-        <v>9964.74</v>
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
       </c>
       <c r="F2">
-        <v>-0.35</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>-15.87</v>
+        <v>10</v>
       </c>
       <c r="H2">
-        <v>0.15</v>
+        <v>2.73</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>49.95</v>
       </c>
       <c r="J2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="2">
-        <v>45789.99205666887</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3">
-        <v>10000</v>
-      </c>
-      <c r="E3">
-        <v>9964.74</v>
-      </c>
-      <c r="F3">
-        <v>-0.35</v>
-      </c>
-      <c r="G3">
-        <v>-15.87</v>
-      </c>
-      <c r="H3">
-        <v>0.15</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3">
-        <v>10000</v>
-      </c>
-      <c r="N3">
-        <v>10000</v>
-      </c>
-      <c r="O3">
+        <v>0.41</v>
+      </c>
+      <c r="K2">
+        <v>15</v>
+      </c>
+      <c r="L2">
+        <v>150</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
         <v>0</v>
       </c>
-      <c r="P3">
+      <c r="P2">
         <v>0</v>
       </c>
-      <c r="Q3">
+      <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R3">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>0</v>
       </c>
     </row>

--- a/reports/strategy_results.xlsx
+++ b/reports/strategy_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>timestamp</t>
   </si>
@@ -74,6 +74,10 @@
   </si>
   <si>
     <t xml:space="preserve">content="1️⃣ Explanation: **TSLA Intraday Momentum Reversal Strategy** - Generate 'signal' based on 5-min bar momentum: Buy if Close &gt; High of 3 periods ago &amp; RSI(10) &lt; 70, Sell if Close &lt; Low of 3 periods ago &amp; RSI(10) &gt; 30, else Hold.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">content="1️⃣ Explanation: **TSLA Intraday Momentum Reversal Strategy** - Generates 'signal' based on 5-min bar momentum: Buy when price closes above the 3-period high after a 2-period downtrend, Sell when below the 3-period low after a 2-period uptrend, else Hold.
 </t>
   </si>
   <si>
@@ -98,6 +102,36 @@
     df.drop(columns=['CloseShift3', 'HighShift3', 'LowShift3', 
                       'DeltaClose', 'RSI_Period', 'Gain', 'Loss', 
                       'AvgGain', 'AvgLoss', 'RS', 'RSI'], inplace=True)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+def add_signal(df):
+    df['Up'] = np.where(df['Close'] &gt; df['Close'].shift(1), 1, 0)
+    up_days = df['Up'].rolling(2).sum()
+    down_days = df['Up'].rolling(2).sum().apply(lambda x: 2 - x)
+    df['RecentUptrend'] = np.where(up_days == 2, 1, 0)
+    df['RecentDowntrend'] = np.where(down_days == 2, 1, 0)
+    df['High3'] = df['High'].rolling(3).max()
+    df['Low3'] = df['Low'].rolling(3).min()
+    df['signal'] = np.where((df['Close'] &gt; df['High3']) &amp; df['RecentDowntrend'], 1,
+                            np.where((df['Close'] &lt; df['Low3']) &amp; df['RecentUptrend'], -1, 0))
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+def add_signal(df):
+    df['pct_change'] = df['Close'].pct_change().fillna(0)
+    up_days = df['pct_change'] &gt; 0
+    down_days = ~up_days
+    df['recent_uptrend'] = (up_days.shift(1)) &amp; (up_days.shift(2))
+    df['recent_downtrend'] = (down_days.shift(1)) &amp; (down_days.shift(2))
+    df['above_3high'] = df['Close'] &gt; df['High'].shift(1).rolling(3).max()
+    df['below_3low'] = df['Close'] &lt; df['Low'].shift(1).rolling(3).min()
+    df['signal'] = -1
+    df.loc[(df['recent_downtrend']) &amp; (df['above_3high']), 'signal'] = 1
+    df.loc[(df['recent_uptrend']) &amp; (df['below_3low']), 'signal'] = -1
+    df.loc[df['signal'] == -1, 'signal'] = 0
 </t>
   </si>
   <si>
@@ -466,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -533,16 +567,16 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="2">
-        <v>45791.58182560412</v>
+        <v>45791.58182560185</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -584,6 +618,230 @@
         <v>0</v>
       </c>
       <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="2">
+        <v>45791.59323685186</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>2.73</v>
+      </c>
+      <c r="I3">
+        <v>49.95</v>
+      </c>
+      <c r="J3">
+        <v>0.41</v>
+      </c>
+      <c r="K3">
+        <v>15</v>
+      </c>
+      <c r="L3">
+        <v>150</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="2">
+        <v>45791.59371015046</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="2">
+        <v>45791.60139868056</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>-0.35</v>
+      </c>
+      <c r="I5">
+        <v>-15.87</v>
+      </c>
+      <c r="J5">
+        <v>0.15</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>20</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="2">
+        <v>45791.60420985582</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>2.73</v>
+      </c>
+      <c r="I6">
+        <v>49.95</v>
+      </c>
+      <c r="J6">
+        <v>0.41</v>
+      </c>
+      <c r="K6">
+        <v>15</v>
+      </c>
+      <c r="L6">
+        <v>150</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>0</v>
       </c>
     </row>

--- a/reports/strategy_results.xlsx
+++ b/reports/strategy_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>timestamp</t>
   </si>
@@ -458,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -581,7 +581,7 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="2">
-        <v>45791.61911637864</v>
+        <v>45791.61911637732</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -632,6 +632,62 @@
         <v>0</v>
       </c>
       <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="2">
+        <v>45791.64495566366</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>-0.35</v>
+      </c>
+      <c r="I4">
+        <v>-15.87</v>
+      </c>
+      <c r="J4">
+        <v>0.15</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>20</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
         <v>0</v>
       </c>
     </row>

--- a/reports/strategy_results.xlsx
+++ b/reports/strategy_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>timestamp</t>
   </si>
@@ -91,6 +91,9 @@
     df.loc[(df['recent_uptrend']) &amp; (df['below_3low']), 'signal'] = -1
     df.loc[df['signal'] == -1, 'signal'] = 0
 </t>
+  </si>
+  <si>
+    <t>(Improvement Failed)</t>
   </si>
   <si>
     <t># mock improved code
@@ -458,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +537,7 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -590,7 +593,7 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -637,7 +640,7 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="2">
-        <v>45791.64495566366</v>
+        <v>45791.64495565972</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -646,7 +649,7 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -689,6 +692,41 @@
       </c>
       <c r="S4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="2">
+        <v>45791.65843383098</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>-0.35</v>
+      </c>
+      <c r="I5">
+        <v>-15.87</v>
+      </c>
+      <c r="J5">
+        <v>0.15</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/reports/strategy_results.xlsx
+++ b/reports/strategy_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>timestamp</t>
   </si>
@@ -73,7 +73,24 @@
     <t>improved_commission</t>
   </si>
   <si>
+    <t>improved_sma_short_window</t>
+  </si>
+  <si>
+    <t>improved_sma_long_window</t>
+  </si>
+  <si>
+    <t>improved_bb_window</t>
+  </si>
+  <si>
     <t xml:space="preserve">content="1️⃣ Explanation: **TSLA Intraday Momentum Reversal Strategy** - Generates 'signal' based on 5-min bar momentum: Buy when price closes above the 3-period high after a 2-period downtrend, Sell when below the 3-period low after a 2-period uptrend, else Hold.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">content="1️⃣ Explanation: **TSLA Intraday Momentum Reversal Strategy** - Generate 'Buy' (1) when TSLA's 5-min close crosses above its 3-period high, 'Sell' (-1) when below 3-period low, else 'Hold' (0), leveraging short-term momentum reversals.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">content="1️⃣ Explanation: **TSLA Intraday Momentum Reversal Strategy** - Generate 'signal' based on 5-min bar momentum: Buy if Close &gt; High of 3 periods ago &amp; RSI(10) &lt; 70, Sell if Close &lt; Low of 3 periods ago &amp; RSI(10) &gt; 30, else Hold.
 </t>
   </si>
   <si>
@@ -93,12 +110,302 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">
+def add_signal(df):
+    df['high_3'] = df['High'].rolling(3).max()
+    df['low_3'] = df['Low'].rolling(3).min()
+    signals = np.where(df['Close'] &gt; df['high_3'], 1, 
+                       np.where(df['Close'] &lt; df['low_3'], -1, 0))
+    df['signal'] = signals
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+def add_signal(df):
+    df['CloseShift3'] = df['Close'].shift(3)
+    df['HighShift3'] = df['High'].shift(3)
+    df['LowShift3'] = df['Low'].shift(3)
+    df['DeltaClose'] = df['Close'] - df['CloseShift3']
+    df['RSI_Period'] = 10
+    df['Gain'] = df['Close'].diff().clip(lower=0)
+    df['Loss'] = -df['Close'].diff().clip(upper=0)
+    df['AvgGain'] = df['Gain'].rolling(df['RSI_Period'].iloc[0]).mean()
+    df['AvgLoss'] = df['Loss'].rolling(df['RSI_Period'].iloc[0]).mean()
+    df['RS'] = df['AvgGain'] / df['AvgLoss']
+    df['RSI'] = 100 - (100 / (1 + df['RS']))
+    buy_condition = (df['Close'] &gt; df['HighShift3']) &amp; (df['RSI'] &lt; 70)
+    sell_condition = (df['Close'] &lt; df['LowShift3']) &amp; (df['RSI'] &gt; 30)
+    df['signal'] = 0
+    df.loc[buy_condition, 'signal'] = 1
+    df.loc[sell_condition, 'signal'] = -1
+    df.drop(columns=['CloseShift3', 'HighShift3', 'LowShift3', 
+                      'DeltaClose', 'RSI_Period', 'Gain', 'Loss', 
+                      'AvgGain', 'AvgLoss', 'RS', 'RSI'], inplace=True)
+</t>
+  </si>
+  <si>
     <t>(Improvement Failed)</t>
+  </si>
+  <si>
+    <t>### Analysis of Weaknesses and Proposed Improvements
+**Weaknesses in the Original Strategy:**
+1. **Low Trade Frequency**: Only 2 trades over 5 trading days (5-minute bars) suggest the strategy is overly restrictive, potentially missing opportunities.
+2. **Negative Sharpe Ratio &amp; Small Loss**: Indicates poor risk-adjusted performance. The strategy's logic might not effectively capture profitable trends.
+3. **Simplistic Trend and Reversal Logic**:
+   - **Recent Uptrend/Downtrend**: Based solely on the last two periods, which might not reliably indicate a trend.
+   - **Above/Below 3 High/Low**: The logic for identifying potential reversals is simplistic and might not account for volatility or stronger trend confirmation.
+4. **Signal Assignment**:
+   - **Default to Sell (-1) then to Hold (0)**: This approach might unnecessarily discourage buying signals or fail to exploit neutral conditions with a more nuanced strategy.
+**Proposed Improvements for the Revised Strategy:**
+- **Enhance Trend Identification**: Use a slightly longer window to confirm trends.
+- **Volatility-Aware Reversal Signals**: Incorporate a basic volatility measure to make reversal signals more robust.
+- **More Balanced Signal Generation**: Encourage both buy and sell signals based on stronger conditions, with a hold as a default for uncertain periods.
+### Revised Strategy Explanation
+**Strategy Name**: Enhanced Volatility-Aware Trend Reversal (EVT-R)
+**Logic**:
+1. **Trend Confirmation**:
+   - **Uptrend**: 3 out of the last 5 periods must be positive (allows for a slight dip in an otherwise uptrend).
+   - **Downtrend**: 3 out of the last 5 periods must be negative.
+2. **Volatility-Aware Reversal Conditions**:
+   - **Buy Signal (Reversal from Downtrend)**: Close above the high of the last 3 periods AND above a simple moving average (SMA) of 10 periods to confirm a stronger reversal, considering the stock's volatility.
+   - **Sell Signal (Reversal from Uptrend)**: Close below the low of the last 3 periods AND below the SMA to confirm a stronger downtrend reversal.
+3. **Default to Hold**: Unless strong conditions for a buy or sell are met.
+### Revised Python Strategy Function</t>
+  </si>
+  <si>
+    <t>### Analysis of Weaknesses and Proposed Improvements
+**Weaknesses in the Original Strategy:**
+1. **Low Trade Frequency**: Only 2 trades over 5 trading days (5-minute bars) suggest the strategy is overly restrictive, potentially missing opportunities.
+2. **Negative Sharpe Ratio &amp; Small Loss**: Indicates poor risk-adjusted performance. The strategy's logic might not effectively capture profitable trends.
+3. **Simplistic Trend and Reversal Logic**:
+   - **Recent Uptrend/Downtrend**: Based solely on the last two periods, which might not reliably indicate a trend.
+   - **Above/Below 3 High/Low**: Might not effectively capture reversal points, especially in volatile markets.
+4. **Signal Assignment**:
+   - **Default to Sell (-1) then to Hold (0)**: Counterintuitive. Typically, strategies default to hold and then decide to buy or sell.
+   - **No Buy Signal for Uptrends**: The strategy only buys after a downtrend and sells after an uptrend, which might not align with profitable market dynamics.
+**Proposed Improvements for Revised Strategy:**
+- **Enhance Trend Detection**: Use more robust indicators for trend identification.
+- **Improve Reversal Logic**: Incorporate more sensitive reversal detection.
+- **Increase Trade Frequency (Judiciously)**: Relax conditions slightly to capture more opportunities while managing risk.
+- **Rationalize Signal Assignment**: Default to Hold (0), then assign Buy (1) or Sell (-1) based on stronger signals.
+### Revised Strategy Explanation
+**Strategy Name**: Enhanced Trend Reversal Strategy (ETRS)
+**Logic**:
+- **Trend Detection**: Utilize a short-term (5-period) and long-term (20-period) moving average crossover to identify trends.
+- **Reversal Detection**: Employ the Relative Strength Index (RSI) with a 14-period setting to identify overbought (&gt;70) and oversold (&lt;30) conditions as potential reversal points.
+- **Signal Assignment**:
+  - **Buy (1)**: Long-term trend is upwards, and the short-term trend reverses upwards from an oversold condition.
+  - **Sell (-1)**: Long-term trend is downwards, and the short-term trend reverses downwards from an overbought condition.
+  - **Default to Hold (0)**
+### Revised Python Strategy Function</t>
+  </si>
+  <si>
+    <t>**1. Brief Explanation of Changes and Strategy Analysis**
+### Strategy Analysis and Weaknesses:
+1. **Low Trade Frequency**: Only 2 trades in 5 days indicate the strategy is overly restrictive. This might lead to missed opportunities.
+2. **Counterintuitive Logic**: Buying on a recent downtrend after breaking above a 3-high and selling on an uptrend after breaking below a 3-low seems counter to typical trend-following or mean-reversion strategies without clear rationale.
+3. **Lack of Risk Management**: No visible stop-loss or position sizing strategy.
+4. **Poor Performance Metrics**: Negative return, high negative Sharpe ratio, and low max drawdown (which, in this context, might indicate lack of engagement rather than stability).
+### Improvements and New Strategy Rationale:
+- **Trend Alignment**: Buy on confirmation of an uptrend, sell on confirmation of a downtrend.
+- **Increased Trade Frequency with Caution**: Relax entry conditions while maintaining a basic form of risk management.
+- **Simplified Logic for Clarity and Efficiency**:
+  - **Buy Signal**: Close above the 3-period high after a single up day (indicating potential start of an uptrend).
+  - **Sell Signal**: Close below the 3-period low after a single down day (indicating potential start of a downtrend).
+  - **Hold (0)**: All other conditions.
+### Revised Strategy:
+**"Trend Confirmation with Basic Risk Awareness"**
+Buy when the close breaks above a recent high after an up day, indicating a potential uptrend. Sell when the close breaks below a recent low after a down day, suggesting a downtrend. Hold otherwise.
+**2. Revised Python Function**</t>
+  </si>
+  <si>
+    <t>**1. Brief Explanation of Changes and Strategy Improvements**
+The original strategy generates buy/sell signals based on a combination of a 3-period shift in High/Low prices and RSI levels (below 70 for buys, above 30 for sells). To enhance profitability, reduce volatility, and increase strategy intelligence, the following adjustments are made:
+- **Tightened RSI Conditions**: Adjusted RSI thresholds to be more selective (buy &lt; 40, sell &gt; 60) to potentially capture more significant moves.
+- **Added Momentum Confirmation**: Incorporated a simple momentum check using the difference in Close prices over a shorter (1 period) and longer (5 periods) window to confirm the direction of the trade, aiming to filter out weaker signals.
+- **Reduced Trade Frequency**: Introduced a cooldown period (5 periods) after each trade to avoid over-trading in the same direction, which can help in reducing fees and capturing more substantial trends.
+- **Simplified and Optimized Calculations**: Removed unnecessary columns and calculations to improve efficiency.
+**Strategy Brief**:
+The revised strategy, "RSI-Momentum Confirmation with Trade Cooling," aims to buy/sell TSLA on 5-minute bars when:
+- **Buy Condition**: Close price exceeds the 3-period shifted High, RSI is below 40, and confirmed by positive momentum.
+- **Sell Condition**: Close price is below the 3-period shifted Low, RSI is above 60, with negative momentum confirmation.
+- **Cooldown**: 5 periods after each trade before allowing another in the same direction.
+**2. Revised Python Strategy Function**</t>
   </si>
   <si>
     <t># mock improved code
 def add_signal(df):
     df['signal']=0
+    return df</t>
+  </si>
+  <si>
+    <t>import pandas as pd
+import numpy as np
+def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on the Enhanced Volatility-Aware Trend Reversal (EVT-R) strategy.
+    Parameters:
+    - df (DataFrame): Must contain 'Open', 'High', 'Low', 'Close' columns.
+    Returns:
+    - None (modifies df in-place)
+    """
+    # Calculate percentage change for trend analysis
+    df['pct_change'] = df['Close'].pct_change().fillna(0)
+    # Trend Confirmation
+    df['uptrend'] = (df['pct_change'].rolling(5).apply(lambda x: (x &gt; 0).sum()) &gt;= 3)
+    df['downtrend'] = (df['pct_change'].rolling(5).apply(lambda x: (x &lt; 0).sum()) &gt;= 3)
+    # Volatility-Aware Reversal Conditions with SMA Confirmation
+    df['SMA_10'] = df['Close'].rolling(10).mean()  # Simple Moving Average for trend confirmation
+    df['above_3high'] = df['Close'] &gt; df['High'].rolling(3).max()
+    df['below_3low'] = df['Close'] &lt; df['Low'].rolling(3).min()
+    df['buy_condition'] = df['downtrend'] &amp; df['above_3high'] &amp; (df['Close'] &gt; df['SMA_10'])
+    df['sell_condition'] = df['uptrend'] &amp; df['below_3low'] &amp; (df['Close'] &lt; df['SMA_10'])
+    # Signal Assignment
+    df['signal'] = 0  # Default to Hold
+    df.loc[df['buy_condition'], 'signal'] = 1
+    df.loc[df['sell_condition'], 'signal'] = -1
+    # Clean up intermediate columns (optional, for production use)
+    # df.drop(columns=['pct_change', 'uptrend', 'downtrend', 'SMA_10', 'above_3high', 'below_3low', 'buy_condition', 'sell_condition'], inplace=True)</t>
+  </si>
+  <si>
+    <t>import pandas as pd
+import numpy as np
+def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on the Enhanced Trend Reversal Strategy (ETRS).
+    Parameters:
+    - df (DataFrame): Must contain 'Close' column. Index must be DataFrame index for signal alignment.
+    """
+    # Calculate Moving Averages for Trend Detection
+    df['SMA_5'] = df['Close'].rolling(window=5).mean()
+    df['SMA_20'] = df['Close'].rolling(window=20).mean()
+    # Calculate Relative Strength Index (RSI) for Reversal Detection
+    delta = df['Close'].diff().dropna()
+    up, down = delta.copy(), delta.copy()
+    up[up &lt; 0] = 0
+    down[down &gt; 0] = 0
+    roll_up = up.rolling(window=14).mean()
+    roll_down = abs(down).rolling(window=14).mean()
+    RS = roll_up / roll_down
+    df['RSI'] = 100.0 - (100.0 / (1.0 + RS))
+    # Initialize Signal Column to Hold (0)
+    df['signal'] = 0
+    # Buy Signal Condition
+    buy_condition = (df['SMA_5'] &gt; df['SMA_20']) &amp; (df['RSI'].shift(1) &lt; 30) &amp; (df['RSI'] &gt;= 30)
+    df.loc[buy_condition, 'signal'] = 1
+    # Sell Signal Condition
+    sell_condition = (df['SMA_5'] &lt; df['SMA_20']) &amp; (df['RSI'].shift(1) &gt; 70) &amp; (df['RSI'] &lt;= 70)
+    df.loc[sell_condition, 'signal'] = -1
+    # Ensure Signal Series Index Alignment (Explicit for Clarity)
+    df["signal"] = pd.Series(df["signal"].values, index=df.index)
+    # Clean Up Intermediate Columns (Optional, for production use)
+    # df.drop(columns=['SMA_5', 'SMA_20', 'RSI'], inplace=True)</t>
+  </si>
+  <si>
+    <t>import pandas as pd
+import numpy as np
+def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on trend confirmation strategy.
+    Parameters:
+    df (DataFrame): Must contain 'Close', 'High', 'Low' columns.
+    Returns:
+    DataFrame: Input DataFrame with an additional 'signal' column.
+    """
+    # Calculate percentage change for trend identification
+    df['pct_change'] = df['Close'].pct_change().fillna(0)
+    # Identify up and down days
+    up_days = df['pct_change'] &gt; 0
+    down_days = ~up_days
+    # Calculate recent highs and lows for comparison
+    df['3_high'] = df['High'].rolling(3).max()
+    df['3_low'] = df['Low'].rolling(3).min()
+    # Buy signal: Close above 3-high after an up day
+    buy_signal = (df['Close'] &gt; df['3_high'].shift(1)) &amp; up_days.shift(1)
+    # Sell signal: Close below 3-low after a down day
+    sell_signal = (df['Close'] &lt; df['3_low'].shift(1)) &amp; down_days.shift(1)
+    # Initialize signal column with Hold (0)
+    df['signal'] = 0
+    # Assign Buy (1) and Sell (-1) signals
+    df.loc[buy_signal, 'signal'] = 1
+    df.loc[sell_signal, 'signal'] = -1
+    # Ensure signal Series has the same index as df (explicit for clarity)
+    df['signal'] = pd.Series(df['signal'].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on RSI and momentum conditions.
+    Parameters:
+    - df (DataFrame): Input DataFrame with OHLCV data.
+    Returns:
+    - df (DataFrame): Modified DataFrame with 'signal' column added in-place.
+    """
+    # Calculate necessary shifts and differences
+    df['CloseShift3'] = df['Close'].shift(3)
+    df['HighShift3'] = df['High'].shift(3)
+    df['LowShift3'] = df['Low'].shift(3)
+    df['CloseShift1'] = df['Close'].shift(1)
+    df['CloseShift5'] = df['Close'].shift(5)
+    # RSI Calculation (Period = 10)
+    df['Gain'] = df['Close'].diff().clip(lower=0)
+    df['Loss'] = -df['Close'].diff().clip(upper=0)
+    df['AvgGain'] = df['Gain'].rolling(10).mean()
+    df['AvgLoss'] = df['Loss'].rolling(10).mean()
+    df['RS'] = df['AvgGain'] / df['AvgLoss']
+    df['RSI'] = 100 - (100 / (1 + df['RS']))
+    # Momentum Confirmation
+    df['Momentum'] = df['Close'] - df['CloseShift5']
+    df['ShortMomentum'] = df['Close'] - df['CloseShift1']
+    # Trade Conditions with Momentum Confirmation
+    buy_condition = (df['Close'] &gt; df['HighShift3']) &amp; (df['RSI'] &lt; 40) &amp; (df['Momentum'] &gt; 0) &amp; (df['ShortMomentum'] &gt; 0)
+    sell_condition = (df['Close'] &lt; df['LowShift3']) &amp; (df['RSI'] &gt; 60) &amp; (df['Momentum'] &lt; 0) &amp; (df['ShortMomentum'] &lt; 0)
+    # Initialize Signal Column
+    df['signal'] = 0
+    # Apply Conditions
+    df.loc[buy_condition, 'signal'] = 1
+    df.loc[sell_condition, 'signal'] = -1
+    # Cooldown Period (5 periods after each trade)
+    trade_signal = df['signal'].ne(0)
+    cooldown = trade_signal.rolling(5, min_periods=1).sum() &gt; 0
+    cooldown_shift = cooldown.shift(1).fillna(False)  # Ensure first row is False
+    df.loc[cooldown_shift &amp; (df['signal'].ne(0)), 'signal'] = 0  # Reset signal during cooldown if new signal emerges
+    # Clean Up
+    columns_to_drop = ['CloseShift3', 'HighShift3', 'LowShift3', 
+                        'CloseShift1', 'CloseShift5', 'Gain', 'Loss', 
+                        'AvgGain', 'AvgLoss', 'RS', 'RSI', 'Momentum', 'ShortMomentum']
+    df.drop(columns=columns_to_drop, errors='ignore', inplace=True)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on trend confirmation strategy.
+    Parameters:
+    df (DataFrame): Must contain 'Close', 'High', 'Low' columns.
+    Returns:
+    DataFrame: Input DataFrame with an additional 'signal' column.
+    """
+    # Calculate percentage change for trend identification
+    df['pct_change'] = df['Close'].pct_change().fillna(0)
+    # Identify up and down days
+    up_days = df['pct_change'] &gt; 0
+    down_days = ~up_days
+    # Calculate recent highs and lows for comparison
+    df['3_high'] = df['High'].rolling(3).max()
+    df['3_low'] = df['Low'].rolling(3).min()
+    # Buy signal: Close above 3-high after an up day
+    buy_signal = (df['Close'] &gt; df['3_high'].shift(1)) &amp; up_days.shift(1)
+    # Sell signal: Close below 3-low after a down day
+    sell_signal = (df['Close'] &lt; df['3_low'].shift(1)) &amp; down_days.shift(1)
+    # Initialize signal column with Hold (0)
+    df['signal'] = 0
+    # Assign Buy (1) and Sell (-1) signals
+    df.loc[buy_signal, 'signal'] = 1
+    df.loc[sell_signal, 'signal'] = -1
+    # Ensure signal Series has the same index as df (explicit for clarity)
+    df['signal'] = pd.Series(df['signal'].values, index=df.index)
     return df</t>
   </si>
 </sst>
@@ -461,13 +768,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,19 +832,28 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:22">
       <c r="A2" s="2">
         <v>45791.61096113426</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -582,18 +898,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:22">
       <c r="A3" s="2">
         <v>45791.61911637732</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -638,18 +954,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:22">
       <c r="A4" s="2">
         <v>45791.64495565972</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -694,18 +1010,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:22">
       <c r="A5" s="2">
-        <v>45791.65843383098</v>
+        <v>45791.65843383102</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -727,6 +1043,415 @@
       </c>
       <c r="L5">
         <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="2">
+        <v>45791.66350952546</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>-0.35</v>
+      </c>
+      <c r="I6">
+        <v>-15.87</v>
+      </c>
+      <c r="J6">
+        <v>0.15</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>20</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="2">
+        <v>45791.66572505787</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>-0.35</v>
+      </c>
+      <c r="I7">
+        <v>-15.87</v>
+      </c>
+      <c r="J7">
+        <v>0.15</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>20</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>10</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
+      </c>
+      <c r="U7">
+        <v>20</v>
+      </c>
+      <c r="V7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="2">
+        <v>45791.67033717593</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="2">
+        <v>45791.67127241898</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>-0.35</v>
+      </c>
+      <c r="I9">
+        <v>-15.87</v>
+      </c>
+      <c r="J9">
+        <v>0.15</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>20</v>
+      </c>
+      <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <v>1.05</v>
+      </c>
+      <c r="P9">
+        <v>41.76</v>
+      </c>
+      <c r="Q9">
+        <v>0.35</v>
+      </c>
+      <c r="R9">
+        <v>22</v>
+      </c>
+      <c r="S9">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="2">
+        <v>45791.69381097223</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>-0.35</v>
+      </c>
+      <c r="I10">
+        <v>-15.87</v>
+      </c>
+      <c r="J10">
+        <v>0.15</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="2">
+        <v>45791.69635695602</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>-0.35</v>
+      </c>
+      <c r="I11">
+        <v>-15.87</v>
+      </c>
+      <c r="J11">
+        <v>0.15</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="2">
+        <v>45791.69781041667</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>2.73</v>
+      </c>
+      <c r="I12">
+        <v>49.95</v>
+      </c>
+      <c r="J12">
+        <v>0.41</v>
+      </c>
+      <c r="K12">
+        <v>15</v>
+      </c>
+      <c r="L12">
+        <v>150</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>9</v>
+      </c>
+      <c r="O12">
+        <v>-0.1</v>
+      </c>
+      <c r="P12">
+        <v>22.77</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="2">
+        <v>45791.70026267011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <v>-0.35</v>
+      </c>
+      <c r="I13">
+        <v>-15.87</v>
+      </c>
+      <c r="J13">
+        <v>0.15</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>20</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <v>1.05</v>
+      </c>
+      <c r="P13">
+        <v>41.76</v>
+      </c>
+      <c r="Q13">
+        <v>0.35</v>
+      </c>
+      <c r="R13">
+        <v>22</v>
+      </c>
+      <c r="S13">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/reports/strategy_results.xlsx
+++ b/reports/strategy_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>timestamp</t>
   </si>
@@ -230,6 +230,64 @@
 - **Buy Condition**: Close price exceeds the 3-period shifted High, RSI is below 40, and confirmed by positive momentum.
 - **Sell Condition**: Close price is below the 3-period shifted Low, RSI is above 60, with negative momentum confirmation.
 - **Cooldown**: 5 periods after each trade before allowing another in the same direction.
+**2. Revised Python Strategy Function**</t>
+  </si>
+  <si>
+    <t>**1. Brief Explanation of Changes and Strategy Analysis**
+### Strategy Analysis and Weaknesses:
+1. **Low Trade Frequency**: Only 2 trades in 5 days indicate the strategy is overly restrictive. This might lead to missed opportunities.
+2. **Counterintuitive Logic**: Buying on a recent downtrend after breaking above a 3-high and selling on an uptrend after breaking below a 3-low seems counter to typical trend-following or mean-reversion strategies without clear rationale.
+3. **Lack of Risk Management**: No visible stop-loss or position sizing strategy.
+4. **Poor Performance Metrics**: Negative return, high negative Sharpe ratio, and low max drawdown (which, in this context, might indicate lack of engagement rather than stability).
+### Improvements and New Strategy Rationale:
+- **Trend Alignment**: Align buys with uptrends and sells with downtrends for a more intuitive approach.
+- **Increased Trade Frequency (Carefully)**: Relax conditions slightly to capture more opportunities.
+- **Simple Risk Management**: Implement a basic stop-loss condition to limit downside.
+- **Mean-Reversion Component**: Add a condition to buy after a short downtrend and sell after a short uptrend, within the broader trend alignment.
+**New Strategy Brief**:
+- **Buy**:
+  1. On an uptrend (2 consecutive up days).
+  2. After a short downtrend (1 down day followed by an up day), with the close above the 3-day high.
+- **Sell**:
+  1. On a downtrend (2 consecutive down days).
+  2. After a short uptrend (1 up day followed by a down day), with the close below the 3-day low.
+- **Stop-Loss Logic (Simplified for Signal Generation)**: Sell if close drops below 3-day low after buying, or rise above 3-day high after selling (simplified for signal; actual implementation would require tracking positions).
+### Note on Implementation:
+Given the constraints, the stop-loss logic is simplified for signal generation. In a full trading system, you'd track positions and apply stop-loss externally.
+**2. Revised Python Strategy Function**</t>
+  </si>
+  <si>
+    <t>**1. Brief Explanation of Changes and Strategy Improvements**
+The original strategy generates buy/sell signals based on a combination of a 3-period shift in High/Low prices and RSI levels (below 70 for buys, above 30 for sells). To enhance profitability, reduce volatility, and increase strategy intelligence, the following adjustments are made:
+- **Tightened RSI Conditions**: Adjusted RSI thresholds to be more selective (buy &lt; 40, sell &gt; 60) to potentially capture more significant moves.
+- **Added Momentum Confirmation**: Incorporated a simple momentum check using the difference in Close prices over a shorter (1 period) and longer (5 periods) window to confirm the direction of the trend, aiming to filter out weaker signals.
+- **Reduced Signal Frequency**: Introduced a cooldown period (2 periods) after each signal to avoid rapid successive trades, potentially reducing fees and improving overall profitability.
+- **Simplified and Optimized Calculations**: Removed unnecessary intermediate columns and ensured all operations are vectorized for efficiency.
+**Strategy Brief**: The revised strategy, "RSI Momentum Confirmator," issues buy signals when TSLA's price exceeds its 3-period high, RSI is below 40, and momentum is confirmed by a positive short-term trend. Sell signals are issued when the price is below the 3-period low, RSI is above 60, with a confirmed negative momentum. A 2-period cooldown is applied after each trade.
+**2. Revised Python Strategy Function**</t>
+  </si>
+  <si>
+    <t>**1. Brief Explanation of Changes and Strategy Improvements**
+The original strategy generates buy/sell signals based on a combination of a 3-period shift in High/Low prices and RSI levels (70 for buy, 30 for sell). To enhance profitability, reduce volatility, and increase strategy intelligence, the following adjustments were made:
+- **Added Confirmation with Moving Averages (MA)**: Incorporating a short-term and a long-term MA to ensure the trend aligns with the trade signal, reducing false entries.
+- **Tightened RSI Conditions**: Adjusted RSI thresholds for more extreme conditions to potentially capture more significant moves.
+- **Introduced a Stop-Loss Logic**: Implemented a basic stop-loss based on a percentage drop from the entry point to limit downside.
+- **Optimized Signal Generation**: Signals are now only generated when all conditions (including MA alignment) are met, and a stop-loss condition is added for sell signals.
+**Strategy Brief**:
+- **Buy Signal**: When the close price exceeds the 3-period shifted high, RSI is below 60 (indicating less overbought than before), and the short-term MA (&gt;50 periods) is above the long-term MA (100 periods), with a confirmation that the price is above the short-term MA.
+- **Sell Signal**: When the close price is below the 3-period shifted low, RSI is above 40 (less oversold), the short-term MA is below the long-term MA, and the price drops below the short-term MA or hits a 2% stop-loss from the last buy signal.
+- **Hold (0)**: All other conditions.
+**2. Revised Python Strategy Function**</t>
+  </si>
+  <si>
+    <t>**1. Brief Explanation of Changes and Strategy Improvements**
+The original strategy generates buy/sell signals based on a combination of a 3-period shift in High/Low prices and RSI levels (70 for buy, 30 for sell). To enhance profitability, reduce volatility, and increase strategy intelligence, the following adjustments were made:
+- **Added Confirmation with Moving Averages (MA)**: Incorporating a short-term and a long-term MA to filter signals, ensuring buys are made when the short-term trend is above the long-term trend, and sells when the opposite occurs.
+- **Tightened RSI Conditions**: Adjusted RSI thresholds for more extreme conditions to potentially capture more significant moves (buy at RSI &lt; 40, sell at RSI &gt; 80).
+- **Introduced a Stop-Loss/Limit-Price Logic**: Simulated by only allowing a buy signal if the price is above a recent low (potential stop-loss level) and a sell if below a recent high (potential limit-price level), though actual execution of these requires broker integration and is thus simulated here through signal filtering.
+- **Reduced Signal Frequency**: By requiring more stringent conditions, aiming to increase the quality of trades.
+**Strategy Brief**: 
+The revised strategy, "Confirming Momentum with MA and RSI," generates buy signals when TSLA's price exceeds its 3-period high, RSI is below 40, the short-term MA (10 periods) is above the long-term MA (20 periods), and the price is above a recent low. Sell signals are generated when the price is below the 3-period low, RSI is above 80, the short-term MA is below the long-term MA, and the price is below a recent high.
 **2. Revised Python Strategy Function**</t>
   </si>
   <si>
@@ -406,6 +464,209 @@
     df.loc[sell_signal, 'signal'] = -1
     # Ensure signal Series has the same index as df (explicit for clarity)
     df['signal'] = pd.Series(df['signal'].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame for trading decisions.
+    - 1: Buy
+    - 0: Hold
+    - -1: Sell
+    """
+    # Calculate percentage change
+    df['pct_change'] = df['Close'].pct_change().fillna(0)
+    # Define uptrend and downtrend conditions
+    up_days = df['pct_change'] &gt; 0
+    down_days = ~up_days
+    # Recent uptrend/downtrend conditions
+    df['recent_uptrend'] = up_days &amp; up_days.shift(1)
+    df['recent_downtrend'] = down_days &amp; down_days.shift(1)
+    # Short term reversal conditions after a trend
+    df['short_reversal_buy'] = down_days.shift(1) &amp; up_days
+    df['short_reversal_sell'] = up_days.shift(1) &amp; down_days
+    # 3-day high/low conditions
+    df['above_3high'] = df['Close'] &gt; df['High'].rolling(3).max().shift(1)
+    df['below_3low'] = df['Close'] &lt; df['Low'].rolling(3).min().shift(1)
+    # Simplified Stop-Loss Conditions for Signal (Actual Implementation Requires Position Tracking)
+    df['stop_loss_sell'] = (df['recent_uptrend']) &amp; (df['Close'] &lt; df['Low'].rolling(3).min().shift(1))
+    df['stop_loss_buy'] = (df['recent_downtrend']) &amp; (df['Close'] &gt; df['High'].rolling(3).max().shift(1))
+    # Initialize signal column
+    df['signal'] = 0
+    # Buy Conditions
+    buy_condition1 = df['recent_uptrend'] &amp; df['above_3high']
+    buy_condition2 = df['short_reversal_buy'] &amp; df['above_3high']
+    df.loc[(buy_condition1 | buy_condition2) &amp; ~df['stop_loss_buy'], 'signal'] = 1
+    # Sell Conditions
+    sell_condition1 = df['recent_downtrend'] &amp; df['below_3low']
+    sell_condition2 = df['short_reversal_sell'] &amp; df['below_3low']
+    df.loc[(sell_condition1 | sell_condition2) &amp; ~df['stop_loss_sell'], 'signal'] = -1
+    # Ensure signal Series has the same index as df (explicit for clarity)
+    df["signal"] = pd.Series(df["signal"].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on RSI and momentum conditions.
+    Parameters:
+    - df (DataFrame): Input DataFrame with OHLCV data.
+    Returns:
+    - df (DataFrame): Modified DataFrame with 'signal' column added in-place.
+    """
+    # Calculate RSI with a fixed period for simplicity and efficiency
+    df['RSI'] = _calculate_rsi(df['Close'], period=10)
+    # Shifted Prices for Comparison
+    df['HighShift3'] = df['High'].shift(3)
+    df['LowShift3'] = df['Low'].shift(3)
+    # Momentum Indicators
+    df['ShortMomentum'] = df['Close'].diff(1)  # 1-period momentum
+    df['LongMomentum'] = df['Close'].diff(5)  # 5-period momentum
+    # Buy and Sell Conditions
+    buy_condition = (df['Close'] &gt; df['HighShift3']) &amp; (df['RSI'] &lt; 40) &amp; (df['ShortMomentum'] &gt; 0) &amp; (df['LongMomentum'] &gt; 0)
+    sell_condition = (df['Close'] &lt; df['LowShift3']) &amp; (df['RSI'] &gt; 60) &amp; (df['ShortMomentum'] &lt; 0) &amp; (df['LongMomentum'] &lt; 0)
+    # Initialize Signal Column
+    df['signal'] = 0
+    # Apply Conditions with Cool-down Period
+    _apply_signals_with_cool_down(df, buy_condition, sell_condition)
+    # Cleanup
+    df.drop(columns=['RSI', 'HighShift3', 'LowShift3', 'ShortMomentum', 'LongMomentum'], inplace=True)
+def _calculate_rsi(close, period=14):
+    """
+    Calculate Relative Strength Index (RSI) for the given close prices.
+    Parameters:
+    - close (Series): Close prices.
+    - period (int): RSI period. Default is 14.
+    Returns:
+    - rsi (Series): RSI values.
+    """
+    delta = close.diff(1)
+    up, down = delta.copy(), delta.copy()
+    up[up &lt; 0] = 0
+    down[down &gt; 0] = 0
+    roll_up = up.rolling(window=period).mean()
+    roll_down = down.rolling(window=period).mean().abs()
+    RS = roll_up / roll_down
+    rsi = 100.0 - (100.0 / (1.0 + RS))
+def _apply_signals_with_cool_down(df, buy_condition, sell_condition):
+    """
+    Apply buy and sell signals with a 2-period cool-down.
+    Parameters:
+    - df (DataFrame): DataFrame with 'signal' column.
+    - buy_condition (bool Series): Buy conditions.
+    - sell_condition (bool Series): Sell conditions.
+    """
+    signal = df['signal']
+    last_signal_idx = None
+    for idx, (buy, sell) in enumerate(zip(buy_condition, sell_condition)):
+        if buy and (last_signal_idx is None or idx - last_signal_idx &gt; 2):
+            signal.iloc[idx] = 1
+            last_signal_idx = idx
+        elif sell and (last_signal_idx is None or idx - last_signal_idx &gt; 2):
+            signal.iloc[idx] = -1
+            last_signal_idx = idx
+    df['signal'] = signal
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    # Calculate Required Indicators
+    df['CloseShift3'] = df['Close'].shift(3)
+    df['HighShift3'] = df['High'].shift(3)
+    df['LowShift3'] = df['Low'].shift(3)
+    df['ShortMA'] = df['Close'].rolling(window=50).mean()
+    df['LongMA'] = df['Close'].rolling(window=100).mean()
+    # RSI Calculation
+    df['Gain'] = df['Close'].diff().clip(lower=0)
+    df['Loss'] = -df['Close'].diff().clip(upper=0)
+    df['AvgGain'] = df['Gain'].rolling(10).mean()
+    df['AvgLoss'] = df['Loss'].rolling(10).mean()
+    df['RS'] = df['AvgGain'] / df['AvgLoss']
+    df['RSI'] = 100 - (100 / (1 + df['RS']))
+    # Initialize Signal Column
+    df['signal'] = 0
+    # Buy Condition
+    buy_condition = (
+        (df['Close'] &gt; df['HighShift3']) &amp; 
+        (df['RSI'] &lt; 60) &amp; 
+        (df['ShortMA'] &gt; df['LongMA']) &amp; 
+        (df['Close'] &gt; df['ShortMA'])
+    )
+    df.loc[buy_condition, 'signal'] = 1
+    # Sell Condition with Stop-Loss
+    sell_condition_price = (
+        (df['Close'] &lt; df['LowShift3']) &amp; 
+        (df['RSI'] &gt; 40) &amp; 
+        (df['ShortMA'] &lt; df['LongMA']) &amp; 
+        (df['Close'] &lt; df['ShortMA'])
+    )
+    # Simple Stop-Loss Logic for Sell (assuming last buy signal's price)
+    df['LastBuyPrice'] = df['Close'].where(df['signal'].shift(1) == 1).ffill()
+    sell_condition_stoploss = (
+        (df['Close'] &lt; df['LastBuyPrice'] * 0.98) &amp; 
+        (df['signal'].shift(1) == 1)  # Only if last action was a buy
+    )
+    sell_condition = sell_condition_price | sell_condition_stoploss
+    df.loc[sell_condition, 'signal'] = -1
+    # Drop Intermediate Columns
+    columns_to_drop = [
+        'CloseShift3', 'HighShift3', 'LowShift3', 'ShortMA', 'LongMA',
+        'Gain', 'Loss', 'AvgGain', 'AvgLoss', 'RS', 'RSI', 'LastBuyPrice'
+    ]
+    df.drop(columns=columns_to_drop, errors='ignore', inplace=True)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a strategy combining
+    RSI, Moving Averages, and recent price action for confirmation.
+    Parameters:
+    - df (DataFrame): Input DataFrame with OHLCV data.
+    Returns:
+    - df (DataFrame): DataFrame with an added 'signal' column.
+    """
+    # Calculate RSI (Retaining the original RSI_Period of 10 for consistency)
+    df['RSI_Period'] = 10
+    df['Gain'] = df['Close'].diff().clip(lower=0)
+    df['Loss'] = -df['Close'].diff().clip(upper=0)
+    df['AvgGain'] = df['Gain'].rolling(df['RSI_Period'].iloc[0]).mean()
+    df['AvgLoss'] = df['Loss'].rolling(df['RSI_Period'].iloc[0]).mean()
+    df['RS'] = df['AvgGain'] / df['AvgLoss']
+    df['RSI'] = 100 - (100 / (1 + df['RS']))
+    # Calculate Moving Averages for trend confirmation
+    df['MA_Short'] = df['Close'].rolling(window=10).mean()
+    df['MA_Long'] = df['Close'].rolling(window=20).mean()
+    # Recent Price Action for simulated Stop-Loss/limit-price logic
+    df['Recent_High'] = df['High'].rolling(window=5).max()
+    df['Recent_Low'] = df['Low'].rolling(window=5).min()
+    # Shifts for initial condition
+    df['CloseShift3'] = df['Close'].shift(3)
+    df['HighShift3'] = df['High'].shift(3)
+    df['LowShift3'] = df['Low'].shift(3)
+    # Buy Condition with all confirmations
+    buy_condition = (
+        (df['Close'] &gt; df['HighShift3']) &amp;  # Original price condition
+        (df['RSI'] &lt; 40) &amp;  # Tightened RSI condition
+        (df['MA_Short'] &gt; df['MA_Long']) &amp;  # Trend confirmation
+        (df['Close'] &gt; df['Recent_Low'])  # Simulated stop-loss
+    )
+    # Sell Condition with all confirmations
+    sell_condition = (
+        (df['Close'] &lt; df['LowShift3']) &amp;  # Original price condition
+        (df['RSI'] &gt; 80) &amp;  # Tightened RSI condition
+        (df['MA_Short'] &lt; df['MA_Long']) &amp;  # Trend confirmation
+        (df['Close'] &lt; df['Recent_High'])  # Simulated limit-price
+    )
+    # Initialize signal column
+    df['signal'] = 0
+    # Assign signals based on conditions
+    df.loc[buy_condition, 'signal'] = 1
+    df.loc[sell_condition, 'signal'] = -1
+    # Clean up intermediate columns
+    df.drop(columns=['RSI_Period', 'Gain', 'Loss', 'AvgGain', 'AvgLoss', 'RS', 'RSI',
+                      'MA_Short', 'MA_Long', 'Recent_High', 'Recent_Low',
+                      'CloseShift3', 'HighShift3', 'LowShift3'], inplace=True)
     return df</t>
   </si>
 </sst>
@@ -768,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -853,7 +1114,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -909,7 +1170,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -965,7 +1226,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -1059,7 +1320,7 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -1118,7 +1379,7 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -1221,7 +1482,7 @@
         <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -1350,7 +1611,7 @@
         <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -1397,7 +1658,7 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="2">
-        <v>45791.70026267011</v>
+        <v>45791.70026267361</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -1409,7 +1670,7 @@
         <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -1452,6 +1713,421 @@
       </c>
       <c r="S13">
         <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="2">
+        <v>45791.70951271991</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>-0.35</v>
+      </c>
+      <c r="I14">
+        <v>-15.87</v>
+      </c>
+      <c r="J14">
+        <v>0.15</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="2">
+        <v>45791.71200304398</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>-0.35</v>
+      </c>
+      <c r="I15">
+        <v>-15.87</v>
+      </c>
+      <c r="J15">
+        <v>0.15</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="2">
+        <v>45791.7134757176</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
+      <c r="H16">
+        <v>-0.35</v>
+      </c>
+      <c r="I16">
+        <v>-15.87</v>
+      </c>
+      <c r="J16">
+        <v>0.15</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="2">
+        <v>45791.71681392361</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>9</v>
+      </c>
+      <c r="H17">
+        <v>-0.35</v>
+      </c>
+      <c r="I17">
+        <v>-15.87</v>
+      </c>
+      <c r="J17">
+        <v>0.15</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>20</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="N17">
+        <v>9</v>
+      </c>
+      <c r="O17">
+        <v>-0.17</v>
+      </c>
+      <c r="P17">
+        <v>30.58</v>
+      </c>
+      <c r="Q17">
+        <v>0.58</v>
+      </c>
+      <c r="R17">
+        <v>28</v>
+      </c>
+      <c r="S17">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="2">
+        <v>45791.71823803241</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>2.73</v>
+      </c>
+      <c r="I18">
+        <v>49.95</v>
+      </c>
+      <c r="J18">
+        <v>0.41</v>
+      </c>
+      <c r="K18">
+        <v>15</v>
+      </c>
+      <c r="L18">
+        <v>150</v>
+      </c>
+      <c r="M18">
+        <v>10</v>
+      </c>
+      <c r="N18">
+        <v>10</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="2">
+        <v>45791.72205133102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>2.73</v>
+      </c>
+      <c r="I19">
+        <v>49.95</v>
+      </c>
+      <c r="J19">
+        <v>0.41</v>
+      </c>
+      <c r="K19">
+        <v>15</v>
+      </c>
+      <c r="L19">
+        <v>150</v>
+      </c>
+      <c r="M19">
+        <v>10</v>
+      </c>
+      <c r="N19">
+        <v>10</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>50</v>
+      </c>
+      <c r="U19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="2">
+        <v>45791.72336005787</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>9</v>
+      </c>
+      <c r="H20">
+        <v>-0.35</v>
+      </c>
+      <c r="I20">
+        <v>-15.87</v>
+      </c>
+      <c r="J20">
+        <v>0.15</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>20</v>
+      </c>
+      <c r="M20">
+        <v>10</v>
+      </c>
+      <c r="N20">
+        <v>9</v>
+      </c>
+      <c r="O20">
+        <v>-0.17</v>
+      </c>
+      <c r="P20">
+        <v>30.58</v>
+      </c>
+      <c r="Q20">
+        <v>0.58</v>
+      </c>
+      <c r="R20">
+        <v>28</v>
+      </c>
+      <c r="S20">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="2">
+        <v>45791.72373836582</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>2.73</v>
+      </c>
+      <c r="I21">
+        <v>49.95</v>
+      </c>
+      <c r="J21">
+        <v>0.41</v>
+      </c>
+      <c r="K21">
+        <v>15</v>
+      </c>
+      <c r="L21">
+        <v>150</v>
+      </c>
+      <c r="M21">
+        <v>10</v>
+      </c>
+      <c r="N21">
+        <v>10</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>10</v>
+      </c>
+      <c r="U21">
+        <v>20</v>
+      </c>
+      <c r="V21">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/reports/strategy_results.xlsx
+++ b/reports/strategy_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="73">
   <si>
     <t>timestamp</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>improved_bb_window</t>
+  </si>
+  <si>
+    <t>orig_sma_short_window</t>
+  </si>
+  <si>
+    <t>orig_sma_long_window</t>
+  </si>
+  <si>
+    <t>orig_bb_window</t>
   </si>
   <si>
     <t xml:space="preserve">content="1️⃣ Explanation: **TSLA Intraday Momentum Reversal Strategy** - Generates 'signal' based on 5-min bar momentum: Buy when price closes above the 3-period high after a 2-period downtrend, Sell when below the 3-period low after a 2-period uptrend, else Hold.
@@ -91,6 +100,22 @@
   </si>
   <si>
     <t xml:space="preserve">content="1️⃣ Explanation: **TSLA Intraday Momentum Reversal Strategy** - Generate 'signal' based on 5-min bar momentum: Buy if Close &gt; High of 3 periods ago &amp; RSI(10) &lt; 70, Sell if Close &lt; Low of 3 periods ago &amp; RSI(10) &gt; 30, else Hold.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">content="1️⃣ Explanation: **TSLA Intraday Momentum Reversal Strategy** - Generates a 'Buy' signal when TSLA's 5-min close crosses above its 10-period moving average after a 3-period below-average close streak, 'Sell' when close crosses below the average after a 3-period above-average streak, otherwise 'Hold'.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">content="1️⃣ Explanation: **TSLA Intraday Mean Reversion Strategy** - Buy when TSLA's 5-min close is below its 20-period mean and RSI(14) &lt; 30, Sell when above mean and RSI(14) &gt; 70, else Hold.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">content="1️⃣ Explanation: **TSLA Intraday Mean Reversion Strategy** - Generate 'signal' based on 5-min bar deviations from a 20-period moving average (MA) of 'Close' price, with a 5-period standard deviation (STD) band; Buy when price is below MA - 1*STD, Sell when above MA + 1*STD, else Hold.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">content="1️⃣ Explanation: **TSLA Intraday Mean Reversion Strategy** - This strategy identifies potential buy/sell signals based on TSLA's 5-min bar price deviations from a short-term mean (20 periods), with a volatility filter using Average True Range (ATR, 10 periods) to avoid high-volatility trades.
 </t>
   </si>
   <si>
@@ -141,6 +166,123 @@
     df.drop(columns=['CloseShift3', 'HighShift3', 'LowShift3', 
                       'DeltaClose', 'RSI_Period', 'Gain', 'Loss', 
                       'AvgGain', 'AvgLoss', 'RS', 'RSI'], inplace=True)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+def add_signal(df):
+    df['MA_10'] = df['Close'].rolling(window=10).mean()
+    up_days = df['Close'].rolling(window=3).apply(lambda x: (x &gt; x.shift(1)).all())
+    down_days = df['Close'].rolling(window=3).apply(lambda x: (x &lt; x.shift(1)).all())
+    signals = np.where(
+        (df['Close'] &gt; df['MA_10']) &amp; up_days,
+        1,
+        np.where(
+            (df['Close'] &lt; df['MA_10']) &amp; down_days,
+            -1,
+            0
+        )
+    )
+    df['signal'] = signals
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+def add_signal(df):
+    df['CloseShift20'] = df['Close'].shift(20)
+    df['Mean20'] = df['Close'].rolling(window=20).mean()
+    df['DeltaClose'] = df['Close'] - df['CloseShift20']
+    df['RSI_Numerator'] = df['DeltaClose'].apply(lambda x: x if x &gt; 0 else 0)
+    df['RSI_Denominator'] = df['DeltaClose'].apply(lambda x: abs(x) if x &lt; 0 else 0)
+    df['RSI_AvgGain'] = df['RSI_Numerator'].rolling(window=14).mean()
+    df['RSI_AvgLoss'] = df['RSI_Denominator'].rolling(window=14).mean()
+    df['RSI'] = 100 - (100 / (1 + (df['RSI_AvgGain'] / df['RSI_AvgLoss'])))
+    df['signal'] = -1
+    df.loc[(df['Close'] &lt; df['Mean20']) &amp; (df['RSI'] &lt; 30), 'signal'] = 1
+    df.loc[(df['Close'] &gt; df['Mean20']) &amp; (df['RSI'] &gt; 70), 'signal'] = -1
+    df.loc[~((df['Close'] &lt; df['Mean20']) &amp; (df['RSI'] &lt; 30)) &amp; 
+            ~((df['Close'] &gt; df['Mean20']) &amp; (df['RSI'] &gt; 70)), 'signal'] = 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+def add_signal(df):
+    df['MA_20'] = df['Close'].rolling(window=20).mean()
+    df['STD_5'] = df['Close'].rolling(window=5).std()
+    df['Upper_Band'] = df['MA_20'] + df['STD_5']
+    df['Lower_Band'] = df['MA_20'] - df['STD_5']
+    df['signal'] = 0
+    df.loc[df['Close'] &lt; df['Lower_Band'], 'signal'] = 1
+    df.loc[df['Close'] &gt; df['Upper_Band'], 'signal'] = -1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+def add_signal(df):
+    df['CloseShift20'] = df['Close'].shift(20)
+    df['Mean20'] = df['Close'].rolling(window=20).mean()
+    df['DeltaClose'] = df['Close'] - df['CloseShift20']
+    df['RSI'] = 100 - (100 / (1 + df['DeltaClose'].rolling(window=14).apply(lambda x: np.sum(x &gt; 0)/14)))
+    df['signal'] = 0
+    mask_buy = (df['Close'] &lt; df['Mean20']) &amp; (df['RSI'] &lt; 30)
+    mask_sell = (df['Close'] &gt; df['Mean20']) &amp; (df['RSI'] &gt; 70)
+    df.loc[mask_buy, 'signal'] = 1
+    df.loc[mask_sell, 'signal'] = -1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+def add_signal(df):
+    df['Mean'] = df['Close'].rolling(window=20).mean()
+    atr_window = 10
+    df['HL_Diff'] = df['High'] - df['Low']
+    df['ATR'] = df['HL_Diff'].rolling(window=atr_window).mean()
+    df['Volatility_Filter'] = df['ATR'] &gt; df['ATR'].rolling(window=20).mean()
+    df['Price_Deviation'] = (df['Close'] - df['Mean']) / df['Close']
+    buy_condition = (df['Price_Deviation'] &lt; -0.01) &amp; (~df['Volatility_Filter'])
+    sell_condition = (df['Price_Deviation'] &gt; 0.01) &amp; (~df['Volatility_Filter'])
+    df['signal'] = 0
+    df.loc[buy_condition, 'signal'] = 1
+    df.loc[sell_condition, 'signal'] = -1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+def add_signal(df):
+    df['CloseShift20'] = df['Close'].shift(20)
+    df['Mean20'] = df['CloseShift20'].rolling(window=20).mean()
+    df['DeltaClose'] = df['Close'] - df['Mean20']
+    df['RSI'] = df['DeltaClose'].apply(lambda x: 100 - (100 / (1 + (10**abs(x)/10**abs(x)))))
+    df['signal'] = 0
+    df.loc[(df['Close'] &lt; df['Mean20']) &amp; (df['RSI'] &lt; 30), 'signal'] = 1
+    df.loc[(df['Close'] &gt; df['Mean20']) &amp; (df['RSI'] &gt; 70), 'signal'] = -1
+    del df['CloseShift20']
+    del df['Mean20']
+    del df['DeltaClose']
+    del df['RSI']
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+def add_signal(df):
+    df['CloseShift20'] = df['Close'].shift(20)
+    df['Mean20'] = df['CloseShift20'].rolling(window=20).mean()
+    df['DeltaClose'] = df['Close'] - df['Mean20']
+    df['RSI'] = df['DeltaClose'].apply(lambda x: 100 - (100 / (1 + (10**x))))
+    # Corrected RSI calculation using actual formula
+    delta = df['Close'].diff().dropna()
+    up, down = delta.copy(), delta.copy()
+    up[up &lt; 0] = 0
+    down[down &gt; 0] = 0
+    roll_up1 = up.rolling(window=14).mean()
+    roll_down1 = down.rolling(window=14).mean().abs()
+    RS = roll_up1 / roll_down1
+    df['RSI'] = 100.0 - (100.0 / (1.0 + RS))
+    df['signal'] = 0  # Default to Hold
+    buy_mask = (df['Close'] &lt; df['Mean20']) &amp; (df['RSI'] &lt; 30)
+    sell_mask = (df['Close'] &gt; df['Mean20']) &amp; (df['RSI'] &gt; 70)
+    df.loc[buy_mask, 'signal'] = 1  # Buy
+    df.loc[sell_mask, 'signal'] = -1  # Sell
 </t>
   </si>
   <si>
@@ -289,6 +431,112 @@
 **Strategy Brief**: 
 The revised strategy, "Confirming Momentum with MA and RSI," generates buy signals when TSLA's price exceeds its 3-period high, RSI is below 40, the short-term MA (10 periods) is above the long-term MA (20 periods), and the price is above a recent low. Sell signals are generated when the price is below the 3-period low, RSI is above 80, the short-term MA is below the long-term MA, and the price is below a recent high.
 **2. Revised Python Strategy Function**</t>
+  </si>
+  <si>
+    <t>### 1. Brief Explanation of Changes and Strategy Analysis
+**Analysis of Weaknesses in the Original Strategy:**
+1. **Over-reliance on Simple Moving Average (SMA) and RSI**: The strategy might not capture more complex market behaviors.
+2. **Low Trade Frequency**: Only 4 trades over 5 days might indicate overly restrictive conditions or a lack of responsiveness to market movements.
+3. **Sharp Ratio Interpretation Caution**: A high Sharpe Ratio is positive, but with a low total return, it might simply indicate low volatility in returns rather than high profitability.
+4. **No Stop Loss or Take Profit**: The strategy only enters trades based on the conditions without a clear exit strategy for profits or losses.
+5. **RSI Calculation Issue**: The original RSI calculation seems incorrect. Typically, RSI is calculated using the ratio of average gain to average loss over a period, not the proportion of positive changes.
+**Improvements in the Revised Strategy:**
+- **Enhanced RSI Calculation**: Corrected RSI formula for more accurate overbought/oversold signals.
+- **Added Momentum Confirmation**: Incorporated a short-term SMA (&lt;20-period SMA) to confirm the trade direction, aiming to capture momentum.
+- **Introduced a Basic Stop Loss Condition**: Signals a sell (for longs) or buy (for shorts) if the price moves against the trade by a fixed percentage (2% in this case), to limit losses.
+- **Increased Trade Potential with Reduced Thresholds**: Slightly relaxed the RSI thresholds (from 30/70 to 25/75) to potentially increase trade frequency while still maintaining a conservative approach.
+**Revised Strategy Brief:**
+The revised strategy, named "Momentum Confirmed Mean Reversion with Stop Loss," aims to improve profitability and responsiveness by:
+- Correctly calculating RSI for overbought/oversold conditions.
+- Using a shorter SMA for momentum confirmation.
+- Implementing a basic stop loss to limit drawdowns.
+- Slightly increasing trade frequency potential.
+### 2. Revised Python Strategy Function</t>
+  </si>
+  <si>
+    <t>### 1. Brief Explanation of Changes and Strategy Analysis
+**Analysis of Weaknesses in the Original Strategy:**
+1. **No Trades Executed**: The backtest results show 0 trades, indicating the strategy's conditions were never met over the 5-day period. This suggests overly restrictive conditions.
+2. **RSI Calculation Issue**: The RSI calculation appears incorrect. The formula used does not accurately represent the Relative Strength Index, which is meant to measure the magnitude of recent price changes to determine overbought or oversold conditions.
+3. **Lack of Risk Management**: The strategy does not incorporate any form of risk management (e.g., position sizing, stop-loss).
+4. **Dependency on Single Time Frame**: The strategy only considers a 20-period shift and mean, which might not capture broader or narrower market trends.
+**Revised Strategy Explanation:**
+- **Corrected RSI Calculation**: Implement a proper 14-period RSI calculation to identify overbought (&gt;70) and oversold (&lt;30) conditions.
+- **Simplified yet Effective Logic**:
+  - **Buy Signal**: Issued when the price crosses above the 20-period moving average and the RSI is below 30 (oversold condition).
+  - **Sell Signal**: Issued when the price crosses below the 20-period moving average and the RSI is above 70 (overbought condition).
+- **Risk Management**: Not directly implemented in signal generation but suggested for overall strategy (e.g., fixed fractional position sizing).
+- **Pandas/Numpy Compliance**: Ensured the strategy only uses Pandas and Numpy for calculations.
+### 2. Revised Python Strategy Function</t>
+  </si>
+  <si>
+    <t>### 1. Brief Explanation of Changes and Strategy Analysis
+**Analysis of Weaknesses in the Original Strategy:**
+1. **Over-reliance on Simple Moving Average (SMA) and RSI**: The strategy might not capture more complex market behaviors.
+2. **Low Trade Frequency**: Only 4 trades over 5 days might indicate overly restrictive conditions or a lack of responsiveness to market movements.
+3. **Sharp Ratio Interpretation Caution**: A high Sharpe Ratio is positive, but with a low total return, it might simply indicate low volatility in returns rather than high profitability.
+4. **No Stop Loss or Take Profit**: The strategy only enters trades based on the conditions without a clear exit strategy for profits or losses.
+5. **RSI Calculation Issue**: The original RSI calculation seems incorrect. Typically, RSI is calculated using the ratio of average gain to average loss over a period, not the proportion of positive changes.
+**Improvements in the Revised Strategy:**
+- **Enhanced RSI Calculation**: Corrected RSI formula for more accurate overbought/oversold signals.
+- **Added Momentum Confirmation**: Incorporated a short-term SMA (&lt;20-period SMA) to confirm the trade direction, aiming to capture momentum.
+- **Introduced Take Profit/Loss Logic**: Simple price-based exit strategy to lock in profits or limit losses.
+- **Optimized Entry Conditions**: Slightly relaxed entry conditions while maintaining a focus on mean reversion and momentum confirmation.
+**Revised Strategy Brief:**
+The revised strategy, "Momentum Confirmed Mean Reversion with Risk Management," aims to improve profitability and reduce volatility by:
+- Correctly calculating RSI for overbought/oversold conditions.
+- Confirming trades with a shorter-term momentum indicator.
+- Implementing basic take profit/loss logic to manage trade outcomes.
+### 2. Revised Python Strategy Function</t>
+  </si>
+  <si>
+    <t>### 1. Brief Explanation of Changes and Strategy Analysis
+**Analysis of Weaknesses in the Original Strategy:**
+1. **Incorrect Initial RSI Calculation**: The first RSI calculation was incorrect and later corrected, but the corrected version was not used in the signal generation. The strategy only used the corrected RSI for the signal.
+2. **Over-reliance on Single Timeframe**: The strategy only considers a 20-period mean and a 14-period RSI, which might not capture broader or shorter-term trends effectively.
+3. **Lack of Risk Management**: No explicit risk management strategy (e.g., position sizing based on volatility or stop-loss levels).
+4. **Simple Thresholds**: Static thresholds for RSI (30, 70) and mean comparison might not adapt well to changing market conditions.
+5. **Low Trade Count**: Only 6 trades over 5 days suggest the strategy might be too conservative or not responsive enough.
+**Improvements in the Revised Strategy:**
+- **Utilize Corrected RSI**: Ensure the corrected RSI formula is used.
+- **Multi-Timeframe Approach**: Incorporate both shorter and longer-term indicators to capture more market dynamics.
+- **Dynamic Thresholds for RSI**: Adjust RSI thresholds based on the asset's volatility to make the strategy more adaptive.
+- **Basic Risk Management via Position Sizing**: Simplistically adjust signal strength based on volatility (not fully implemented here due to the constraint of only modifying the `signal` column, but hinted at in the explanation).
+- **Increase Trade Responsiveness**: Lower the period for the mean calculation to make the strategy more responsive.
+### 2. Revised Python Strategy Function</t>
+  </si>
+  <si>
+    <t>### 1. Brief Explanation of Changes and Strategy Analysis
+**Analysis of Weaknesses in the Original Strategy:**
+1. **No Trades Executed**: The backtest results show 0 trades, indicating the strategy's conditions were never met over the 5-day period. This suggests overly restrictive conditions.
+2. **RSI Calculation Issue**: The RSI calculation appears incorrect. The formula used does not accurately represent the Relative Strength Index, which is meant to measure the magnitude of recent price changes to determine overbought or oversold conditions.
+3. **Lack of Risk Management**: The strategy does not incorporate any form of risk management (e.g., position sizing, stop-loss).
+4. **Dependency on Single Timeframe**: The strategy only considers a single timeframe (20 periods for both shift and mean calculation), which might not capture broader market trends or shorter-term fluctuations effectively.
+**Improvements in the Revised Strategy:**
+- **Corrected RSI Calculation**: Implementing a proper RSI calculation to identify overbought and oversold conditions.
+- **Less Restrictive Entry Conditions**: Adjusting the conditions to potentially increase trade frequency while maintaining a logical entry strategy.
+- **Basic Risk Management via Position Sizing**: Not directly applicable in signal generation but mentioned for overall strategy improvement; however, we'll focus on signal generation as per the task.
+- **Multi-Timeframe Approach**: Incorporating both shorter and longer-term averages to capture trend and potential reversals more effectively.
+**Revised Strategy Explanation:**
+The revised strategy aims to generate buy and sell signals based on a combination of Relative Strength Index (RSI) for overbought/oversold conditions and a multi-timeframe moving average crossover approach to gauge the trend. 
+- **Buy Signal**: Generated when the short-term average crosses above the long-term average and the RSI indicates an oversold condition (&lt; 30).
+- **Sell Signal**: Generated when the short-term average crosses below the long-term average and the RSI indicates an overbought condition (&gt; 70).
+- **Hold (0)**: Default for all other conditions.
+### 2. Revised Python Function</t>
+  </si>
+  <si>
+    <t>### 1. Brief Explanation of Changes and Strategy Analysis
+**Analysis of Weaknesses in the Original Strategy:**
+1. **Over-reliance on Simple Moving Average (SMA) and RSI**: The strategy might not capture more complex market behaviors.
+2. **Low Trade Frequency**: Only 4 trades over 5 days might indicate overly conservative conditions or a lack of responsiveness to market movements.
+3. **Sharp Ratio Interpretation Caution**: A high Sharpe Ratio is positive, but with a low total return, it might suggest risk management is good, but profit generation could be improved.
+4. **No Consideration for Volatility or Market State**: Entering trades without considering the market's volatility or state might lead to unnecessary risks.
+**Improvement Strategy: "Adaptive Mean Reversion with Volatility Awareness"**
+- **Enhance Mean Reversion Signal**: Use Exponential Moving Averages (EMAs) for faster response to price changes.
+- **Volatility Adjustment**: Incorporate Average True Range (ATR) to adjust trade signals based on volatility.
+- **Refine RSI Conditions for Robustness**: Tighten RSI thresholds and add a volatility filter to reduce false signals.
+- **Increase Trade Opportunity with Caution**: Introduce a 'hold' adjustment based on short-term momentum to potentially increase trade frequency without over-trading.
+### 2. Revised Python Strategy Function</t>
   </si>
   <si>
     <t># mock improved code
@@ -667,6 +915,230 @@
     df.drop(columns=['RSI_Period', 'Gain', 'Loss', 'AvgGain', 'AvgLoss', 'RS', 'RSI',
                       'MA_Short', 'MA_Long', 'Recent_High', 'Recent_Low',
                       'CloseShift3', 'HighShift3', 'LowShift3'], inplace=True)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a mean reversion strategy
+    with RSI overbought/oversold conditions, momentum confirmation, and a stop loss.
+    Parameters:
+    - df (DataFrame): Input DataFrame with OHLCV data.
+    Returns:
+    - df (DataFrame): DataFrame with an additional 'signal' column.
+    """
+    # Calculate Short and Long Term Moving Averages for Momentum and Mean Reversion
+    df['ShortMA'] = df['Close'].rolling(window=5).mean()  # Momentum Confirmation
+    df['LongMA'] = df['Close'].rolling(window=20).mean()   # Mean Reversion Signal
+    # Correct RSI Calculation
+    df['Delta'] = df['Close'].diff().fillna(0)
+    df['Up'] = df['Delta'].apply(lambda x: x if x &gt; 0 else 0)
+    df['Down'] = df['Delta'].apply(lambda x: abs(x) if x &lt; 0 else 0)
+    df['RollingUp'] = df['Up'].rolling(window=14).mean()
+    df['RollingDown'] = df['Down'].rolling(window=14).mean()
+    df['RS'] = df['RollingUp'] / df['RollingDown']
+    df['RSI'] = 100 - (100 / (1 + df['RS']))
+    # Basic Stop Loss Percentage (2%)
+    df['StopLossPrice'] = df['Close'] * 0.98  # For buys, sell if close below this
+    df['TakeProfitPrice'] = df['Close'] * 1.02  # For buys, sell if close above this
+    # Initialize Signal Column
+    df['signal'] = 0
+    # Buy Signal Conditions
+    mask_buy = (df['Close'] &lt; df['LongMA']) &amp; (df['ShortMA'] &gt; df['LongMA']) &amp; (df['RSI'] &lt; 25)
+    # Sell Signal Conditions
+    mask_sell = (df['Close'] &gt; df['LongMA']) &amp; (df['ShortMA'] &lt; df['LongMA']) &amp; (df['RSI'] &gt; 75)
+    # Stop Loss Condition (Assuming previous signal was a buy for simplicity)
+    mask_stop_loss = (df['signal'].shift(1) == 1) &amp; (df['Close'] &lt; df['StopLossPrice'].shift(1))
+    mask_take_profit = (df['signal'].shift(1) == 1) &amp; (df['Close'] &gt; df['TakeProfitPrice'].shift(1))
+    # Assign Signals
+    df.loc[mask_buy, 'signal'] = 1
+    df.loc[mask_sell, 'signal'] = -1
+    df.loc[mask_stop_loss, 'signal'] = -1  # Sell on Stop Loss
+    df.loc[mask_take_profit, 'signal'] = -1  # Sell on Take Profit
+    # Ensure signal Series uses the same index as df
+    df["signal"] = pd.Series(df["signal"].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on corrected strategy logic.
+    Parameters:
+    - df (DataFrame): Input DataFrame with 'Close' column.
+    Returns:
+    - df (DataFrame): DataFrame with added 'signal' column.
+    """
+    # Calculate 20-period Moving Average
+    df['MA20'] = df['Close'].rolling(window=20).mean()
+    # Correct 14-period RSI Calculation
+    df['Delta'] = df['Close'].diff().fillna(0)
+    df['Up'] = df['Delta'].apply(lambda x: x if x &gt; 0 else 0)
+    df['Down'] = df['Delta'].apply(lambda x: abs(x) if x &lt; 0 else 0)
+    df['RollingUp'] = df['Up'].rolling(window=14).mean()
+    df['RollingDown'] = df['Down'].rolling(window=14).mean()
+    df['RS'] = df['RollingUp'] / df['RollingDown']
+    df['RSI'] = 100 - (100 / (1 + df['RS']))
+    # Generate Signals
+    buy_condition = (df['Close'] &gt; df['MA20']) &amp; (df['RSI'] &lt; 30)
+    sell_condition = (df['Close'] &lt; df['MA20']) &amp; (df['RSI'] &gt; 70)
+    # Initialize Signal Column
+    df['signal'] = 0
+    df.loc[buy_condition, 'signal'] = 1
+    df.loc[sell_condition, 'signal'] = -1
+    # Clean Up Intermediate Columns (Optional, for memory efficiency)
+    # df.drop(columns=['MA20', 'Delta', 'Up', 'Down', 'RollingUp', 'RollingDown', 'RS', 'RSI'], inplace=True)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a momentum confirmed mean reversion strategy with basic risk management.
+    Parameters:
+    - df (DataFrame): Input DataFrame with 'Open', 'High', 'Low', 'Close', 'Volume' columns.
+    Returns:
+    - df (DataFrame): Modified DataFrame with the added 'signal' column.
+    """
+    # Calculate Short and Long Term Moving Averages for Trend and Momentum
+    df['SMA_10'] = df['Close'].rolling(window=10).mean()  # Short-term for momentum
+    df['SMA_20'] = df['Close'].rolling(window=20).mean()  # Long-term for trend
+    # Correct RSI Calculation
+    df['Delta'] = df['Close'].diff().fillna(0)
+    df['Up'] = df['Delta'].apply(lambda x: x if x &gt; 0 else 0)
+    df['Down'] = df['Delta'].apply(lambda x: abs(x) if x &lt; 0 else 0)
+    df['Rolling_Up'] = df['Up'].rolling(window=14).mean()
+    df['Rolling_Down'] = df['Down'].rolling(window=14).mean()
+    df['RS'] = df['Rolling_Up'] / df['Rolling_Down']
+    df['RSI'] = 100 - (100 / (1 + df['RS']))
+    # Take Profit/Loss Percentages (Example: 1% for TP, 0.5% for SL, adjust as needed)
+    tp_pct = 0.01
+    sl_pct = 0.005
+    # Initialize Signal Column
+    df['signal'] = 0
+    # Buy Signal Conditions
+    buy_mask = (df['Close'] &lt; df['SMA_20']) &amp; (df['RSI'] &lt; 30) &amp; (df['SMA_10'] &gt; df['SMA_20'])  # Momentum confirmation
+    df.loc[buy_mask, 'signal'] = 1
+    # Sell Signal Conditions
+    sell_mask = (df['Close'] &gt; df['SMA_20']) &amp; (df['RSI'] &gt; 70) &amp; (df['SMA_10'] &lt; df['SMA_20'])  # Momentum confirmation
+    df.loc[sell_mask, 'signal'] = -1
+    # Simple Take Profit/Loss Logic (Assuming 'signal' column indicates open positions)
+    df['Prev_Signal'] = df['signal'].shift(1)
+    take_profit_mask = ((df['signal'] == 1) &amp; (df['Prev_Signal'] == 1) &amp; (df['Close'] &gt; df['Close'].shift(1)*(1+tp_pct))) |                        ((df['signal'] == -1) &amp; (df['Prev_Signal'] == -1) &amp; (df['Close'] &lt; df['Close'].shift(1)*(1-tp_pct)))
+    take_loss_mask = ((df['signal'] == 1) &amp; (df['Prev_Signal'] == 1) &amp; (df['Close'] &lt; df['Close'].shift(1)*(1-sl_pct))) |                      ((df['signal'] == -1) &amp; (df['Prev_Signal'] == -1) &amp; (df['Close'] &gt; df['Close'].shift(1)*(1+sl_pct)))
+    # Close Positions on Take Profit/Loss
+    df.loc[take_profit_mask | take_loss_mask, 'signal'] = 0  # Simplified; in practice, might want to differentiate between TP/SL and new signals
+    # Ensure 'signal' Series has the same index as df
+    df["signal"] = pd.Series(df["signal"].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a multi-timeframe strategy.
+    - Short-term Mean (10 periods) for responsiveness
+    - Corrected RSI (14 periods) with dynamic thresholds based on volatility
+    """
+    # Short-term Mean
+    df['CloseShift10'] = df['Close'].shift(10)
+    df['Mean10'] = df['CloseShift10'].rolling(window=10).mean()
+    # Corrected RSI Calculation
+    delta = df['Close'].diff().dropna()
+    up, down = delta.copy(), delta.copy()
+    up[up &lt; 0] = 0
+    down[down &gt; 0] = 0
+    roll_up1 = up.rolling(window=14).mean()
+    roll_down1 = down.rolling(window=14).mean().abs()
+    RS = roll_up1 / roll_down1
+    df['RSI'] = 100.0 - (100.0 / (1.0 + RS))
+    # Dynamic RSI Thresholds based on Volatility (Simplified Example)
+    # Here, we simply adjust thresholds; for full adaptation, one would calculate volatility and adjust thresholds dynamically
+    vol_adj = df['Close'].rolling(20).std().fillna(0)  # Simplified volatility measure
+    df['RSI_Low_Threshold'] = 30 - (vol_adj / df['Close']) * 100 * 0.1  # Example adjustment, not fully dynamic
+    df['RSI_High_Threshold'] = 70 + (vol_adj / df['Close']) * 100 * 0.1
+    # Ensure thresholds are within sensible bounds
+    df['RSI_Low_Threshold'] = df['RSI_Low_Threshold'].clip(lower=20, upper=40)
+    df['RSI_High_Threshold'] = df['RSI_High_Threshold'].clip(lower=60, upper=80)
+    # Signal Generation
+    df['signal'] = 0  # Default to Hold
+    # Buy Signal: Close below short-term mean &amp; RSI below low threshold
+    buy_mask = (df['Close'] &lt; df['Mean10']) &amp; (df['RSI'] &lt; df['RSI_Low_Threshold'])
+    df.loc[buy_mask, 'signal'] = 1  # Buy
+    # Sell Signal: Close above short-term mean &amp; RSI above high threshold
+    sell_mask = (df['Close'] &gt; df['Mean10']) &amp; (df['RSI'] &gt; df['RSI_High_Threshold'])
+    df.loc[sell_mask, 'signal'] = -1  # Sell
+    # Clean up temporary columns (for production, consider if these are needed for monitoring)
+    df.drop(columns=['CloseShift10', 'Mean10', 'RSI_Low_Threshold', 'RSI_High_Threshold'], inplace=True, errors='ignore')
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a multi-timeframe MA crossover and RSI strategy.
+    Parameters:
+    - df (DataFrame): Input DataFrame with 'Close' column.
+    Returns:
+    - df (DataFrame): DataFrame with added 'signal' column.
+    """
+    # Calculate Short-Term and Long-Term Moving Averages
+    df['ShortMA'] = df['Close'].rolling(window=10).mean()  # Short-term average (10 periods)
+    df['LongMA'] = df['Close'].rolling(window=30).mean()   # Long-term average (30 periods)
+    # Correct RSI Calculation
+    df['Delta'] = df['Close'].diff().fillna(0)
+    df['Up'] = df['Delta'].apply(lambda x: x if x &gt; 0 else 0)
+    df['Down'] = df['Delta'].apply(lambda x: abs(x) if x &lt; 0 else 0)
+    df['RollingUp'] = df['Up'].rolling(window=14).mean()
+    df['RollingDown'] = df['Down'].rolling(window=14).mean()
+    df['RS'] = df['RollingUp'] / df['RollingDown']
+    df['RSI'] = 100 - (100 / (1 + df['RS']))
+    # Generate Signals
+    buy_condition = (df['ShortMA'] &gt; df['LongMA']) &amp; (df['RSI'] &lt; 30)
+    sell_condition = (df['ShortMA'] &lt; df['LongMA']) &amp; (df['RSI'] &gt; 70)
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Apply Conditions
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Clean Up Intermediate Columns (Comment out if you want to keep for analysis)
+    # df.drop(columns=['ShortMA', 'LongMA', 'Delta', 'Up', 'Down', 'RollingUp', 'RollingDown', 'RS', 'RSI'], inplace=True)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on an adaptive mean reversion strategy with volatility awareness.
+    Parameters:
+    - df (DataFrame): Input DataFrame with OHLCV data.
+    Returns:
+    - df (DataFrame): Modified DataFrame with the added 'signal' column.
+    """
+    # Calculate Exponential Moving Averages for faster response
+    df['EMA_20'] = df['Close'].ewm(span=20, adjust=False).mean()
+    df['EMA_5'] = df['Close'].ewm(span=5, adjust=False).mean()
+    # Calculate Average True Range (ATR) for volatility awareness
+    df['HL'] = df['High'] - df['Low']
+    df['HLC'] = np.maximum(df['High'] - df['Close'].shift(1), df['Close'].shift(1) - df['Low'])
+    df['TR'] = df[['HL', 'HLC']].max(axis=1)
+    df['ATR'] = df['TR'].ewm(span=14, adjust=False).mean()
+    # RSI Calculation with adjusted window for quicker response
+    df['DeltaClose'] = df['Close'].diff()
+    df['UpDays'] = df['DeltaClose'].apply(lambda x: x if x &gt; 0 else 0)
+    df['DownDays'] = df['DeltaClose'].apply(lambda x: -x if x &lt; 0 else 0)
+    df['RollingUp'] = df['UpDays'].ewm(span=7, adjust=False).mean()
+    df['RollingDown'] = df['DownDays'].ewm(span=7, adjust=False).mean()
+    df['RSI'] = 100 - (100 / (1 + df['RollingUp'] / df['RollingDown']))
+    # Define signals with volatility and momentum adjustments
+    df['signal'] = 0  # Initialize all signals to 'hold'
+    # Buy Signal: Price below EMA, RSI oversold, and volatility not excessively high
+    mask_buy = (df['Close'] &lt; df['EMA_20']) &amp; (df['RSI'] &lt; 25) &amp; (df['ATR'] &lt; df['ATR'].mean())
+    # Sell Signal: Price above EMA, RSI overbought, and volatility not excessively low
+    mask_sell = (df['Close'] &gt; df['EMA_20']) &amp; (df['RSI'] &gt; 75) &amp; (df['ATR'] &gt; df['ATR'].mean() / 2)
+    # Short-term momentum filter to potentially increase trade frequency
+    mask_buy_momentum = df['EMA_5'] &gt; df['EMA_20']
+    mask_sell_momentum = df['EMA_5'] &lt; df['EMA_20']
+    # Apply signals with momentum filters
+    df.loc[mask_buy &amp; mask_buy_momentum, 'signal'] = 1
+    df.loc[mask_sell &amp; mask_sell_momentum, 'signal'] = -1
+    # Ensure 'signal' column uses the same index as df
+    df["signal"] = pd.Series(df["signal"].values, index=df.index)
     return df</t>
   </si>
 </sst>
@@ -1029,13 +1501,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,19 +1574,28 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="2">
         <v>45791.61096113426</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -1159,18 +1640,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:25">
       <c r="A3" s="2">
         <v>45791.61911637732</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -1215,18 +1696,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:25">
       <c r="A4" s="2">
         <v>45791.64495565972</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -1271,18 +1752,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:25">
       <c r="A5" s="2">
         <v>45791.65843383102</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -1306,21 +1787,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:25">
       <c r="A6" s="2">
         <v>45791.66350952546</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -1365,21 +1846,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:25">
       <c r="A7" s="2">
         <v>45791.66572505787</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -1433,18 +1914,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:25">
       <c r="A8" s="2">
         <v>45791.67033717593</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -1468,21 +1949,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:25">
       <c r="A9" s="2">
         <v>45791.67127241898</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -1527,18 +2008,18 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:25">
       <c r="A10" s="2">
         <v>45791.69381097223</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1562,18 +2043,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:25">
       <c r="A11" s="2">
         <v>45791.69635695602</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -1597,21 +2078,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:25">
       <c r="A12" s="2">
         <v>45791.69781041667</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -1656,21 +2137,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:25">
       <c r="A13" s="2">
         <v>45791.70026267361</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -1715,18 +2196,18 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:25">
       <c r="A14" s="2">
         <v>45791.70951271991</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -1750,18 +2231,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:25">
       <c r="A15" s="2">
         <v>45791.71200304398</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F15">
         <v>10</v>
@@ -1785,18 +2266,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:25">
       <c r="A16" s="2">
         <v>45791.7134757176</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F16">
         <v>10</v>
@@ -1820,21 +2301,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:25">
       <c r="A17" s="2">
         <v>45791.71681392361</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F17">
         <v>10</v>
@@ -1879,21 +2360,21 @@
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:25">
       <c r="A18" s="2">
         <v>45791.71823803241</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F18">
         <v>10</v>
@@ -1938,21 +2419,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:25">
       <c r="A19" s="2">
         <v>45791.72205133102</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F19">
         <v>10</v>
@@ -2003,21 +2484,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:25">
       <c r="A20" s="2">
         <v>45791.72336005787</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -2062,21 +2543,21 @@
         <v>280</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:25">
       <c r="A21" s="2">
-        <v>45791.72373836582</v>
+        <v>45791.72373836805</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -2128,6 +2609,839 @@
       </c>
       <c r="V21">
         <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="2">
+        <v>45791.72692726852</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>10</v>
+      </c>
+      <c r="X22">
+        <v>3</v>
+      </c>
+      <c r="Y22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="2">
+        <v>45791.72827765047</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>2.73</v>
+      </c>
+      <c r="I23">
+        <v>49.95</v>
+      </c>
+      <c r="J23">
+        <v>0.41</v>
+      </c>
+      <c r="K23">
+        <v>15</v>
+      </c>
+      <c r="L23">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="2">
+        <v>45791.7307649537</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>9</v>
+      </c>
+      <c r="H24">
+        <v>-0.35</v>
+      </c>
+      <c r="I24">
+        <v>-15.87</v>
+      </c>
+      <c r="J24">
+        <v>0.15</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="2">
+        <v>45791.73237489583</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>10</v>
+      </c>
+      <c r="X25">
+        <v>3</v>
+      </c>
+      <c r="Y25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="2">
+        <v>45791.73316085648</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>0.54</v>
+      </c>
+      <c r="I26">
+        <v>9.66</v>
+      </c>
+      <c r="J26">
+        <v>1.92</v>
+      </c>
+      <c r="K26">
+        <v>6</v>
+      </c>
+      <c r="L26">
+        <v>60</v>
+      </c>
+      <c r="W26">
+        <v>20</v>
+      </c>
+      <c r="X26">
+        <v>14</v>
+      </c>
+      <c r="Y26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="2">
+        <v>45791.73400086805</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>9</v>
+      </c>
+      <c r="H27">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="I27">
+        <v>1.92</v>
+      </c>
+      <c r="J27">
+        <v>1.92</v>
+      </c>
+      <c r="K27">
+        <v>8</v>
+      </c>
+      <c r="L27">
+        <v>80</v>
+      </c>
+      <c r="W27">
+        <v>20</v>
+      </c>
+      <c r="X27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" s="2">
+        <v>45791.73502202546</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>0.44</v>
+      </c>
+      <c r="I28">
+        <v>16.04</v>
+      </c>
+      <c r="J28">
+        <v>0.6</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>40</v>
+      </c>
+      <c r="W28">
+        <v>20</v>
+      </c>
+      <c r="X28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" s="2">
+        <v>45791.73704026621</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>9</v>
+      </c>
+      <c r="H29">
+        <v>-0.05</v>
+      </c>
+      <c r="I29">
+        <v>15.87</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>20</v>
+      </c>
+      <c r="W29">
+        <v>20</v>
+      </c>
+      <c r="X29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" s="2">
+        <v>45791.73774111111</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>0.44</v>
+      </c>
+      <c r="I30">
+        <v>16.04</v>
+      </c>
+      <c r="J30">
+        <v>0.6</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <v>40</v>
+      </c>
+      <c r="W30">
+        <v>20</v>
+      </c>
+      <c r="X30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" s="2">
+        <v>45791.74090140047</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>0.44</v>
+      </c>
+      <c r="I31">
+        <v>16.04</v>
+      </c>
+      <c r="J31">
+        <v>0.6</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <v>40</v>
+      </c>
+      <c r="M31">
+        <v>10</v>
+      </c>
+      <c r="N31">
+        <v>10</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>5</v>
+      </c>
+      <c r="U31">
+        <v>20</v>
+      </c>
+      <c r="V31">
+        <v>14</v>
+      </c>
+      <c r="W31">
+        <v>20</v>
+      </c>
+      <c r="X31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="A32" s="2">
+        <v>45791.74140446759</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>0.44</v>
+      </c>
+      <c r="I32">
+        <v>16.04</v>
+      </c>
+      <c r="J32">
+        <v>0.6</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <v>40</v>
+      </c>
+      <c r="W32">
+        <v>20</v>
+      </c>
+      <c r="X32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="A33" s="2">
+        <v>45791.74329165509</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>10</v>
+      </c>
+      <c r="N33">
+        <v>10</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>20</v>
+      </c>
+      <c r="U33">
+        <v>14</v>
+      </c>
+      <c r="V33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="A34" s="2">
+        <v>45791.74377021991</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <v>0.44</v>
+      </c>
+      <c r="I34">
+        <v>16.04</v>
+      </c>
+      <c r="J34">
+        <v>0.6</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>40</v>
+      </c>
+      <c r="M34">
+        <v>10</v>
+      </c>
+      <c r="N34">
+        <v>10</v>
+      </c>
+      <c r="O34">
+        <v>0.01</v>
+      </c>
+      <c r="P34">
+        <v>15.87</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>20</v>
+      </c>
+      <c r="T34">
+        <v>10</v>
+      </c>
+      <c r="U34">
+        <v>20</v>
+      </c>
+      <c r="V34">
+        <v>14</v>
+      </c>
+      <c r="W34">
+        <v>20</v>
+      </c>
+      <c r="X34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="A35" s="2">
+        <v>45791.74420547454</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>0.35</v>
+      </c>
+      <c r="I35">
+        <v>12.95</v>
+      </c>
+      <c r="J35">
+        <v>0.67</v>
+      </c>
+      <c r="K35">
+        <v>6</v>
+      </c>
+      <c r="L35">
+        <v>60</v>
+      </c>
+      <c r="M35">
+        <v>10</v>
+      </c>
+      <c r="N35">
+        <v>9</v>
+      </c>
+      <c r="O35">
+        <v>-0.41</v>
+      </c>
+      <c r="P35">
+        <v>8.69</v>
+      </c>
+      <c r="Q35">
+        <v>1.24</v>
+      </c>
+      <c r="R35">
+        <v>12</v>
+      </c>
+      <c r="S35">
+        <v>120</v>
+      </c>
+      <c r="T35">
+        <v>10</v>
+      </c>
+      <c r="U35">
+        <v>14</v>
+      </c>
+      <c r="V35">
+        <v>14</v>
+      </c>
+      <c r="W35">
+        <v>20</v>
+      </c>
+      <c r="X35">
+        <v>14</v>
+      </c>
+      <c r="Y35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
+      <c r="A36" s="2">
+        <v>45791.7502507176</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>10</v>
+      </c>
+      <c r="N36">
+        <v>9</v>
+      </c>
+      <c r="O36">
+        <v>-0.27</v>
+      </c>
+      <c r="P36">
+        <v>4.48</v>
+      </c>
+      <c r="Q36">
+        <v>0.29</v>
+      </c>
+      <c r="R36">
+        <v>4</v>
+      </c>
+      <c r="S36">
+        <v>40</v>
+      </c>
+      <c r="T36">
+        <v>10</v>
+      </c>
+      <c r="U36">
+        <v>30</v>
+      </c>
+      <c r="V36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" s="2">
+        <v>45791.77269370062</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>0.44</v>
+      </c>
+      <c r="I37">
+        <v>16.04</v>
+      </c>
+      <c r="J37">
+        <v>0.6</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+      <c r="L37">
+        <v>40</v>
+      </c>
+      <c r="M37">
+        <v>10</v>
+      </c>
+      <c r="N37">
+        <v>9</v>
+      </c>
+      <c r="O37">
+        <v>-0.86</v>
+      </c>
+      <c r="P37">
+        <v>-12.54</v>
+      </c>
+      <c r="Q37">
+        <v>0.39</v>
+      </c>
+      <c r="R37">
+        <v>6</v>
+      </c>
+      <c r="S37">
+        <v>60</v>
+      </c>
+      <c r="W37">
+        <v>20</v>
+      </c>
+      <c r="X37">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/reports/strategy_results.xlsx
+++ b/reports/strategy_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>timestamp</t>
   </si>
@@ -116,6 +116,14 @@
   </si>
   <si>
     <t xml:space="preserve">content="1️⃣ Explanation: **TSLA Intraday Mean Reversion Strategy** - This strategy identifies potential buy/sell signals based on TSLA's 5-min bar price deviations from a short-term mean (20 periods), with a volatility filter using Average True Range (ATR, 10 periods) to avoid high-volatility trades.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">content="1️⃣ Explanation: **Mean Reversion with Momentum Filter** - This intraday strategy generates a 'Buy' signal when TSLA's price falls below its 20-period mean (indicating undervaluation) and momentum (as measured by a 5-period moving average crossing above the 20-period) suggests a reversal. 'Sell' signals are triggered when price exceeds the mean with downward momentum. 'Hold' is default.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">content="1️⃣ Explanation: **Mean Reversion with Momentum Filter** - This strategy generates a buy signal when TSLA's price touches the lower Bollinger Band (20-period, 2 std) and the RSI (14-period) is below 30, indicating potential mean reversion, with a sell signal when price touches the upper Bollinger Band and RSI exceeds 70. A hold signal is default.
 </t>
   </si>
   <si>
@@ -283,6 +291,54 @@
     sell_mask = (df['Close'] &gt; df['Mean20']) &amp; (df['RSI'] &gt; 70)
     df.loc[buy_mask, 'signal'] = 1  # Buy
     df.loc[sell_mask, 'signal'] = -1  # Sell
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+def add_signal(df):
+    df['Mean_20'] = df['Close'].rolling(window=20).mean()
+    df['MA_5'] = df['Close'].rolling(window=5).mean()
+    df['signal'] = 0  # Default to Hold
+    up_momentum = df['MA_5'] &gt; df['MA_5'].shift(1)
+    down_momentum = df['MA_5'] &lt; df['MA_5'].shift(1)
+    buy_condition = (df['Close'] &lt; df['Mean_20']) &amp; up_momentum
+    sell_condition = (df['Close'] &gt; df['Mean_20']) &amp; down_momentum
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+def add_signal(df):
+    df['MA'] = df['Close'].rolling(window=20).mean()
+    df['Std'] = df['Close'].rolling(window=20).std()
+    df['Lower_BB'] = df['MA'] - 2 * df['Std']
+    df['Upper_BB'] = df['MA'] + 2 * df['Std']
+    df['RSI'] = df['Close'].diff().fillna(0)
+    df['RSI'] = df['RSI'].apply(lambda x: 1 if x &gt; 0 else 0)
+    df['RSI'] = df['RSI'].rolling(window=14).mean() * 100
+    df['signal'] = 0  # Default to Hold
+    buy_condition = (df['Low'] &lt;= df['Lower_BB']) &amp; (df['RSI'] &lt; 30)
+    sell_condition = (df['High'] &gt;= df['Upper_BB']) &amp; (df['RSI'] &gt; 70)
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+def add_signal(df):
+    df['MA'] = df['Close'].rolling(window=20).mean()
+    df['Std'] = df['Close'].rolling(window=20).std()
+    df['Lower_BB'] = df['MA'] - 2 * df['Std']
+    df['Upper_BB'] = df['MA'] + 2 * df['Std']
+    df['RSI'] = df['Close'].diff().dropna()
+    df['RSI'] = df['RSI'].apply(lambda x: 1 if x &gt; 0 else 0)
+    df['RSI'] = df['RSI'].rolling(window=14).mean() * 100
+    df['signal'] = 0  # Default to Hold
+    buy_condition = (df['Low'] &lt;= df['Lower_BB']) &amp; (df['RSI'] &lt; 30)
+    sell_condition = (df['High'] &gt;= df['Upper_BB']) &amp; (df['RSI'] &gt; 70)
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    df.loc[sell_condition, 'signal'] = -1  # Sell
 </t>
   </si>
   <si>
@@ -536,6 +592,121 @@
 - **Volatility Adjustment**: Incorporate Average True Range (ATR) to adjust trade signals based on volatility.
 - **Refine RSI Conditions for Robustness**: Tighten RSI thresholds and add a volatility filter to reduce false signals.
 - **Increase Trade Opportunity with Caution**: Introduce a 'hold' adjustment based on short-term momentum to potentially increase trade frequency without over-trading.
+### 2. Revised Python Strategy Function</t>
+  </si>
+  <si>
+    <t>### 1. Analysis of Weaknesses and Proposed Improvements
+**Original Strategy Weaknesses:**
+1. **Lack of Trades**: The backtest results show 0 trades, indicating the strategy's conditions might be too restrictive or not triggered in the given 5-day period.
+2. **Overly Simplistic RSI Calculation**: The RSI calculation seems incorrect (division by itself negates the purpose of measuring momentum). A correct RSI calculation considers gains and losses over a period.
+3. **Mean Calculation on Shifted Data**: Calculating `Mean20` on `CloseShift20` (which is `Close` shifted by 20 periods) and then comparing it with current `Close` might not effectively capture the intended trend signal due to the shift.
+4. **No Risk Management or Position Sizing**: The strategy only generates signals without considering position sizing or risk management.
+**Proposed Improvements for the Revised Strategy:**
+- **Correct and Utilize RSI Properly**: Implement a standard 14-period RSI to identify overbought (&gt;70) and oversold (&lt;30) conditions.
+- **Simplify Trend Identification**: Use a shorter-term and longer-term moving average crossover to identify trends.
+- **Increase Trade Generation**: Relax conditions slightly to increase trade frequency while maintaining a logical entry strategy.
+- **Basic Position Sizing (Implicit through Signal Generation)**: Assume equal sizing for simplicity, focusing on improving signal generation.
+### 2. Revised Strategy and Code
+#### Brief Explanation of the Revised Strategy:
+**"TSLA Intraday Trend Following with RSI Confirmation"**
+- **Buy Signal**: Generated when the 5-period moving average crosses above the 20-period moving average (uptrend confirmation) AND RSI is below 30 (oversold condition).
+- **Sell Signal**: Generated when the 5-period moving average crosses below the 20-period moving average (downtrend confirmation) AND RSI is above 70 (overbought condition).
+- **Hold (0)**: All other conditions.
+#### Revised Python Function:</t>
+  </si>
+  <si>
+    <t>### 1. Brief Explanation of Changes and Strategy Improvements
+**Analysis of Weaknesses in the Original Strategy:**
+1. **Overreliance on Simple Moving Averages (SMAs)**: The strategy might not capture more nuanced market movements.
+2. **Lack of Risk Management**: No explicit stop-loss or take-profit conditions.
+3. **Potential for Whipsaws**: The strategy could generate signals that quickly reverse, leading to losses due to transaction costs.
+4. **Low Trade Frequency in Given Dataset**: The goal is to ensure at least 5-10 trades in a 5-day, 5-minute dataset.
+**Improvements in the Revised Strategy:**
+- **Hybrid Momentum Indicator**: Combines SMA with Relative Strength Index (RSI) for more robust signals.
+- **Basic Risk Management**: Incorporates a simple stop-loss based on recent lows/highs for buy/sell signals.
+- **Increased Trade Frequency**: Adjusts conditions to facilitate more trades while maintaining profitability.
+- **Volatility Adjustment**: Uses Average True Range (ATR) for stop-loss levels to adapt to volatility.
+**Revised Strategy Explanation:**
+**"TSLA Intraday Momentum with RSI and Volatility-Adjusted Stop-Loss"**
+- **Buy Signal**: When the 5-period SMA crosses above the 20-period SMA, RSI &lt; 30 (undersold), and the close is above the upper ATR band (indicating a strong upward move).
+- **Sell Signal**: When the 5-period SMA crosses below the 20-period SMA, RSI &gt; 70 (overbought), and the close is below the lower ATR band.
+- **Stop-Loss for Buys**: Close below the lower ATR band after a buy signal.
+- **Stop-Loss for Sells**: Close above the upper ATR band after a sell signal.
+- **Default to Hold** for all other conditions.
+### 2. Revised Python Strategy Function</t>
+  </si>
+  <si>
+    <t>### 1. Brief Explanation of Weaknesses and Improvements
+**Weaknesses in the Original Strategy:**
+1. **Low Trade Frequency**: Only 2 trades over 5 days (5-minute bars) indicate overly strict conditions, potentially missing opportunities.
+2. **Oversimplified RSI Calculation**: The original RSI calculation does not accurately represent the traditional Relative Strength Index, which compares the magnitude of recent gains to losses.
+3. **Lack of Risk Management Indicators**: No clear mechanism to mitigate potential losses (e.g., stop-loss, position sizing).
+4. **Historical Top Strategy Provided but Not Analyzed for Improvement**: Though provided, it wasn't used as a basis for discussion or improvement in the original prompt.
+**Improvements in the Revised Strategy:**
+1. **Enhanced RSI Calculation** for more accurate trend strength assessment.
+2. **Introduction of a Simple Moving Average (SMA) Crossover** to increase trade frequency and capture trend reversals.
+3. **Implementation of a Basic Stop-Loss Mechanism** based on recent price volatility (using Average True Range, ATR) to limit potential losses.
+4. **Simplified Conditions** to increase trade frequency while maintaining a logical trading rationale.
+### 2. Revised Python Strategy Function</t>
+  </si>
+  <si>
+    <t>### 1. Brief Explanation of Weaknesses and Improvements
+**Weaknesses in the Original Strategy:**
+1. **Low Trade Frequency**: Only 2 trades over 5 days (5-minute bars) indicate overly strict conditions, potentially missing opportunities.
+2. **Oversimplified RSI Calculation**: The original RSI calculation does not accurately represent the traditional Relative Strength Index, which compares the magnitude of recent gains to losses.
+3. **Lack of Risk Management Indicators**: No clear mechanism to mitigate potential losses (e.g., stop-loss, position sizing based on volatility).
+4. **Historical Top Strategy Provided but Not Analyzed**: Though provided, the historical top strategy's logic and performance weren't compared or integrated.
+**Improvements in the Revised Strategy:**
+- **Enhanced RSI Calculation** for more accurate trend strength assessment.
+- **Introduction of a Volatility-Based Indicator (Bollinger Bands)** to capture potential reversals more effectively.
+- **Relaxed yet Balanced Conditions** to increase trade frequency while maintaining a logical entry/exit strategy.
+- **Stop-Loss Logic Incorporated** through the use of Bollinger Bands to limit potential losses.
+### 2. Revised Python Strategy Function</t>
+  </si>
+  <si>
+    <t>### 1. Brief Explanation of Weaknesses and Improvements
+**Weaknesses in the Original Strategy:**
+1. **Infrequent Signals**: The original strategy generates very few trades (2 in 5 days), indicating overly restrictive conditions.
+2. **Over-reliance on Extreme RSI Values**: Waiting for RSI &lt; 30 or &gt; 70 might lead to missed opportunities and increased volatility due to late entries/exits.
+3. **No Consideration for Volatility or Trend Confirmation**: Beyond Bollinger Bands, there's no additional volatility or trend strength assessment.
+**Improvements in the Revised Strategy:**
+- **Increased Signal Frequency** through looser, yet sensible, conditions.
+- **Trend Confirmation** using a short-term and long-term Moving Average (MA) crossover.
+- **Volatility Awareness** with a simple Average True Range (ATR) based stop-loss logic for positioning.
+- **RSI Adjustment** for more frequent, yet still meaningful, entry/exit points.
+### 2. Revised Python Strategy Function</t>
+  </si>
+  <si>
+    <t>### 1. Brief Explanation of Weaknesses and Improvements
+**Weaknesses in the Original Strategy:**
+1. **Infrequent Signals**: The original strategy generates very few trades (only 2 in 5 days), which might not be effective for intraday trading on 5-minute bars.
+2. **Strict Conditions**: Combining RSI extremes with Bollinger Band breaches might be too restrictive, leading to infrequent signals.
+3. **Lack of Diversified Signals**: Reliance on a single strategy (momentum reversal) without considering other market states (e.g., trends, mean reversion) might limit profitability.
+4. **Comparison with Historical Top Strategy**: The historical top strategy seems more active but its logic is not directly comparable without performance metrics. However, its focus on recent uptrends/downtrends and 3-period highs/lows might offer more frequent trading opportunities.
+**Improvements in the Revised Strategy:**
+1. **Increased Signal Frequency**: Implement a strategy that can generate more trades while maintaining or improving profitability.
+2. **Looser, More Robust Conditions**: Use a combination of a short-term trend indicator (MA crossover) and a volatility filter (ATR bands) to generate signals.
+3. **Diversified Signal Generation**: Incorporate both trend-following and mean reversion aspects.
+4. **Simplification and Efficiency**: Ensure the strategy remains efficient and easy to understand, using only Pandas/Numpy.
+### 2. Revised Python Strategy Function
+#### **Strategy Explanation:**
+**TSLA Intraday Trend &amp; Volatility Strategy**
+- **Buy Signal**: When the short-term MA crosses above the long-term MA and the price is above the lower ATR band (indicating a potential uptrend with support).
+- **Sell Signal**: When the short-term MA crosses below the long-term MA and the price is below the upper ATR band (indicating a potential downtrend with resistance).
+- **Hold**: All other conditions.
+#### **Revised Code:**</t>
+  </si>
+  <si>
+    <t>### 1. Brief Explanation of Weaknesses and Improvements
+**Weaknesses in the Original Strategy:**
+1. **Infrequent Signals**: The original strategy generates very few trades (only 2 in 5 days), which might not be effective for intraday trading on 5-minute bars.
+2. **Overly Restrictive Conditions**: Combining RSI extremes with Bollinger Band breaches might be too restrictive, leading to infrequent signals.
+3. **Lack of Diversified Signals**: Reliance on a single strategy (momentum reversal based on recent trends and 3-period highs/lows) without considering other market aspects (e.g., volatility, mean reversion).
+4. **Historical Top Strategy Provided but Not Analyzed**: Though provided, the historical top strategy's strengths/weaknesses aren't discussed, but it seems to offer more frequent signals based on trend reversals.
+**Improvements in the Revised Strategy:**
+- **Increased Signal Frequency**: By using less restrictive conditions.
+- **Diversified Signal Generation**: Combining mean reversion (RSI) with momentum (short-term MA crossover) and a basic volatility filter.
+- **Simplified Conditions for Executability**: Ensuring the strategy is deterministic and executable with Pandas/Numpy only.
 ### 2. Revised Python Strategy Function</t>
   </si>
   <si>
@@ -1139,6 +1310,261 @@
     df.loc[mask_sell &amp; mask_sell_momentum, 'signal'] = -1
     # Ensure 'signal' column uses the same index as df
     df["signal"] = pd.Series(df["signal"].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    # Calculate RSI (14-period)
+    delta = df['Close'].diff().dropna()
+    up, down = delta.copy(), delta.copy()
+    up[up &lt; 0] = 0
+    down[down &gt; 0] = 0
+    roll_up = up.rolling(window=14).mean()
+    roll_down = down.rolling(window=14).mean().abs()
+    RS = roll_up / roll_down
+    df['RSI'] = 100 - (100 / (1 + RS))
+    # Calculate Moving Averages
+    df['MA5'] = df['Close'].rolling(window=5).mean()
+    df['MA20'] = df['Close'].rolling(window=20).mean()
+    # Generate Signals
+    buy_condition = (df['MA5'] &gt; df['MA20']) &amp; (df['RSI'] &lt; 30)
+    sell_condition = (df['MA5'] &lt; df['MA20']) &amp; (df['RSI'] &gt; 70)
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Assign Signals
+    df.loc[buy_condition, 'signal'] = 1
+    df.loc[sell_condition, 'signal'] = -1
+    # Clean Up (Optional, for memory efficiency)
+    # del df['RSI'], df['MA5'], df['MA20']
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a hybrid momentum strategy
+    with RSI and volatility-adjusted stop-loss.
+    Parameters:
+    - df (DataFrame): Must contain 'Open', 'High', 'Low', 'Close', 'Volume' columns.
+    Returns:
+    - DataFrame with an additional 'signal' column (-1 for sell, 0 for hold, 1 for buy).
+    """
+    # Ensure necessary columns are present
+    required_columns = ['Open', 'High', 'Low', 'Close', 'Volume']
+    if not all(col in df.columns for col in required_columns):
+        raise ValueError("DataFrame must contain 'Open', 'High', 'Low', 'Close', 'Volume' columns.")
+    # Calculate Moving Averages
+    df['MA_5'] = df['Close'].rolling(window=5).mean()
+    df['MA_20'] = df['Close'].rolling(window=20).mean()
+    # Calculate RSI (14-period for intraday, adjust as needed)
+    df['Delta'] = df['Close'].diff().fillna(0)
+    df['Up'] = df['Delta'].apply(lambda x: x if x &gt; 0 else 0)
+    df['Down'] = df['Delta'].apply(lambda x: abs(x) if x &lt; 0 else 0)
+    df['Rolling_Up'] = df['Up'].rolling(window=14).mean()
+    df['Rolling_Down'] = df['Down'].rolling(window=14).mean()
+    df['RS'] = df['Rolling_Up'] / df['Rolling_Down']
+    df['RSI'] = 100 - (100 / (1 + df['RS']))
+    # Calculate Average True Range (ATR) for 5 periods
+    df['HL'] = df['High'] - df['Low']
+    df['HLC'] = df['High'] - df['Close'].shift(1)
+    df['LHC'] = df['Close'].shift(1) - df['Low']
+    df['TR'] = df[['HL', 'HLC', 'LHC']].max(axis=1)
+    df['ATR'] = df['TR'].rolling(window=5).mean()
+    df['Upper_ATR_Band'] = df['Close'] + 1*df['ATR']
+    df['Lower_ATR_Band'] = df['Close'] - 1*df['ATR']
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Buy Condition
+    buy_condition = (df['MA_5'] &gt; df['MA_20']) &amp; (df['RSI'] &lt; 30) &amp; (df['Close'] &gt; df['Upper_ATR_Band'])
+    df.loc[buy_condition, 'signal'] = 1
+    # Sell Condition
+    sell_condition = (df['MA_5'] &lt; df['MA_20']) &amp; (df['RSI'] &gt; 70) &amp; (df['Close'] &lt; df['Lower_ATR_Band'])
+    df.loc[sell_condition, 'signal'] = -1
+    # Basic Stop-Loss Conditions (Convert to Hold after stop-loss hit)
+    df.loc[(df['signal'].shift(1) == 1) &amp; (df['Close'] &lt; df['Lower_ATR_Band'].shift(1)), 'signal'] = 0
+    df.loc[(df['signal'].shift(1) == -1) &amp; (df['Close'] &gt; df['Upper_ATR_Band'].shift(1)), 'signal'] = 0
+    # Clean up temporary columns (optional, for memory efficiency)
+    # df.drop(columns=['MA_5', 'MA_20', 'RSI', 'ATR', 'Upper_ATR_Band', 'Lower_ATR_Band', 'Delta', 'Up', 'Down', 'Rolling_Up', 'Rolling_Down', 'RS', 'HL', 'HLC', 'LHC', 'TR'], inplace=True)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on enhanced RSI, SMA crossover, and ATR stop-loss.
+    Parameters:
+    - df (DataFrame): Input DataFrame with OHLCV data.
+    Returns:
+    - df (DataFrame): Modified DataFrame with the added 'signal' column.
+    """
+    # Calculate Traditional RSI
+    delta = df['Close'].diff().fillna(0)
+    up, down = delta.copy(), delta.copy()
+    up[up &lt; 0] = 0
+    down[down &gt; 0] = 0
+    roll_up = up.rolling(window=14).mean()
+    roll_down = down.rolling(window=14).mean().abs()
+    RS = roll_up / roll_down
+    df['RSI'] = 100.0 - (100.0 / (1.0 + RS))
+    # Simple Moving Averages for Crossover
+    df['SMA_Fast'] = df['Close'].rolling(window=50).mean()  # Fast SMA (5-minute, 50 bars ≈ 4 hours)
+    df['SMA_Slow'] = df['Close'].rolling(window=100).mean()  # Slow SMA (5-minute, 100 bars ≈ 8 hours)
+    # Average True Range (ATR) for Stop-Loss
+    hl = df['High'] - df['Low']
+    hc = (df['Close'].shift(1) - df['High']).abs()
+    lc = (df['Low'] - df['Close'].shift(1)).abs()
+    df['ATR'] = hl.rolling(window=14).mean()
+    df['Stop_Loss'] = df['Close'] - 2 * df['ATR']  # Simplified Stop-Loss (below current price)
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Buy Condition: SMA Crossover &amp; RSI Oversold
+    buy_condition = (df['SMA_Fast'] &gt; df['SMA_Slow']) &amp; (df['RSI'] &lt; 30)
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    # Sell Condition: SMA Crossover &amp; RSI Overbought or Hit Stop-Loss
+    sell_condition = ((df['SMA_Fast'] &lt; df['SMA_Slow']) &amp; (df['RSI'] &gt; 70)) | (df['Low'] &lt;= df['Stop_Loss'])
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Ensure signal Series uses the same index as df
+    df["signal"] = pd.Series(df["signal"].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a refined strategy:
+    - Buy when Close crosses above the Lower Bollinger Band and RSI &lt; 40.
+    - Sell when Close crosses below the Upper Bollinger Band and RSI &gt; 60.
+    - Hold otherwise.
+    """
+    # Calculate Traditional RSI
+    delta = df['Close'].diff().fillna(0)
+    up, down = delta.copy(), delta.copy()
+    up[up &lt; 0] = 0
+    down[down &gt; 0] = 0
+    roll_up = up.rolling(window=14).mean()
+    roll_down = down.rolling(window=14).mean().abs()
+    RS = roll_up / roll_down
+    df['RSI'] = 100.0 - (100.0 / (1.0 + RS))
+    # Calculate Bollinger Bands
+    df['MA_20'] = df['Close'].rolling(window=20).mean()
+    df['Std_20'] = df['Close'].rolling(window=20).std()
+    df['Lower_BB'] = df['MA_20'] - 2 * df['Std_20']
+    df['Upper_BB'] = df['MA_20'] + 2 * df['Std_20']
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Buy Condition: Close crosses above Lower BB and RSI indicates undervalued
+    buy_condition = (df['Close'] &gt; df['Lower_BB']) &amp; (df['Close'].shift(1) &lt;= df['Lower_BB'].shift(1)) &amp; (df['RSI'] &lt; 40)
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    # Sell Condition: Close crosses below Upper BB and RSI indicates overvalued
+    sell_condition = (df['Close'] &lt; df['Upper_BB']) &amp; (df['Close'].shift(1) &gt;= df['Upper_BB'].shift(1)) &amp; (df['RSI'] &gt; 60)
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Ensure signal Series has the same index as df
+    df['signal'] = pd.Series(df['signal'].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a refined intraday strategy.
+    Strategy Logic:
+    - **Buy**: Short MA crosses above Long MA, RSI &gt; 50, and price above ATR-based 'support'.
+    - **Sell**: Short MA crosses below Long MA, RSI &lt; 50, and price below ATR-based 'resistance'.
+    - **Hold**: Otherwise.
+    """
+    # Calculate Moving Averages
+    df['MA5'] = df['Close'].rolling(window=5).mean()
+    df['MA20'] = df['Close'].rolling(window=20).mean()
+    # Calculate RSI with a less sensitive period for more frequent signals
+    df['RSI'] = df['Close'].diff().dropna()
+    df['RSI'] = df['RSI'].apply(lambda x: 1 if x &gt; 0 else 0)
+    df['RSI'] = df['RSI'].rolling(window=7).mean() * 100  # Adjusted RSI period
+    # Simple ATR for Volatility Awareness
+    df['HL'] = df['High'] - df['Low']
+    df['HPC'] = df['High'] - df['Close'].shift(1)
+    df['LPC'] = df['Close'].shift(1) - df['Low']
+    df['ATR'] = df[['HL', 'HPC', 'LPC']].max(axis=1).rolling(window=20).mean()
+    # ATR-Based Support/Resistance for Entry/Exit
+    df['ATR_Support'] = df['Close'] - 1 * df['ATR']
+    df['ATR_Resistance'] = df['Close'] + 1 * df['ATR']
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Buy Condition
+    buy_condition = (df['MA5'] &gt; df['MA20']) &amp; (df['RSI'] &gt; 50) &amp; (df['Low'] &gt; df['ATR_Support'])
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    # Sell Condition
+    sell_condition = (df['MA5'] &lt; df['MA20']) &amp; (df['RSI'] &lt; 50) &amp; (df['High'] &lt; df['ATR_Resistance'])
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Ensure signal Series uses the same index as df
+    df["signal"] = pd.Series(df["signal"].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a trend and volatility strategy.
+    Parameters:
+    - df (DataFrame): Must contain 'Open', 'High', 'Low', 'Close' columns.
+    Returns:
+    - df (DataFrame): With an additional 'signal' column (-1 for Sell, 0 for Hold, 1 for Buy).
+    """
+    # Ensure necessary columns are present
+    required_columns = ['Open', 'High', 'Low', 'Close']
+    if not all(col in df.columns for col in required_columns):
+        raise ValueError("DataFrame must contain 'Open', 'High', 'Low', 'Close' columns.")
+    # Calculate Moving Averages
+    df['MA5'] = df['Close'].rolling(window=5).mean()  # Short-term MA
+    df['MA20'] = df['Close'].rolling(window=20).mean()  # Long-term MA
+    # Calculate Average True Range (ATR) for volatility
+    df['HL'] = df['High'] - df['Low']
+    df['HPC'] = np.abs(df['High'] - df['Close'].shift(1))
+    df['LPC'] = np.abs(df['Low'] - df['Close'].shift(1))
+    df['TR'] = df[['HL', 'HPC', 'LPC']].max(axis=1)
+    df['ATR'] = df['TR'].rolling(window=20).mean()
+    # Calculate ATR Bands
+    df['Upper_ATR_Band'] = df['MA20'] + 2 * df['ATR']
+    df['Lower_ATR_Band'] = df['MA20'] - 2 * df['ATR']
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Generate Buy Signals
+    buy_condition = (df['MA5'] &gt; df['MA20']) &amp; (df['Close'] &gt; df['Lower_ATR_Band'])
+    df.loc[buy_condition, 'signal'] = 1
+    # Generate Sell Signals
+    sell_condition = (df['MA5'] &lt; df['MA20']) &amp; (df['Close'] &lt; df['Upper_ATR_Band'])
+    df.loc[sell_condition, 'signal'] = -1
+    # Ensure signal Series uses the same index as df
+    df['signal'] = pd.Series(df['signal'].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a combined RSI, MA Crossover, and Volatility Filter Strategy.
+    Parameters:
+    - df (DataFrame): Input DataFrame with 'Open', 'High', 'Low', 'Close', 'Volume' columns.
+    Returns:
+    - df (DataFrame): Modified DataFrame with the added 'signal' column.
+    """
+    # Calculate RSI with a 14-period window
+    df['Delta'] = df['Close'].diff().fillna(0)
+    df['Up'], df['Down'] = df['Delta'].copy(), df['Delta'].copy()
+    df['Up'][df['Up'] &lt; 0] = 0
+    df['Down'][df['Down'] &gt; 0] = 0
+    df['Roll_Up'] = df['Up'].rolling(window=14).mean()
+    df['Roll_Down'] = df['Down'].rolling(window=14).mean().abs()
+    df['RSI'] = 100 - (100 / (1 + df['Roll_Up'] / df['Roll_Down']))
+    # Calculate Short and Long Term Moving Averages
+    df['MA_5'] = df['Close'].rolling(window=5).mean()
+    df['MA_20'] = df['Close'].rolling(window=20).mean()
+    # Simple Volatility Filter using Rolling Standard Deviation
+    df['Volatility'] = df['Close'].rolling(window=20).std()
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Buy Condition: RSI &lt; 60 (not extremely oversold, but showing momentum potential), MA5 &gt; MA20 (upward momentum), and Volatility not too high
+    buy_condition = (df['RSI'] &lt; 60) &amp; (df['MA_5'] &gt; df['MA_20']) &amp; (df['Volatility'] &lt; df['Volatility'].mean())
+    # Sell Condition: RSI &gt; 40 (not extremely overbought), MA5 &lt; MA20 (downward momentum), and Volatility not too low
+    sell_condition = (df['RSI'] &gt; 40) &amp; (df['MA_5'] &lt; df['MA_20']) &amp; (df['Volatility'] &gt; df['Volatility'].quantile(0.25))
+    # Assign Signals
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Ensure 'signal' Series has the same index as df
+    df['signal'] = pd.Series(df['signal'].values, index=df.index)
     return df</t>
   </si>
 </sst>
@@ -1501,7 +1927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y37"/>
+  <dimension ref="A1:Y50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1592,10 +2018,10 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -1648,10 +2074,10 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -1704,10 +2130,10 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -1760,10 +2186,10 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -1795,13 +2221,13 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -1854,13 +2280,13 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -1922,10 +2348,10 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -1957,13 +2383,13 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -2016,10 +2442,10 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -2051,10 +2477,10 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -2086,13 +2512,13 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -2145,13 +2571,13 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -2204,10 +2630,10 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -2239,10 +2665,10 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F15">
         <v>10</v>
@@ -2274,10 +2700,10 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F16">
         <v>10</v>
@@ -2309,13 +2735,13 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F17">
         <v>10</v>
@@ -2368,13 +2794,13 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F18">
         <v>10</v>
@@ -2427,13 +2853,13 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F19">
         <v>10</v>
@@ -2492,13 +2918,13 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -2551,13 +2977,13 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -2619,10 +3045,10 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F22">
         <v>10</v>
@@ -2663,10 +3089,10 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F23">
         <v>10</v>
@@ -2698,10 +3124,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F24">
         <v>10</v>
@@ -2733,10 +3159,10 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F25">
         <v>10</v>
@@ -2777,10 +3203,10 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F26">
         <v>10</v>
@@ -2821,10 +3247,10 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F27">
         <v>10</v>
@@ -2862,10 +3288,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F28">
         <v>10</v>
@@ -2903,10 +3329,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F29">
         <v>10</v>
@@ -2944,10 +3370,10 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F30">
         <v>10</v>
@@ -2985,13 +3411,13 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F31">
         <v>10</v>
@@ -3059,10 +3485,10 @@
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F32">
         <v>10</v>
@@ -3100,13 +3526,13 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F33">
         <v>10</v>
@@ -3168,13 +3594,13 @@
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F34">
         <v>10</v>
@@ -3242,13 +3668,13 @@
         <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E35" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F35">
         <v>10</v>
@@ -3319,13 +3745,13 @@
         <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F36">
         <v>10</v>
@@ -3381,19 +3807,19 @@
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="2">
-        <v>45791.77269370062</v>
+        <v>45791.7726937037</v>
       </c>
       <c r="B37" t="s">
         <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E37" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F37">
         <v>10</v>
@@ -3441,6 +3867,950 @@
         <v>20</v>
       </c>
       <c r="X37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="A38" s="2">
+        <v>45791.80388954861</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>10</v>
+      </c>
+      <c r="N38">
+        <v>10</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>20</v>
+      </c>
+      <c r="U38">
+        <v>14</v>
+      </c>
+      <c r="V38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" s="2">
+        <v>45791.80428896991</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>10</v>
+      </c>
+      <c r="N39">
+        <v>10</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>20</v>
+      </c>
+      <c r="U39">
+        <v>14</v>
+      </c>
+      <c r="V39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
+      <c r="A40" s="2">
+        <v>45791.80483510417</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>10</v>
+      </c>
+      <c r="N40">
+        <v>10</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>20</v>
+      </c>
+      <c r="U40">
+        <v>14</v>
+      </c>
+      <c r="V40">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
+      <c r="A41" s="2">
+        <v>45791.80523244213</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>10</v>
+      </c>
+      <c r="N41">
+        <v>10</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>20</v>
+      </c>
+      <c r="U41">
+        <v>14</v>
+      </c>
+      <c r="V41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="A42" s="2">
+        <v>45791.80551032408</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>10</v>
+      </c>
+      <c r="N42">
+        <v>10</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>20</v>
+      </c>
+      <c r="U42">
+        <v>14</v>
+      </c>
+      <c r="V42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
+      <c r="A43" s="2">
+        <v>45791.81506185185</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>10</v>
+      </c>
+      <c r="N43">
+        <v>10</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>14</v>
+      </c>
+      <c r="U43">
+        <v>14</v>
+      </c>
+      <c r="V43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="A44" s="2">
+        <v>45791.81759615741</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
+      <c r="H44">
+        <v>0.78</v>
+      </c>
+      <c r="I44">
+        <v>25.52</v>
+      </c>
+      <c r="J44">
+        <v>0.53</v>
+      </c>
+      <c r="K44">
+        <v>10</v>
+      </c>
+      <c r="L44">
+        <v>100</v>
+      </c>
+      <c r="M44">
+        <v>10</v>
+      </c>
+      <c r="N44">
+        <v>10</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>5</v>
+      </c>
+      <c r="U44">
+        <v>20</v>
+      </c>
+      <c r="V44">
+        <v>14</v>
+      </c>
+      <c r="W44">
+        <v>20</v>
+      </c>
+      <c r="X44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
+      <c r="A45" s="2">
+        <v>45791.82301988426</v>
+      </c>
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45">
+        <v>9</v>
+      </c>
+      <c r="H45">
+        <v>-0.89</v>
+      </c>
+      <c r="I45">
+        <v>-15.3</v>
+      </c>
+      <c r="J45">
+        <v>0.92</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>20</v>
+      </c>
+      <c r="M45">
+        <v>10</v>
+      </c>
+      <c r="N45">
+        <v>10</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>14</v>
+      </c>
+      <c r="U45">
+        <v>14</v>
+      </c>
+      <c r="V45">
+        <v>50</v>
+      </c>
+      <c r="W45">
+        <v>20</v>
+      </c>
+      <c r="X45">
+        <v>20</v>
+      </c>
+      <c r="Y45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="A46" s="2">
+        <v>45791.82952011574</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>9</v>
+      </c>
+      <c r="H46">
+        <v>-0.89</v>
+      </c>
+      <c r="I46">
+        <v>-15.3</v>
+      </c>
+      <c r="J46">
+        <v>0.92</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>20</v>
+      </c>
+      <c r="M46">
+        <v>10</v>
+      </c>
+      <c r="N46">
+        <v>9</v>
+      </c>
+      <c r="O46">
+        <v>-0.77</v>
+      </c>
+      <c r="P46">
+        <v>0.93</v>
+      </c>
+      <c r="Q46">
+        <v>0.5</v>
+      </c>
+      <c r="R46">
+        <v>8</v>
+      </c>
+      <c r="S46">
+        <v>80</v>
+      </c>
+      <c r="T46">
+        <v>14</v>
+      </c>
+      <c r="U46">
+        <v>14</v>
+      </c>
+      <c r="V46">
+        <v>20</v>
+      </c>
+      <c r="W46">
+        <v>20</v>
+      </c>
+      <c r="X46">
+        <v>20</v>
+      </c>
+      <c r="Y46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
+      <c r="A47" s="2">
+        <v>45791.82996909722</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>9</v>
+      </c>
+      <c r="H47">
+        <v>-0.89</v>
+      </c>
+      <c r="I47">
+        <v>-15.3</v>
+      </c>
+      <c r="J47">
+        <v>0.92</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>20</v>
+      </c>
+      <c r="M47">
+        <v>10</v>
+      </c>
+      <c r="N47">
+        <v>10</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>14</v>
+      </c>
+      <c r="U47">
+        <v>14</v>
+      </c>
+      <c r="V47">
+        <v>50</v>
+      </c>
+      <c r="W47">
+        <v>20</v>
+      </c>
+      <c r="X47">
+        <v>20</v>
+      </c>
+      <c r="Y47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
+      <c r="A48" s="2">
+        <v>45791.83487126158</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48">
+        <v>9</v>
+      </c>
+      <c r="H48">
+        <v>-0.89</v>
+      </c>
+      <c r="I48">
+        <v>-15.3</v>
+      </c>
+      <c r="J48">
+        <v>0.92</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>20</v>
+      </c>
+      <c r="M48">
+        <v>10</v>
+      </c>
+      <c r="N48">
+        <v>9</v>
+      </c>
+      <c r="O48">
+        <v>-0.93</v>
+      </c>
+      <c r="P48">
+        <v>7.63</v>
+      </c>
+      <c r="Q48">
+        <v>1.44</v>
+      </c>
+      <c r="R48">
+        <v>17</v>
+      </c>
+      <c r="S48">
+        <v>170</v>
+      </c>
+      <c r="T48">
+        <v>5</v>
+      </c>
+      <c r="U48">
+        <v>20</v>
+      </c>
+      <c r="V48">
+        <v>7</v>
+      </c>
+      <c r="W48">
+        <v>20</v>
+      </c>
+      <c r="X48">
+        <v>20</v>
+      </c>
+      <c r="Y48">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
+      <c r="A49" s="2">
+        <v>45791.83515041666</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49">
+        <v>9</v>
+      </c>
+      <c r="H49">
+        <v>-0.89</v>
+      </c>
+      <c r="I49">
+        <v>-15.3</v>
+      </c>
+      <c r="J49">
+        <v>0.92</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>20</v>
+      </c>
+      <c r="M49">
+        <v>10</v>
+      </c>
+      <c r="N49">
+        <v>9</v>
+      </c>
+      <c r="O49">
+        <v>-1.97</v>
+      </c>
+      <c r="P49">
+        <v>-9.07</v>
+      </c>
+      <c r="Q49">
+        <v>3.12</v>
+      </c>
+      <c r="R49">
+        <v>7</v>
+      </c>
+      <c r="S49">
+        <v>70</v>
+      </c>
+      <c r="T49">
+        <v>5</v>
+      </c>
+      <c r="U49">
+        <v>20</v>
+      </c>
+      <c r="V49">
+        <v>20</v>
+      </c>
+      <c r="W49">
+        <v>20</v>
+      </c>
+      <c r="X49">
+        <v>20</v>
+      </c>
+      <c r="Y49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
+      <c r="A50" s="2">
+        <v>45791.83545445222</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <v>9</v>
+      </c>
+      <c r="H50">
+        <v>-0.89</v>
+      </c>
+      <c r="I50">
+        <v>-15.3</v>
+      </c>
+      <c r="J50">
+        <v>0.92</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>20</v>
+      </c>
+      <c r="M50">
+        <v>10</v>
+      </c>
+      <c r="N50">
+        <v>9</v>
+      </c>
+      <c r="O50">
+        <v>-0.4</v>
+      </c>
+      <c r="P50">
+        <v>5.74</v>
+      </c>
+      <c r="Q50">
+        <v>0.28</v>
+      </c>
+      <c r="R50">
+        <v>6</v>
+      </c>
+      <c r="S50">
+        <v>60</v>
+      </c>
+      <c r="T50">
+        <v>14</v>
+      </c>
+      <c r="U50">
+        <v>14</v>
+      </c>
+      <c r="V50">
+        <v>5</v>
+      </c>
+      <c r="W50">
+        <v>20</v>
+      </c>
+      <c r="X50">
+        <v>20</v>
+      </c>
+      <c r="Y50">
         <v>14</v>
       </c>
     </row>

--- a/reports/strategy_results.xlsx
+++ b/reports/strategy_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="141">
   <si>
     <t>timestamp</t>
   </si>
@@ -331,6 +331,22 @@
     df['Std'] = df['Close'].rolling(window=20).std()
     df['Lower_BB'] = df['MA'] - 2 * df['Std']
     df['Upper_BB'] = df['MA'] + 2 * df['Std']
+    df['RSI'] = df['Close'].diff().dropna()
+    df['RSI'] = df['RSI'].apply(lambda x: 1 if x &gt; 0 else 0)
+    df['RSI'] = df['RSI'].rolling(window=14).mean() * 100
+    df['signal'] = 0  # Default to Hold
+    buy_condition = (df['Low'] &lt;= df['Lower_BB']) &amp; (df['RSI'] &lt; 30)
+    sell_condition = (df['High'] &gt;= df['Upper_BB']) &amp; (df['RSI'] &gt; 70)
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+def add_signal(df):
+    df['MA'] = df['Close'].rolling(window=20).mean()
+    df['Upper_BB'] = df['MA'] + 2 * df['Close'].rolling(window=20).std()
+    df['Lower_BB'] = df['MA'] - 2 * df['Close'].rolling(window=20).std()
     df['RSI'] = df['Close'].diff().dropna()
     df['RSI'] = df['RSI'].apply(lambda x: 1 if x &gt; 0 else 0)
     df['RSI'] = df['RSI'].rolling(window=14).mean() * 100
@@ -707,6 +723,207 @@
 - **Increased Signal Frequency**: By using less restrictive conditions.
 - **Diversified Signal Generation**: Combining mean reversion (RSI) with momentum (short-term MA crossover) and a basic volatility filter.
 - **Simplified Conditions for Executability**: Ensuring the strategy is deterministic and executable with Pandas/Numpy only.
+### 2. Revised Python Strategy Function</t>
+  </si>
+  <si>
+    <t>### 1. Brief Explanation of Weaknesses and Improvements
+**Weaknesses in the Original Strategy:**
+1. **Infrequent Signals**: The original strategy generates very few trades (2 trades over 5 days), indicating overly restrictive conditions.
+2. **Oversimplified RSI Calculation**: The RSI calculation only considers the sign of the price difference, not the magnitude, and applies a simplistic binary conversion.
+3. **Lack of Volatility Consideration**: Despite using Bollinger Bands, the strategy doesn't effectively leverage volatility to filter or adjust signals.
+4. **Historical Top Strategy Provided but Not Analyzed**: For the purpose of this task, we'll focus on improving the first strategy provided.
+**Improvements in the Revised Strategy:**
+1. **Enhanced RSI Calculation**: Utilize a more traditional RSI formula to better capture momentum.
+2. **MA Crossover for Trend Confirmation**: Incorporate a moving average crossover to ensure signals align with the overall trend.
+3. **Volatility-Based Filter**: Use Average True Range (ATR) to filter out signals during high volatility periods, aiming to reduce false signals.
+4. **Looser yet Effective Conditions**: Adjust conditions to generate a reasonable number of trades (targeting 5-15 trades over 5 days) while maintaining profitability potential.
+### 2. Revised Python Strategy Function</t>
+  </si>
+  <si>
+    <t>### 1. Brief Explanation of Weaknesses and Improvements
+**Weaknesses in the Original Strategy:**
+1. **Infrequent Signals**: The original strategy generated only 2 trades over 5 days, indicating overly restrictive conditions.
+2. **Over-reliance on Extreme RSI Values**: Using RSI &lt; 30 and &gt; 70 with Bollinger Bands might be too conservative for frequent trading signals.
+3. **Lack of Diversification in Indicators**: Reliance on a single type of indicator (momentum and volatility) without considering trend or mean reversion strategies.
+**Improvements in the Revised Strategy:**
+1. **Increased Signal Frequency**: Looser filters to generate more trades.
+2. **Diversified Indicator Approach**: Combining trend (MA crossover), momentum (RSI), and a basic volatility filter.
+3. **Simplified Logic for Executability**: Ensuring the strategy is deterministic and executable with Pandas/Numpy only.
+### 2. Revised Python Strategy Function</t>
+  </si>
+  <si>
+    <t>### 1. Brief Explanation of Weaknesses and Improvements
+**Weaknesses in the Original Strategy:**
+1. **Infrequent Signals**: The original strategy generates very few trades (only 2 in 5 days), which might not be effective for intraday trading on 5-minute bars.
+2. **Strict Conditions**: Combining RSI extremes with Bollinger Band breaches might be too restrictive, leading to infrequent signals.
+3. **Lack of Diversified Signals**: Reliance on a single strategy (momentum reversal) without considering other market states (e.g., trends, volatility) might limit profitability.
+4. **Comparison with Historical Top Strategy**: The historical top strategy seems more adaptive to intraday momentum shifts but lacks a clear risk management aspect (e.g., no hold condition by default, and the logic for setting `-1` then to `0` could be simplified for clarity).
+**Improvements in the Revised Strategy:**
+- **Increased Signal Frequency**: Implemented a dual-condition approach to generate more trades.
+- **Looser, More Adaptive Filters**:
+  - **RSI** for momentum identification with less strict thresholds.
+  - **Simple Moving Average (SMA) Crossover** for trend alignment.
+- **Volatility Awareness**: Incorporated a basic volatility filter using Average True Range (ATR) to avoid highly volatile conditions.
+- **Simplified Logic for Clarity and Efficiency**: Ensured the strategy defaults to `0` (Hold) and directly assigns `1` (Buy) and `-1` (Sell) based on conditions.
+### 2. Revised Python Strategy Function</t>
+  </si>
+  <si>
+    <t>### 1. Brief Explanation of Weaknesses and Improvements
+**Weaknesses in the Original Strategy:**
+1. **Infrequent Signals**: The original strategy generates very few trades (only 2 in 5 days), which might not be effective for intraday trading on 5-minute bars.
+2. **Strict Conditions**: Combining RSI extremes with Bollinger Band breaches might be too restrictive, leading to infrequent signals.
+3. **Lack of Diversified Signals**: Reliance on a single strategy (momentum reversal) without considering other market states (e.g., trends, volatility) might limit profitability.
+4. **Comparison with Historical Top Strategy**: The historical top strategy seems more focused on trend identification and reversal based on recent price action and short-term highs/lows, which could be more effective in generating timely signals.
+**Improvements in the Revised Strategy:**
+1. **Increased Signal Frequency**: Implemented a strategy that should generate more trades.
+2. **Looser, More Effective Conditions**: Used a combination of RSI for momentum and a simple MA crossover for trend identification.
+3. **Volatility Awareness**: Incorporated a basic volatility filter using rolling standard deviation to avoid trading during highly volatile periods.
+4. **Inspiration from Historical Strategy**: Incorporated elements that focus on short-term trend identification and reversal signals.
+### 2. Revised Python Strategy Function</t>
+  </si>
+  <si>
+    <t>### 1. Brief Explanation of Weaknesses and Improvements
+**Weaknesses in the Original Strategy:**
+1. **Infrequent Signals**: The original strategy generates very few trades (only 2 in 5 days), which might not be effective for intraday trading on 5-minute bars.
+2. **Overly Restrictive Conditions**: Combining RSI extremes with Bollinger Band breaches might be too restrictive, leading to infrequent signals.
+3. **Lack of Diversified Signals**: Reliance on a single strategy (momentum reversal based on recent trends and 3-period highs/lows) without considering other market aspects (e.g., volatility, mean reversion).
+4. **Historical Top Strategy Provided but Not Analyzed**: Though provided, the historical top strategy's strengths/weaknesses aren't discussed, but it seems to offer more frequent trading decisions based on trend reversals.
+**Improvements in the Revised Strategy:**
+- **Increased Signal Frequency**: By using less restrictive conditions.
+- **Diversified Signal Generation**: Combining mean reversion (RSI) with momentum (short-term MA crossover) and a basic volatility filter.
+- **Simplified Conditions for Executability**: Ensuring the strategy is executable and deterministic with Pandas/Numpy only.
+### 2. Revised Python Strategy Function</t>
+  </si>
+  <si>
+    <t>### 1. Brief Explanation of Weaknesses and Improvements
+**Weaknesses in the Original Strategy:**
+1. **Infrequent Signals**: The original strategy generates very few trades (2 trades over 5 days), indicating overly restrictive conditions.
+2. **Oversimplified RSI Calculation**: The RSI calculation only considers the sign of the price difference, not the magnitude, and applies a simplistic binary conversion.
+3. **Lack of Volatility Consideration**: Despite calculating Bollinger Bands, the strategy doesn't effectively utilize volatility in its decision-making process beyond the initial calculation.
+4. **Historical Top Strategy Provided but Not Analyzed**: For the purpose of this task, we'll focus on improving the original strategy provided.
+**Improvements in the Revised Strategy:**
+1. **Enhanced RSI Calculation**: Utilize a more traditional RSI calculation to better capture momentum.
+2. **MA Crossover for Trend Confirmation**: Incorporate a moving average crossover to filter signals based on the overall trend.
+3. **Volatility-Based Position Sizing Not Applicable**: Since the task focuses on signal generation and not position sizing, we'll enhance signal generation using volatility awareness.
+4. **Looser Filters for Increased Trade Frequency**: Adjust conditions to generate a reasonable number of trades (targeting 5-15 trades over 5 days).
+### 2. Revised Python Strategy Function</t>
+  </si>
+  <si>
+    <t>### 1. Brief Explanation of Weaknesses and Improvements
+**Weaknesses in the Original Strategy:**
+1. **Infrequent Signals**: The original strategy generates very few trades (2 trades over 5 days), indicating overly restrictive conditions.
+2. **Oversimplified RSI Calculation**: The RSI calculation only considers the sign of the price difference, not the magnitude, and applies a simplistic binary conversion.
+3. **Lack of Volatility Consideration**: Despite using Bollinger Bands, the strategy doesn't effectively leverage volatility to filter or adjust signals.
+4. **Historical Top Strategy Provided but Not Analyzed**: For the purpose of this task, we'll focus on improving the first strategy provided.
+**Improvements in the Revised Strategy:**
+1. **Enhanced RSI Calculation**: Utilize a more traditional RSI formula to better capture momentum.
+2. **MA Crossover for Trend Confirmation**: Incorporate a moving average crossover to ensure signals align with the overall trend.
+3. **Volatility-Based Filter**: Leverage the Average True Range (ATR) to filter out signals during high volatility periods.
+4. **Looser yet Effective Conditions**: Adjust conditions to generate a reasonable number of trades (targeting 5-15 trades over 5 days).
+### 2. Revised Python Strategy Function</t>
+  </si>
+  <si>
+    <t>### 1. Brief Explanation of Weaknesses and Improvements
+**Weaknesses in the Original Strategy:**
+1. **Infrequent Signals**: The original strategy generates very few trades (2 in 5 days), indicating overly restrictive conditions.
+2. **Oversimplified RSI Calculation**: The RSI calculation only considers the sign of the price difference, not the magnitude, and applies a binary (0/1) transformation, which doesn't accurately represent the Relative Strength Index's intent.
+3. **Lack of Volatility Consideration in RSI Condition**: The strategy uses absolute RSI thresholds (30 and 70) without adjusting for the asset's volatility.
+4. **Historical Top Strategy Provided but Not Analyzed**: For the purpose of this task, we'll focus on improving the first strategy provided.
+**Improvements in the Revised Strategy:**
+1. **Enhanced RSI Calculation**: Implement a more traditional RSI calculation to better capture momentum.
+2. **Volatility-Adjusted RSI Thresholds**: Dynamically adjust RSI thresholds based on the asset's recent volatility.
+3. **Less Restrictive Conditions for More Frequent, Informed Trades**: Introduce a shorter-term MA crossover for the buy/sell signals in conjunction with the adjusted RSI conditions.
+4. **Hold as Default, with Clear Buy/Sell Conditions**: Maintain `0` as the default (hold) signal, with specific conditions for `1` (buy) and `-1` (sell).
+### 2. Revised Python Strategy Function</t>
+  </si>
+  <si>
+    <t>### 1. Brief Explanation of Weaknesses and Improvements
+**Weaknesses in the Original Strategy:**
+1. **Infrequent Signals**: The original strategy generates very few trades (only 2 in 5 days), which might not be effective for intraday trading on 5-minute bars.
+2. **Strict Conditions**: Combining RSI extremes with Bollinger Band breaches might be too restrictive, leading to infrequent signals.
+3. **Lack of Diversified Signals**: Reliance on a single strategy (momentum reversal) without considering other market states (e.g., trends, volatility) might limit profitability.
+4. **Comparison with Historical Top Strategy**: The historical top strategy seems more focused on trend identification and reversal based on recent price action and volatility, which could be more effective in generating timely signals.
+**Improvements in the Revised Strategy:**
+1. **Increased Signal Frequency**: Implemented a dual-condition approach to generate more trades.
+2. **Volatility Filter**: Added a simple volatility filter to avoid trading during highly volatile periods.
+3. **Trend Alignment**: Incorporated a short-term trend alignment check to favor trades in the direction of the overall trend.
+4. **Inspiration from Historical Strategy**: Incorporated elements that focus on recent trend identification to improve signal timing.
+### 2. Revised Python Strategy Function</t>
+  </si>
+  <si>
+    <t>### 1. Brief Explanation of Weaknesses and Improvements
+**Weaknesses in the Original Strategy:**
+1. **Infrequent Signals**: The original strategy generates very few trades (2 in 5 days), indicating overly restrictive conditions.
+2. **Oversimplified RSI Calculation**: The RSI calculation only considers the sign of the price difference, not the magnitude, and applies a binary (0/1) transformation, which is not standard.
+3. **Lack of Volatility Consideration in RSI Condition**: The strategy uses absolute RSI values (30, 70) without adjusting for the asset's volatility.
+4. **No Consideration for Trend or Momentum Confirmation**: Entries are based solely on BB and RSI without confirming the overall trend or momentum direction.
+**Improvements in the Revised Strategy:**
+- **Enhanced RSI Calculation**: Uses the standard RSI formula considering the magnitude of price changes.
+- **Volatility-Adjusted RSI Thresholds**: Dynamically adjusts RSI thresholds based on the asset's recent volatility.
+- **Trend Confirmation with Moving Averages**: Ensures buy/sell signals are in the direction of the trend defined by two moving averages.
+- **Increased Signal Generation**: Loosens filters to generate a reasonable number of trades while maintaining profitability potential.
+### 2. Revised Python Strategy Function</t>
+  </si>
+  <si>
+    <t>### 1. Brief Explanation of Weaknesses and Improvements
+**Weaknesses in the Original Strategy:**
+1. **Infrequent Signals**: The original strategy generates very few trades (only 2 in 5 days), which might not be effective for intraday trading on 5-minute bars.
+2. **Strict Conditions**: Combining RSI extremes with Bollinger Band breaches might be too restrictive, leading to infrequent signals.
+3. **Lack of Diversified Signals**: Reliance on a single strategy (momentum reversal) without considering other market states (e.g., trends, mean reversion) might limit profitability.
+4. **Comparison with Historical Top Strategy**: The historical top strategy seems more active but its logic is not directly comparable without performance metrics. However, its focus on recent uptrends/downtrends and 3-period highs/lows might offer more frequent trading opportunities.
+**Improvements in the Revised Strategy:**
+1. **Increased Signal Frequency**: Implement a strategy that can generate more trades while maintaining or improving profitability.
+2. **Looser, More Robust Conditions**: Use a combination of a short-term trend indicator (MA crossover) and a volatility filter (ATR bands) to generate signals.
+3. **Diversified Signal Generation**: Incorporate both trend-following and mean reversion aspects.
+4. **Simplification and Efficiency**: Ensure the strategy remains efficient and easy to understand, using only Pandas/Numpy.
+### 2. Revised Python Strategy Function
+#### **Strategy Explanation:**
+**TSLA Intraday Trend &amp; Volatility Strategy**
+- **Buy Signal**: When the short-term MA crosses above the long-term MA and the price is above the lower ATR band (indicating a potential trend with controlled volatility).
+- **Sell Signal**: When the short-term MA crosses below the long-term MA and the price is below the upper ATR band (indicating a potential trend reversal with volatility on the seller's side).
+- **Hold**: All other conditions.
+#### **Python Function:**</t>
+  </si>
+  <si>
+    <t>### 1. Brief Explanation of Weaknesses and Improvements
+**Weaknesses in the Original Strategy:**
+1. **Infrequent Signals**: The original strategy generates very few trades (2 trades over 5 days), indicating overly restrictive conditions.
+2. **Oversimplified RSI Calculation**: The RSI calculation only considers the sign of the price difference, not the magnitude, and applies a simplistic binary conversion.
+3. **Lack of Volatility Consideration**: Despite calculating Bollinger Bands, the strategy doesn't effectively utilize volatility in its decision-making process beyond the initial calculation.
+4. **Historical Top Strategy Provided but Not Analyzed**: For the purpose of this task, we'll focus on improving the original strategy provided.
+**Improvements in the Revised Strategy:**
+1. **Enhanced RSI Calculation**: Utilize a more traditional RSI calculation to better capture momentum.
+2. **MA Crossover for Trend Confirmation**: Incorporate a moving average crossover to filter signals based on the overall trend.
+3. **Volatility-Based Filtering**: Leverage the Bollinger Bands more effectively to filter out signals during high volatility.
+4. **Increased Trade Frequency**: Aim for a moderate increase in trade frequency without overly compromising on signal quality.
+### 2. Revised Python Strategy Function</t>
+  </si>
+  <si>
+    <t>### 1. Brief Explanation of Weaknesses and Improvements
+**Weaknesses in the Original Strategy:**
+1. **Infrequent Signals**: The original strategy generates very few trades (2 in 5 days), indicating overly restrictive conditions.
+2. **Oversimplified RSI Calculation**: The RSI calculation only considers the sign of the price difference, not the magnitude, and applies a binary (0/1) transformation, which doesn't accurately represent the Relative Strength Index's intent.
+3. **Lack of Volatility Consideration in RSI Condition**: The strategy uses absolute RSI thresholds (30 and 70) without adjusting for the asset's volatility.
+4. **Historical Top Strategy Provided but Not Analyzed**: For the purpose of this task, we'll focus on improving the first strategy provided.
+**Improvements in the Revised Strategy:**
+1. **Enhanced RSI Calculation**: Implement a more traditional RSI calculation to better capture momentum.
+2. **Volatility-Adjusted RSI Thresholds**: Dynamically adjust RSI thresholds based on the asset's recent volatility.
+3. **Less Restrictive Conditions for More Frequent, Informed Trades**: Introduce a shorter-term MA crossover to increase trade frequency while maintaining a volatility filter.
+4. **Simplified Logic for Executability and Determinism**: Ensure all logic is in numpy/pandas for ease of execution.
+### 2. Revised Python Strategy Function</t>
+  </si>
+  <si>
+    <t>### 1. Brief Explanation of Weaknesses and Improvements
+**Weaknesses in the Original Strategy:**
+1. **Infrequent Signals**: The original strategy generates very few trades (only 2 in 5 days), which might not be effective for intraday trading on 5-minute bars.
+2. **Strict Conditions**: Combining RSI extremes with Bollinger Band breaches might be too restrictive, leading to infrequent signals.
+3. **Lack of Diversified Signals**: Reliance on a single strategy (momentum reversal) without considering other market states (e.g., trends, volatility) might limit profitability.
+4. **Comparison with Historical Top Strategy**: The historical top strategy seems more focused on trend identification and reversal based on recent price action and short-term highs/lows, which could be more effective in generating timely signals.
+**Improvements in the Revised Strategy:**
+1. **Increased Signal Frequency**: Implemented a strategy that should generate more trades.
+2. **Looser, More Effective Conditions**: Used a combination of RSI for momentum and a simple MA crossover for trend identification.
+3. **Volatility Awareness**: Incorporated a basic volatility filter using rolling standard deviation to avoid trading in extremely volatile conditions.
+4. **Inspiration from Historical Strategy**: Incorporated elements that focus on short-term trend identification and reversal signals.
 ### 2. Revised Python Strategy Function</t>
   </si>
   <si>
@@ -1564,6 +1781,1275 @@
     df.loc[buy_condition, 'signal'] = 1  # Buy
     df.loc[sell_condition, 'signal'] = -1  # Sell
     # Ensure 'signal' Series has the same index as df
+    df['signal'] = pd.Series(df['signal'].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on an enhanced strategy:
+    - Traditional RSI for momentum
+    - MA Crossover for trend
+    - ATR-based volatility filter
+    Parameters:
+    df (DataFrame): Input DataFrame with OHLCV data
+    Returns:
+    DataFrame: Modified DataFrame with 'signal' column
+    """
+    # Calculate Traditional RSI
+    delta = df['Close'].diff().fillna(0)
+    up, down = delta.copy(), delta.copy()
+    up[up &lt; 0] = 0
+    down[down &gt; 0] = 0
+    roll_up = up.rolling(window=14).mean()
+    roll_down = down.rolling(window=14).mean().abs()
+    RS = roll_up / roll_down
+    df['RSI'] = 100.0 - (100.0 / (1.0 + RS))
+    # Moving Averages for Trend
+    df['MA5'] = df['Close'].rolling(window=5).mean()
+    df['MA20'] = df['Close'].rolling(window=20).mean()
+    # Average True Range (ATR) for Volatility
+    hl = df['High'] - df['Low']
+    hc = (df['High'] - df['Close'].shift(1)).abs()
+    lc = (df['Low'] - df['Close'].shift(1)).abs()
+    df['HL'] = hl
+    df['HC'] = hc
+    df['LC'] = lc
+    df['TR'] = df[['HL', 'HC', 'LC']].max(axis=1)
+    df['ATR'] = df['TR'].rolling(window=14).mean()
+    # Conditions
+    buy_condition = (df['RSI'] &lt; 40) &amp; (df['MA5'] &gt; df['MA20']) &amp; (df['Close'] &gt; df['MA20']) &amp; (df['ATR'].rolling(window=5).mean() &lt; df['ATR'].mean())
+    sell_condition = (df['RSI'] &gt; 60) &amp; (df['MA5'] &lt; df['MA20']) &amp; (df['Close'] &lt; df['MA20']) &amp; (df['ATR'].rolling(window=5).mean() &lt; df['ATR'].mean())
+    # Assign Signals
+    df['signal'] = 0  # Default to Hold
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Ensure signal Series uses the same index as df
+    df["signal"] = pd.Series(df["signal"].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a combined RSI, MA Crossover, and Volatility Filter Strategy.
+    Parameters:
+    - df (DataFrame): Input DataFrame with 'Open', 'High', 'Low', 'Close', 'Volume' columns.
+    Returns:
+    - df (DataFrame): Modified DataFrame with the added 'signal' column.
+    """
+    # Calculate RSI with a 14-period window
+    df['Delta'] = df['Close'].diff().fillna(0)
+    df['Up'], df['Down'] = df['Delta'].copy(), df['Delta'].copy()
+    df['Up'][df['Up'] &lt; 0] = 0
+    df['Down'][df['Down'] &gt; 0] = 0
+    df['Roll_Up'] = df['Up'].rolling(window=14).mean()
+    df['Roll_Down'] = df['Down'].rolling(window=14).mean().abs()
+    df['RSI'] = 100 - (100 / (1 + df['Roll_Up'] / df['Roll_Down']))
+    # Calculate Short and Long Term Moving Averages
+    df['MA_5'] = df['Close'].rolling(window=5).mean()
+    df['MA_20'] = df['Close'].rolling(window=20).mean()
+    # Simple Volatility Filter using Rolling Standard Deviation
+    df['Volatility'] = df['Close'].rolling(window=20).std()
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Buy Condition: RSI &lt; 60 (not extremely oversold, but showing momentum potential), MA Crossover, and Volatility Check
+    buy_condition = (df['RSI'] &lt; 60) &amp; (df['MA_5'] &gt; df['MA_20']) &amp; (df['Close'] &gt; df['MA_20']) &amp; (df['Volatility'] &lt; df['Volatility'].mean())
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    # Sell Condition: RSI &gt; 50 (not extremely overbought), Inverse MA Crossover, and Volatility Check
+    sell_condition = (df['RSI'] &gt; 50) &amp; (df['MA_5'] &lt; df['MA_20']) &amp; (df['Close'] &lt; df['MA_20']) &amp; (df['Volatility'] &lt; df['Volatility'].mean())
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Ensure signal Series uses the same index as df
+    df['signal'] = pd.Series(df['signal'].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a combined RSI, MA Crossover, and Volatility Filter Strategy.
+    Parameters:
+    - df (DataFrame): Input DataFrame with 'Open', 'High', 'Low', 'Close', 'Volume' columns.
+    Returns:
+    - df (DataFrame): Modified DataFrame with the added 'signal' column.
+    """
+    # Calculate RSI with a 14-period window
+    df['Delta'] = df['Close'].diff().fillna(0)
+    df['Up'], df['Down'] = df['Delta'].copy(), df['Delta'].copy()
+    df['Up'][df['Up'] &lt; 0] = 0
+    df['Down'][df['Down'] &gt; 0] = 0
+    df['Roll_Up'] = df['Up'].rolling(window=14).mean()
+    df['Roll_Down'] = df['Down'].rolling(window=14).mean().abs()
+    df['RSI'] = 100 - (100 / (1 + df['Roll_Up'] / df['Roll_Down']))
+    # Calculate Short and Long Term Moving Averages
+    df['MA_5'] = df['Close'].rolling(window=5).mean()
+    df['MA_20'] = df['Close'].rolling(window=20).mean()
+    # Simple Volatility Filter using Rolling Standard Deviation
+    df['Volatility'] = df['Close'].rolling(window=20).std()
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Buy Condition: RSI &lt; 60 (not extremely oversold, but showing momentum potential), MA Crossover, and Volatility Check
+    buy_condition = (df['RSI'] &lt; 60) &amp; (df['MA_5'] &gt; df['MA_20']) &amp; (df['Close'] &gt; df['MA_20']) &amp; (df['Volatility'] &lt; df['Volatility'].mean())
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    # Sell Condition: RSI &gt; 40 (not extremely overbought), MA Crossover, and Volatility Check
+    sell_condition = (df['RSI'] &gt; 40) &amp; (df['MA_5'] &lt; df['MA_20']) &amp; (df['Close'] &lt; df['MA_20']) &amp; (df['Volatility'] &lt; df['Volatility'].mean())
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Ensure signal Series uses the same index as df
+    df['signal'] = pd.Series(df['signal'].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a combined MA crossover, RSI, and volatility filter strategy.
+    Parameters:
+    - df (DataFrame): Input DataFrame with 'Open', 'High', 'Low', 'Close', 'Volume' columns.
+    Returns:
+    - df (DataFrame): Modified DataFrame with the added 'signal' column.
+    """
+    # --- Trend Indicator: MA Crossover ---
+    df['MA5'] = df['Close'].rolling(window=5).mean()
+    df['MA20'] = df['Close'].rolling(window=20).mean()
+    # --- Momentum Indicator: RSI with Looser Filters ---
+    df['RSI'] = df['Close'].diff().dropna()
+    df['RSI'] = df['RSI'].apply(lambda x: 1 if x &gt; 0 else 0)
+    df['RSI'] = df['RSI'].rolling(window=14).mean() * 100
+    df['RSI_Signal'] = np.where((df['RSI'] &lt; 60) &amp; (df['RSI'].shift(1) &gt;= 60), 1, 
+                               np.where((df['RSI'] &gt; 40) &amp; (df['RSI'].shift(1) &lt;= 40), -1, 0))
+    # --- Volatility Filter: Simple ATR Bands ---
+    df['HL'] = df['High'] - df['Low']
+    df['ATR'] = df['HL'].rolling(window=20).mean()
+    df['Upper_ATR'] = df['Close'] + 1 * df['ATR']
+    df['Lower_ATR'] = df['Close'] - 1 * df['ATR']
+    # --- Signal Generation ---
+    df['signal'] = 0  # Default to Hold
+    # Buy Condition: MA Crossover UP &amp; RSI Bullish &amp; Price above Lower ATR Band
+    buy_condition = (df['MA5'] &gt; df['MA20']) &amp; (df['MA5'].shift(1) &lt;= df['MA20'].shift(1)) &amp;                     (df['RSI_Signal'] == 1) &amp; (df['Close'] &gt; df['Lower_ATR'])
+    df.loc[buy_condition, 'signal'] = 1
+    # Sell Condition: MA Crossover DOWN &amp; RSI Bearish &amp; Price below Upper ATR Band
+    sell_condition = (df['MA5'] &lt; df['MA20']) &amp; (df['MA5'].shift(1) &gt;= df['MA20'].shift(1)) &amp;                      (df['RSI_Signal'] == -1) &amp; (df['Close'] &lt; df['Upper_ATR'])
+    df.loc[sell_condition, 'signal'] = -1
+    # Ensure signal Series has the same index as df
+    df['signal'] = pd.Series(df['signal'].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a dual-condition strategy:
+    1. RSI with looser thresholds for momentum.
+    2. SMA crossover for trend alignment.
+    3. ATR-based volatility filter.
+    Parameters:
+    - df (DataFrame): Input DataFrame with OHLCV data.
+    Returns:
+    - df (DataFrame): Modified DataFrame with the added 'signal' column.
+    """
+    # Calculate RSI with a 14-period window
+    df['Delta'] = df['Close'].diff().fillna(0)
+    df['Up'], df['Down'] = df['Delta'].clip(lower=0), -df['Delta'].clip(upper=0)
+    df['Roll_Up'] = df['Up'].rolling(window=14).mean()
+    df['Roll_Down'] = df['Down'].rolling(window=14).mean()
+    df['RS'] = df['Roll_Up'] / df['Roll_Down']
+    df['RSI'] = 100 - (100 / (1 + df['RS']))
+    # Calculate Simple Moving Averages
+    df['SMA_5'] = df['Close'].rolling(window=5).mean()
+    df['SMA_20'] = df['Close'].rolling(window=20).mean()
+    # Calculate Average True Range (ATR) for volatility
+    df['HL'] = df['High'] - df['Low']
+    df['HLC'] = np.maximum(df['High'] - df['Close'].shift(1), df['Low'] - df['Close'].shift(1))
+    df['HL'] = df[['HL', 'HLC']].max(axis=1)
+    df['ATR'] = df['HL'].rolling(window=14).mean()
+    # Define Conditions
+    buy_condition = (
+        (df['RSI'] &lt; 60) &amp;  # Looser RSI threshold for buy
+        (df['SMA_5'] &gt; df['SMA_20']) &amp;  # SMA crossover for upward trend
+        (df['ATR'].rolling(window=5).mean() &lt; df['ATR'].mean())  # Avoid high volatility
+    )
+    sell_condition = (
+        (df['RSI'] &gt; 40) &amp;  # Looser RSI threshold for sell
+        (df['SMA_5'] &lt; df['SMA_20']) &amp;  # SMA crossover for downward trend
+        (df['ATR'].rolling(window=5).mean() &lt; df['ATR'].mean())  # Avoid high volatility
+    )
+    # Assign Signals
+    df['signal'] = 0  # Default to Hold
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Clean up temporary columns (optional, for memory efficiency)
+    # df.drop(columns=['Delta', 'Up', 'Down', 'Roll_Up', 'Roll_Down', 'RS', 'HL', 'HLC'], inplace=True)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a combined RSI, MA Crossover, and Volatility Filter Strategy.
+    Parameters:
+    - df (DataFrame): Input DataFrame with 'Open', 'High', 'Low', 'Close', 'Volume' columns.
+    Returns:
+    - df (DataFrame): Modified DataFrame with the added 'signal' column.
+    """
+    # Calculate RSI with a 14-period window
+    df['Delta'] = df['Close'].diff().fillna(0)
+    df['Up'], df['Down'] = df['Delta'].copy(), df['Delta'].copy()
+    df['Up'][df['Up'] &lt; 0] = 0
+    df['Down'][df['Down'] &gt; 0] = 0
+    df['Roll_Up'] = df['Up'].rolling(window=14).mean()
+    df['Roll_Down'] = df['Down'].rolling(window=14).mean().abs()
+    df['RSI'] = 100 - (100 / (1 + (df['Roll_Up'] / df['Roll_Down'])))
+    # Simple MA Crossover
+    df['MA_5'] = df['Close'].rolling(window=5).mean()
+    df['MA_20'] = df['Close'].rolling(window=20).mean()
+    # Basic Volatility Filter using Rolling Std
+    df['Volatility'] = df['Close'].rolling(window=20).std()
+    # Signal Generation
+    buy_condition = (df['RSI'] &lt; 40) &amp; (df['MA_5'] &gt; df['MA_20']) &amp; (df['Volatility'] &gt; df['Volatility'].mean())  # Buy on mean reversion signal, uptrend, and above average volatility
+    sell_condition = (df['RSI'] &gt; 60) &amp; (df['MA_5'] &lt; df['MA_20']) &amp; (df['Volatility'] &gt; df['Volatility'].mean())  # Sell on overbought, downtrend, and above average volatility
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Assign Signals
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Clean Up (Remove Intermediate Columns for Memory Efficiency)
+    df.drop(columns=['Delta', 'Up', 'Down', 'Roll_Up', 'Roll_Down', 'MA_5', 'MA_20', 'Volatility'], inplace=True)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a revised intraday trading strategy.
+    Strategy Overview:
+    - **Buy Signal**: When RSI &lt; 60 (indicating not overly bought) AND Short MA crosses above Long MA, 
+                      AND volatility (rolling std) is below its average (to avoid high volatility).
+    - **Sell Signal**: When RSI &gt; 40 (indicating not overly sold) AND Short MA crosses below Long MA, 
+                      AND volatility (rolling std) is below its average.
+    - **Hold (0)**: Otherwise
+    Parameters:
+    df (DataFrame): Input DataFrame with 'Open', 'High', 'Low', 'Close', 'Volume' columns.
+    Returns:
+    DataFrame: Input DataFrame with an additional 'signal' column.
+    """
+    # Calculate RSI with a 14-period window
+    delta = df['Close'].diff().dropna()
+    up, down = delta.copy(), delta.copy()
+    up[up &lt; 0] = 0
+    down[down &gt; 0] = 0
+    roll_up = up.rolling(window=14).mean()
+    roll_down = down.rolling(window=14).mean().abs()
+    RS = roll_up / roll_down
+    df['RSI'] = 100.0 - (100.0 / (1.0 + RS))
+    # Calculate Short and Long Moving Averages
+    df['MA5'] = df['Close'].rolling(window=5).mean()
+    df['MA20'] = df['Close'].rolling(window=20).mean()
+    # Calculate Volatility (Rolling Standard Deviation of Close)
+    df['Volatility'] = df['Close'].rolling(window=20).std()
+    df['AvgVolatility'] = df['Volatility'].rolling(window=20).mean()
+    # Define Conditions
+    buy_condition = (df['RSI'] &lt; 60) &amp; (df['MA5'] &gt; df['MA20']) &amp; (df['MA5'].shift(1) &lt;= df['MA20'].shift(1)) &amp; (df['Volatility'] &lt; df['AvgVolatility'])
+    sell_condition = (df['RSI'] &gt; 40) &amp; (df['MA5'] &lt; df['MA20']) &amp; (df['MA5'].shift(1) &gt;= df['MA20'].shift(1)) &amp; (df['Volatility'] &lt; df['AvgVolatility'])
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Assign Signals
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Ensure signal Series uses the same index as df
+    df["signal"] = pd.Series(df["signal"].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a combined RSI, MA Crossover, and Volatility Filter Strategy.
+    Parameters:
+    - df (DataFrame): Input DataFrame with 'Open', 'High', 'Low', 'Close', 'Volume' columns.
+    Returns:
+    - df (DataFrame): Modified DataFrame with the added 'signal' column.
+    """
+    # Calculate RSI with a 14-period window
+    df['Delta'] = df['Close'].diff().fillna(0)
+    df['Up'], df['Down'] = df['Delta'].copy(), df['Delta'].copy()
+    df['Up'][df['Up'] &lt; 0] = 0
+    df['Down'][df['Down'] &gt; 0] = 0
+    df['Roll_Up'] = df['Up'].rolling(window=14).mean()
+    df['Roll_Down'] = df['Down'].rolling(window=14).mean().abs()
+    df['RSI'] = 100 - (100 / (1 + df['Roll_Up'] / df['Roll_Down']))
+    # Calculate Short and Long Term Moving Averages
+    df['MA5'] = df['Close'].rolling(window=5).mean()
+    df['MA20'] = df['Close'].rolling(window=20).mean()
+    # Simple Volatility Filter using Rolling Standard Deviation
+    df['Volatility'] = df['Close'].rolling(window=20).std()
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Buy Condition: RSI &lt; 60 (not extremely oversold, allowing for some upside), MA5 &gt; MA20 (uptrend), and Volatility not too high
+    buy_condition = (df['RSI'] &lt; 60) &amp; (df['MA5'] &gt; df['MA20']) &amp; (df['Volatility'] &lt; df['Volatility'].mean())
+    # Sell Condition: RSI &gt; 40 (not extremely overbought), MA5 &lt; MA20 (downtrend), and Volatility not too low
+    sell_condition = (df['RSI'] &gt; 40) &amp; (df['MA5'] &lt; df['MA20']) &amp; (df['Volatility'] &gt; df['Volatility'].quantile(0.25))
+    # Assign Signals
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Ensure 'signal' Series has the same index as df
+    df['signal'] = pd.Series(df['signal'].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a combined MA crossover, RSI, and volatility filter strategy.
+    Parameters:
+    - df (DataFrame): Input DataFrame with 'Open', 'High', 'Low', 'Close', 'Volume' columns.
+    Returns:
+    - df (DataFrame): Modified DataFrame with the added 'signal' column.
+    """
+    # Trend Indicator: MA Crossover
+    df['MA5'] = df['Close'].rolling(window=5).mean()
+    df['MA20'] = df['Close'].rolling(window=20).mean()
+    # Momentum Indicator: RSI with looser filters
+    df['RSI'] = df['Close'].diff().dropna()
+    df['RSI'] = df['RSI'].apply(lambda x: 1 if x &gt; 0 else 0)
+    df['RSI'] = df['RSI'].rolling(window=14).mean() * 100
+    # Volatility Filter: Simple Standard Deviation Band
+    df['StdDev'] = df['Close'].rolling(window=20).std()
+    df['UpperVolBand'] = df['MA20'] + 1 * df['StdDev']
+    df['LowerVolBand'] = df['MA20'] - 1 * df['StdDev']
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Buy Condition: MA Crossover UP &amp; RSI &lt; 60 &amp; Price above Lower Vol Band
+    buy_condition = (df['MA5'] &gt; df['MA20']) &amp; (df['RSI'] &lt; 60) &amp; (df['Close'] &gt; df['LowerVolBand'])
+    # Sell Condition: MA Crossover DOWN &amp; RSI &gt; 40 &amp; Price below Upper Vol Band
+    sell_condition = (df['MA5'] &lt; df['MA20']) &amp; (df['RSI'] &gt; 40) &amp; (df['Close'] &lt; df['UpperVolBand'])
+    # Assign Signals
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Ensure signal Series uses the same index as df (already handled by loc, but explicit for clarity)
+    df["signal"] = pd.Series(df["signal"].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a combined RSI, MA Crossover, and Volatility Filter Strategy.
+    Parameters:
+    - df (DataFrame): Input DataFrame with 'Open', 'High', 'Low', 'Close', 'Volume' columns.
+    Returns:
+    - df (DataFrame): Modified DataFrame with the added 'signal' column.
+    """
+    # Calculate RSI with a 14-period window
+    df['Delta'] = df['Close'].diff().fillna(0)
+    df['Up'], df['Down'] = df['Delta'].copy(), df['Delta'].copy()
+    df['Up'][df['Up'] &lt; 0] = 0
+    df['Down'][df['Down'] &gt; 0] = 0
+    df['Rolling_Up'] = df['Up'].rolling(window=14).mean()
+    df['Rolling_Down'] = abs(df['Down'].rolling(window=14).mean())
+    df['RSI'] = 100 - (100 / (1 + (df['Rolling_Up'] / df['Rolling_Down'])))
+    # Short-term and Long-term Moving Averages
+    df['MA5'] = df['Close'].rolling(window=5).mean()
+    df['MA20'] = df['Close'].rolling(window=20).mean()
+    # Simple Volatility Filter using Rolling Standard Deviation
+    df['Volatility'] = df['Close'].rolling(window=20).std()
+    # Conditions
+    buy_condition = (df['RSI'] &lt; 40) &amp; (df['MA5'] &gt; df['MA20']) &amp; (df['Close'] &gt; df['MA20']) &amp; (df['Volatility'] &lt; df['Volatility'].mean())
+    sell_condition = (df['RSI'] &gt; 60) &amp; (df['MA5'] &lt; df['MA20']) &amp; (df['Close'] &lt; df['MA20']) &amp; (df['Volatility'] &lt; df['Volatility'].mean())
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Assign Signals
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Clean Up (Remove Intermediate Columns for Memory Efficiency)
+    df.drop(columns=['Delta', 'Up', 'Down', 'Rolling_Up', 'Rolling_Down', 'MA5', 'MA20', 'Volatility'], inplace=True)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a combined RSI, MA Crossover, and Volatility Filter Strategy.
+    Parameters:
+    - df (DataFrame): Input DataFrame with 'Open', 'High', 'Low', 'Close', 'Volume' columns.
+    Returns:
+    - df (DataFrame): Modified DataFrame with the added 'signal' column.
+    """
+    # Calculate RSI with a 14-period window
+    df['Delta'] = df['Close'].diff().fillna(0)
+    df['Up'], df['Down'] = df['Delta'].copy(), df['Delta'].copy()
+    df['Up'][df['Up'] &lt; 0] = 0
+    df['Down'][df['Down'] &gt; 0] = 0
+    df['Roll_Up'] = df['Up'].rolling(window=14).mean()
+    df['Roll_Down'] = df['Down'].rolling(window=14).mean().abs()
+    df['RSI'] = 100 - (100 / (1 + df['Roll_Up'] / df['Roll_Down']))
+    # Calculate Short and Long Term Moving Averages
+    df['MA_5'] = df['Close'].rolling(window=5).mean()
+    df['MA_20'] = df['Close'].rolling(window=20).mean()
+    # Simple Volatility Filter using Rolling Standard Deviation
+    df['Volatility'] = df['Close'].rolling(window=20).std()
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Buy Condition: RSI &lt; 60 (not extremely oversold, but showing momentum potential), MA5 &gt; MA20 (upward momentum), and Volatility not too high
+    buy_condition = (df['RSI'] &lt; 60) &amp; (df['MA_5'] &gt; df['MA_20']) &amp; (df['Volatility'] &lt; df['Volatility'].mean())
+    # Sell Condition: RSI &gt; 40 (not extremely overbought), MA5 &lt; MA20 (downward momentum), and Volatility not too low
+    sell_condition = (df['RSI'] &gt; 40) &amp; (df['MA_5'] &lt; df['MA_20']) &amp; (df['Volatility'] &gt; df['Volatility'].quantile(0.25))
+    # Assign Signals
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Ensure 'signal' column uses the same index as df
+    df['signal'] = pd.Series(df['signal'].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on an enhanced strategy:
+    - Traditional RSI for momentum
+    - MA Crossover for trend
+    - ATR-based volatility filter
+    Parameters:
+    df (DataFrame): Input DataFrame with OHLCV data
+    Returns:
+    DataFrame: Modified DataFrame with 'signal' column
+    """
+    # Calculate Traditional RSI
+    delta = df['Close'].diff().fillna(0)
+    up, down = delta.copy(), delta.copy()
+    up[up &lt; 0] = 0
+    down[down &gt; 0] = 0
+    roll_up = up.rolling(window=14).mean()
+    roll_down = down.rolling(window=14).mean().abs()
+    RS = roll_up / roll_down
+    df['RSI'] = 100.0 - (100.0 / (1.0 + RS))
+    # Moving Averages for Trend
+    df['MA5'] = df['Close'].rolling(window=5).mean()
+    df['MA20'] = df['Close'].rolling(window=20).mean()
+    # Average True Range (ATR) for Volatility
+    hl = df['High'] - df['Low']
+    hc = (df['High'] - df['Close'].shift(1)).abs()
+    lc = (df['Low'] - df['Close'].shift(1)).abs()
+    df['HL'] = hl
+    df['HC'] = hc
+    df['LC'] = lc
+    df['TR'] = df[['HL', 'HC', 'LC']].max(axis=1)
+    df['ATR'] = df['TR'].rolling(window=14).mean()
+    # Conditions
+    buy_condition = (df['MA5'] &gt; df['MA20']) &amp; (df['RSI'] &lt; 40) &amp; (df['Low'] &lt; df['Low'].shift(1)) &amp; (df['ATR'].shift(1) &lt; df['ATR'].rolling(window=5).mean())
+    sell_condition = (df['MA5'] &lt; df['MA20']) &amp; (df['RSI'] &gt; 60) &amp; (df['High'] &gt; df['High'].shift(1)) &amp; (df['ATR'].shift(1) &lt; df['ATR'].rolling(window=5).mean())
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Apply Conditions
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Ensure signal Series uses the same index as df
+    df['signal'] = pd.Series(df['signal'].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a trend and volatility strategy.
+    Parameters:
+    - df (DataFrame): Must contain 'Open', 'High', 'Low', 'Close' columns.
+    Returns:
+    - df (DataFrame): With an additional 'signal' column (-1 for Sell, 0 for Hold, 1 for Buy).
+    """
+    # Ensure necessary columns are present
+    required_columns = ['Open', 'High', 'Low', 'Close']
+    if not all(col in df.columns for col in required_columns):
+        raise ValueError("DataFrame must contain 'Open', 'High', 'Low', 'Close' columns.")
+    # Calculate Moving Averages
+    df['MA5'] = df['Close'].rolling(window=5).mean()  # Short-term MA
+    df['MA20'] = df['Close'].rolling(window=20).mean()  # Long-term MA
+    # Calculate Average True Range (ATR) for volatility
+    df['HL'] = df['High'] - df['Low']
+    df['HPC'] = np.abs(df['High'] - df['Close'].shift(1))
+    df['LPC'] = np.abs(df['Low'] - df['Close'].shift(1))
+    df['TR'] = df[['HL', 'HPC', 'LPC']].max(axis=1)
+    df['ATR'] = df['TR'].rolling(window=20).mean()
+    # Calculate ATR Bands
+    df['Upper_ATR_Band'] = df['MA20'] + 1 * df['ATR']
+    df['Lower_ATR_Band'] = df['MA20'] - 1 * df['ATR']
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Generate Buy Signals
+    buy_condition = (df['MA5'] &gt; df['MA20']) &amp; (df['Close'] &gt; df['Lower_ATR_Band'])
+    df.loc[buy_condition, 'signal'] = 1
+    # Generate Sell Signals
+    sell_condition = (df['MA5'] &lt; df['MA20']) &amp; (df['Close'] &lt; df['Upper_ATR_Band'])
+    df.loc[sell_condition, 'signal'] = -1
+    # Ensure signal Series uses the same index as df
+    df['signal'] = pd.Series(df['signal'].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a revised intraday trading strategy.
+    Strategy Overview:
+    - **Buy Signal**: When RSI &lt; 60 (indicating not overly bought) AND Short MA crosses above Long MA, 
+                      AND volatility (rolling std) is below its average (to avoid high volatility).
+    - **Sell Signal**: When RSI &gt; 40 (indicating not overly sold) AND Short MA crosses below Long MA, 
+                      AND volatility (rolling std) is below its average.
+    - **Hold (0)**: Otherwise
+    Parameters:
+    df (DataFrame): Input DataFrame with 'Open', 'High', 'Low', 'Close', 'Volume' columns.
+    Returns:
+    DataFrame: Input DataFrame with an additional 'signal' column.
+    """
+    # Calculate RSI with a 14-period window
+    delta = df['Close'].diff().dropna()
+    up, down = delta.copy(), delta.copy()
+    up[up &lt; 0] = 0
+    down[down &gt; 0] = 0
+    roll_up = up.rolling(window=14).mean()
+    roll_down = down.rolling(window=14).mean().abs()
+    RS = roll_up / roll_down
+    df['RSI'] = 100.0 - (100.0 / (1.0 + RS))
+    # Calculate Short and Long Moving Averages
+    df['MA5'] = df['Close'].rolling(window=5).mean()
+    df['MA20'] = df['Close'].rolling(window=20).mean()
+    # Calculate Volatility (Rolling Standard Deviation of Close)
+    df['Volatility'] = df['Close'].rolling(window=20).std()
+    df['AvgVolatility'] = df['Volatility'].rolling(window=20).mean()
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Buy Condition
+    buy_condition = (df['RSI'] &lt; 60) &amp; (df['MA5'] &gt; df['MA20'].shift(1)) &amp; (df['MA5'].shift(1) &lt;= df['MA20'].shift(1)) &amp; (df['Volatility'] &lt; df['AvgVolatility'])
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    # Sell Condition
+    sell_condition = (df['RSI'] &gt; 40) &amp; (df['MA5'] &lt; df['MA20'].shift(1)) &amp; (df['MA5'].shift(1) &gt;= df['MA20'].shift(1)) &amp; (df['Volatility'] &lt; df['AvgVolatility'])
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Ensure signal Series has the same index as df
+    df['signal'] = pd.Series(df['signal'].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a revised intraday trading strategy.
+    Strategy Overview:
+    - **Buy Signal**: When RSI &lt; 60 (indicating not overly bought) AND Short MA crosses above Long MA, 
+                      AND volatility (rolling std) is below its average (to avoid high volatility).
+    - **Sell Signal**: When RSI &gt; 40 (indicating not overly sold) AND Short MA crosses below Long MA, 
+                      AND volatility (rolling std) is below its average.
+    - **Hold (0)**: Otherwise.
+    """
+    # Calculate RSI with a 14-period window for momentum
+    delta = df['Close'].diff().dropna()
+    up, down = delta.copy(), delta.copy()
+    up[up &lt; 0] = 0
+    down[down &gt; 0] = 0
+    roll_up = up.rolling(window=14).mean()
+    roll_down = down.rolling(window=14).mean().abs()
+    RS = roll_up / roll_down
+    df['RSI'] = 100.0 - (100.0 / (1.0 + RS))
+    # Simple Moving Averages for trend identification
+    df['MA5'] = df['Close'].rolling(window=5).mean()
+    df['MA20'] = df['Close'].rolling(window=20).mean()
+    # Volatility measure using rolling standard deviation
+    df['Volatility'] = df['Close'].rolling(window=20).std()
+    avg_volatility = df['Volatility'].mean()
+    # Conditions
+    buy_condition = (df['RSI'] &lt; 60) &amp; (df['MA5'] &gt; df['MA20']) &amp; (df['MA5'].shift(1) &lt;= df['MA20'].shift(1)) &amp; (df['Volatility'] &lt; avg_volatility)
+    sell_condition = (df['RSI'] &gt; 40) &amp; (df['MA5'] &lt; df['MA20']) &amp; (df['MA5'].shift(1) &gt;= df['MA20'].shift(1)) &amp; (df['Volatility'] &lt; avg_volatility)
+    # Assign Signals
+    df['signal'] = 0  # Default to Hold
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Ensure 'signal' column uses the same index as df (though operations above should maintain this)
+    df["signal"] = pd.Series(df["signal"].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Generates 'signal' column based on enhanced RSI, MA crossover, and volatility awareness.
+    Parameters:
+    - df (DataFrame): Input DataFrame with 'Open', 'High', 'Low', 'Close', 'Volume' columns.
+    Returns:
+    - df (DataFrame): Input DataFrame with an additional 'signal' column.
+    """
+    # Calculate Traditional RSI
+    delta = df['Close'].diff().fillna(0)
+    up, down = delta.copy(), delta.copy()
+    up[up &lt; 0] = 0
+    down[down &gt; 0] = 0
+    roll_up = up.rolling(window=14).mean()
+    roll_down = down.rolling(window=14).mean().abs()
+    RS = roll_up / roll_down
+    df['RSI'] = 100.0 - (100.0 / (1.0 + RS))
+    # Moving Averages for Trend
+    df['MA5'] = df['Close'].rolling(window=5).mean()
+    df['MA20'] = df['Close'].rolling(window=20).mean()
+    # Bollinger Bands for Volatility
+    df['MA'] = df['Close'].rolling(window=20).mean()
+    df['Std'] = df['Close'].rolling(window=20).std()
+    df['Lower_BB'] = df['MA'] - 2 * df['Std']
+    df['Upper_BB'] = df['MA'] + 2 * df['Std']
+    # Signal Generation
+    df['signal'] = 0  # Default to Hold
+    # Buy Condition: RSI &lt; 40, Price above Lower BB, and MA5 &gt; MA20
+    buy_condition = (df['RSI'] &lt; 40) &amp; (df['Close'] &gt; df['Lower_BB']) &amp; (df['MA5'] &gt; df['MA20'])
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    # Sell Condition: RSI &gt; 60, Price below Upper BB, and MA5 &lt; MA20
+    sell_condition = (df['RSI'] &gt; 60) &amp; (df['Close'] &gt; df['Upper_BB']) &amp; (df['MA5'] &lt; df['MA20'])
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Ensure signal Series uses the same index as df
+    df["signal"] = pd.Series(df["signal"].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a revised intraday trading strategy.
+    Strategy Overview:
+    - **Buy Signal**: When RSI &lt; 60 (indicating not overly bought) AND Short MA crosses above Long MA, 
+                      AND volatility (rolling std) is below its average (to avoid high volatility).
+    - **Sell Signal**: When RSI &gt; 40 (indicating not overly sold) AND Short MA crosses below Long MA, 
+                      AND volatility (rolling std) is below its average.
+    - **Hold (0)**: Otherwise
+    Parameters:
+    df (DataFrame): Input DataFrame with 'Open', 'High', 'Low', 'Close', 'Volume' columns.
+    Returns:
+    DataFrame: Input DataFrame with an additional 'signal' column.
+    """
+    # Calculate RSI with a 14-period window
+    delta = df['Close'].diff().dropna()
+    up, down = delta.copy(), delta.copy()
+    up[up &lt; 0] = 0
+    down[down &gt; 0] = 0
+    roll_up = up.rolling(window=14).mean()
+    roll_down = down.rolling(window=14).mean().abs()
+    RS = roll_up / roll_down
+    df['RSI'] = 100.0 - (100.0 / (1.0 + RS))
+    # Calculate Short and Long Moving Averages
+    df['MA5'] = df['Close'].rolling(window=5).mean()
+    df['MA20'] = df['Close'].rolling(window=20).mean()
+    # Calculate Volatility (Rolling Standard Deviation of Close)
+    df['Volatility'] = df['Close'].rolling(window=20).std()
+    df['AvgVolatility'] = df['Volatility'].rolling(window=20).mean()
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Buy Condition
+    buy_condition = (df['RSI'] &lt; 60) &amp; (df['MA5'] &gt; df['MA20'].shift(1)) &amp; (df['MA5'].shift(1) &lt;= df['MA20'].shift(1)) &amp; (df['Volatility'] &lt; df['AvgVolatility'])
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    # Sell Condition
+    sell_condition = (df['RSI'] &gt; 40) &amp; (df['MA5'] &lt; df['MA20'].shift(1)) &amp; (df['MA5'].shift(1) &gt;= df['MA20'].shift(1)) &amp; (df['Volatility'] &lt; df['AvgVolatility'])
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Ensure signal Series uses the same index as df
+    df["signal"] = pd.Series(df["signal"].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on an enhanced strategy:
+    - Traditional RSI for momentum
+    - MA5/MA20 crossover for trend
+    - ATR-based volatility filter
+    """
+    # 1. Traditional RSI Calculation (14 periods)
+    df['Delta'] = df['Close'].diff().fillna(0)
+    df['Up'] = df['Delta'].apply(lambda x: x if x &gt; 0 else 0)
+    df['Down'] = df['Delta'].apply(lambda x: abs(x) if x &lt; 0 else 0)
+    df['RSI'] = 100 - (100 / (1 + df['Up'].rolling(14).mean() / df['Down'].rolling(14).mean()))
+    # 2. Moving Averages for Trend
+    df['MA5'] = df['Close'].rolling(window=5).mean()
+    df['MA20'] = df['Close'].rolling(window=20).mean()
+    # 3. Average True Range (ATR) for Volatility
+    df['HL'] = df['High'] - df['Low']
+    df['HPC'] = df['High'] - df['Close'].shift(1)
+    df['LPC'] = df['Close'].shift(1) - df['Low']
+    df['TR'] = df[['HL', 'HPC', 'LPC']].max(axis=1)
+    df['ATR'] = df['TR'].rolling(window=14).mean()
+    # Signal Generation
+    df['signal'] = 0  # Default to Hold
+    # Buy Condition: RSI &lt; 40, MA5 &gt; MA20 (Uptrend), and Low Volatility (ATR &lt; 2*ATR.mean())
+    buy_condition = (df['RSI'] &lt; 40) &amp; (df['MA5'] &gt; df['MA20']) &amp; (df['ATR'] &lt; 2 * df['ATR'].mean())
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    # Sell Condition: RSI &gt; 60, MA5 &lt; MA20 (Downtrend), and Low Volatility
+    sell_condition = (df['RSI'] &gt; 60) &amp; (df['MA5'] &lt; df['MA20']) &amp; (df['ATR'] &lt; 2 * df['ATR'].mean())
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Ensure signal Series has the same index as df
+    df['signal'] = pd.Series(df['signal'].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a refined strategy:
+    - **Buy** when Short MA crosses above Long MA and RSI is below a volatility-adjusted threshold.
+    - **Sell** when Short MA crosses below Long MA and RSI is above a volatility-adjusted threshold.
+    - **Hold** otherwise.
+    Parameters:
+    df (DataFrame): Input DataFrame with 'Open', 'High', 'Low', 'Close', 'Volume' columns.
+    Returns:
+    DataFrame: Input DataFrame with an additional 'signal' column.
+    """
+    # Calculate Traditional RSI with a 14-period window
+    delta = df['Close'].diff().fillna(0)
+    up, down = delta.copy(), delta.copy()
+    up[up &lt; 0] = 0
+    down[down &gt; 0] = 0
+    roll_up = up.rolling(window=14).mean()
+    roll_down = down.rolling(window=14).mean().abs()
+    RS = roll_up / roll_down
+    df['RSI'] = 100.0 - (100.0 / (1.0 + RS))
+    # Volatility-Adjusted RSI Thresholds (Mean of RSI over 20 periods ± 1 Std Dev)
+    rsi_mean = df['RSI'].rolling(window=20).mean()
+    rsi_std = df['RSI'].rolling(window=20).std()
+    lower_rsi_thresh = rsi_mean - rsi_std
+    upper_rsi_thresh = rsi_mean + rsi_std
+    # Short and Long Term Moving Averages for Crossover Strategy
+    df['MA_Short'] = df['Close'].rolling(window=5).mean()
+    df['MA_Long'] = df['Close'].rolling(window=20).mean()
+    # Conditions for Signals
+    buy_condition = (df['MA_Short'] &gt; df['MA_Long']) &amp; (df['RSI'] &lt; lower_rsi_thresh)
+    sell_condition = (df['MA_Short'] &lt; df['MA_Long']) &amp; (df['RSI'] &gt; upper_rsi_thresh)
+    # Assign Signals
+    df['signal'] = 0  # Default to Hold
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Ensure 'signal' Series has the same index as df
+    df['signal'] = pd.Series(df['signal'].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on an enhanced strategy:
+    - Traditional RSI for momentum
+    - MA Crossover for trend
+    - ATR-based volatility filter
+    Parameters:
+    df (DataFrame): Input DataFrame with OHLCV data
+    Returns:
+    DataFrame: Modified DataFrame with 'signal' column
+    """
+    # Calculate Traditional RSI
+    delta = df['Close'].diff().fillna(0)
+    up, down = delta.copy(), delta.copy()
+    up[up &lt; 0] = 0
+    down[down &gt; 0] = 0
+    roll_up = up.rolling(window=14).mean()
+    roll_down = down.rolling(window=14).mean().abs()
+    RS = roll_up / roll_down
+    df['RSI'] = 100.0 - (100.0 / (1.0 + RS))
+    # Moving Averages for Trend
+    df['MA5'] = df['Close'].rolling(window=5).mean()
+    df['MA20'] = df['Close'].rolling(window=20).mean()
+    # Average True Range (ATR) for Volatility
+    hl = df['High'] - df['Low']
+    hc = (df['High'] - df['Close'].shift(1)).abs()
+    lc = (df['Low'] - df['Close'].shift(1)).abs()
+    df['HL'] = hl
+    df['HC'] = hc
+    df['LC'] = lc
+    df['TR'] = df[['HL', 'HC', 'LC']].max(axis=1)
+    df['ATR'] = df['TR'].rolling(window=14).mean()
+    # Conditions
+    buy_condition = (df['MA5'] &gt; df['MA20']) &amp; (df['RSI'] &lt; 40) &amp; (df['Low'] &lt; df['Low'].shift(1)) &amp; (df['ATR'].shift(1) &lt; df['ATR'].rolling(window=5).mean())
+    sell_condition = (df['MA5'] &lt; df['MA20']) &amp; (df['RSI'] &gt; 60) &amp; (df['High'] &gt; df['High'].shift(1)) &amp; (df['ATR'].shift(1) &lt; df['ATR'].rolling(window=5).mean())
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Apply Conditions
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Ensure signal Series uses the same index as df
+    df["signal"] = pd.Series(df["signal"].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a dual-condition strategy:
+    1. RSI-based Momentum with Volatility Filter
+    2. Short-term Trend Alignment
+    """
+    # Calculate RSI with a shorter window for intraday trading
+    df['RSI'] = df['Close'].diff().dropna()
+    df['RSI'] = df['RSI'].apply(lambda x: 1 if x &gt; 0 else 0)
+    df['RSI'] = df['RSI'].rolling(window=7).mean() * 100  # Shorter RSI window for 5-min bars
+    # Simple Volatility Filter using Rolling Std Dev
+    df['Volatility'] = df['Close'].rolling(window=20).std()
+    vol_threshold = df['Volatility'].mean() * 1.5  # Dynamic volatility threshold
+    df['LowVol'] = df['Volatility'] &lt; vol_threshold
+    # Short-term Trend Alignment (5-period MA)
+    df['TrendMA'] = df['Close'].rolling(window=5).mean()
+    df['TrendUp'] = df['Close'] &gt; df['TrendMA']
+    # Dual Conditions for Signals
+    buy_condition = (df['RSI'] &lt; 40) &amp; df['LowVol'] &amp; df['TrendUp']
+    sell_condition = (df['RSI'] &gt; 60) &amp; df['LowVol'] &amp; ~df['TrendUp']
+    # Assign Signals
+    df['signal'] = 0  # Default to Hold
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Ensure signal Series uses the same index as df
+    df["signal"] = pd.Series(df["signal"].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a volatility-adjusted RSI strategy with trend confirmation.
+    Parameters:
+    - df (DataFrame): Input DataFrame with 'Open', 'High', 'Low', 'Close', 'Volume' columns.
+    Returns:
+    - df (DataFrame): Modified DataFrame with the added 'signal' column.
+    """
+    # Standard RSI Calculation
+    df['Delta'] = df['Close'].diff().fillna(0)
+    df['Up'] = df['Delta'].apply(lambda x: x if x &gt; 0 else 0)
+    df['Down'] = df['Delta'].apply(lambda x: -x if x &lt; 0 else 0)
+    df['Rolling_Up'] = df['Up'].rolling(window=14).mean()
+    df['Rolling_Down'] = df['Down'].rolling(window=14).mean()
+    df['RS'] = df['Rolling_Up'] / df['Rolling_Down']
+    df['RSI'] = 100 - (100 / (1 + df['RS']))
+    # Volatility-Adjusted RSI Thresholds
+    df['Volatility'] = df['Close'].rolling(window=20).std()
+    df['Lower_RSI_Threshold'] = 30 + (df['Volatility'] / df['Close']) * 100 * 5  # Adjust threshold with volatility
+    df['Upper_RSI_Threshold'] = 70 - (df['Volatility'] / df['Close']) * 100 * 5
+    # Trend Confirmation with Moving Averages
+    df['MA_Fast'] = df['Close'].rolling(window=50).mean()  # Fast MA for trend
+    df['MA_Slow'] = df['Close'].rolling(window=100).mean()  # Slow MA for overall direction
+    # Signal Generation
+    df['signal'] = 0  # Default to Hold
+    # Buy Condition: RSI below lower threshold, price above fast MA, and fast MA above slow MA
+    buy_condition = (df['RSI'] &lt; df['Lower_RSI_Threshold']) &amp; (df['Close'] &gt; df['MA_Fast']) &amp; (df['MA_Fast'] &gt; df['MA_Slow'])
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    # Sell Condition: RSI above upper threshold, price below fast MA, and fast MA below slow MA
+    sell_condition = (df['RSI'] &gt; df['Upper_RSI_Threshold']) &amp; (df['Close'] &lt; df['MA_Fast']) &amp; (df['MA_Fast'] &lt; df['MA_Slow'])
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Clean up temporary columns (optional, for memory efficiency)
+    # df.drop(columns=['Delta', 'Up', 'Down', 'Rolling_Up', 'Rolling_Down', 'RS', 'Volatility', 'Lower_RSI_Threshold', 'Upper_RSI_Threshold', 'MA_Fast', 'MA_Slow'], inplace=True)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on an enhanced strategy:
+    - Traditional RSI for momentum
+    - MA Crossover for trend
+    - ATR-based volatility filter
+    Parameters:
+    df (DataFrame): Input DataFrame with OHLCV data
+    Returns:
+    DataFrame: Modified DataFrame with 'signal' column
+    """
+    # Calculate Traditional RSI
+    delta = df['Close'].diff().fillna(0)
+    up, down = delta.copy(), delta.copy()
+    up[up &lt; 0] = 0
+    down[down &gt; 0] = 0
+    roll_up = up.rolling(window=14).mean()
+    roll_down = down.rolling(window=14).mean().abs()
+    RS = roll_up / roll_down
+    df['RSI'] = 100.0 - (100.0 / (1.0 + RS))
+    # Moving Averages for Trend
+    df['MA5'] = df['Close'].rolling(window=5).mean()
+    df['MA20'] = df['Close'].rolling(window=20).mean()
+    # Average True Range (ATR) for Volatility
+    hl = df['High'] - df['Low']
+    hc = (df['High'] - df['Close'].shift(1)).abs()
+    lc = (df['Low'] - df['Close'].shift(1)).abs()
+    df['HL'] = hl
+    df['HC'] = hc
+    df['LC'] = lc
+    df['TR'] = df[['HL', 'HC', 'LC']].max(axis=1)
+    df['ATR'] = df['TR'].rolling(window=14).mean()
+    # Conditions
+    buy_condition = (df['RSI'] &lt; 40) &amp; (df['MA5'] &gt; df['MA20']) &amp; (df['Close'] &gt; df['MA20']) &amp; (df['ATR'].rolling(window=5).mean() &lt; df['ATR'].mean())
+    sell_condition = (df['RSI'] &gt; 60) &amp; (df['MA5'] &lt; df['MA20']) &amp; (df['Close'] &lt; df['MA20']) &amp; (df['ATR'].rolling(window=5).mean() &lt; df['ATR'].mean())
+    # Assign Signals
+    df['signal'] = 0  # Default to Hold
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Ensure signal Series uses the same index as df
+    df['signal'] = pd.Series(df['signal'].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a combined RSI, MA Crossover, and Volatility Filter Strategy.
+    Parameters:
+    - df (DataFrame): Input DataFrame with 'Open', 'High', 'Low', 'Close', 'Volume' columns.
+    Returns:
+    - df (DataFrame): Modified DataFrame with the added 'signal' column.
+    """
+    # Calculate RSI with a 14-period window
+    delta = df['Close'].diff().fillna(0)
+    up, down = delta.copy(), delta.copy()
+    up[up &lt; 0] = 0
+    down[down &gt; 0] = 0
+    roll_up = up.rolling(window=14).mean()
+    roll_down = down.rolling(window=14).mean().abs()
+    RS = roll_up / roll_down
+    df['RSI'] = 100.0 - (100.0 / (1.0 + RS))
+    # Calculate Short and Long Term Moving Averages
+    df['MA5'] = df['Close'].rolling(window=5).mean()
+    df['MA20'] = df['Close'].rolling(window=20).mean()
+    # Simple Volatility Filter using Rolling Standard Deviation
+    df['Volatility'] = df['Close'].rolling(window=20).std()
+    # Define Signal Conditions
+    buy_condition = (df['RSI'] &lt; 40) &amp; (df['MA5'] &gt; df['MA20']) &amp; (df['Close'] &gt; df['MA20']) &amp; (df['Volatility'] &lt; df['Volatility'].mean())
+    sell_condition = (df['RSI'] &gt; 60) &amp; (df['MA5'] &lt; df['MA20']) &amp; (df['Close'] &lt; df['MA20']) &amp; (df['Volatility'] &lt; df['Volatility'].mean())
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Assign Signals
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Ensure 'signal' Series has the same index as df
+    df["signal"] = pd.Series(df["signal"].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a combined MA crossover, RSI, and volatility filter strategy.
+    Parameters:
+    - df (DataFrame): Input DataFrame with 'Open', 'High', 'Low', 'Close', 'Volume' columns.
+    Returns:
+    - df (DataFrame): Modified DataFrame with the added 'signal' column.
+    """
+    # Trend Indicator: MA Crossover
+    df['MA5'] = df['Close'].rolling(window=5).mean()
+    df['MA20'] = df['Close'].rolling(window=20).mean()
+    # Momentum Indicator: RSI with looser filters
+    df['RSI'] = df['Close'].diff().dropna()
+    df['RSI'] = df['RSI'].apply(lambda x: 1 if x &gt; 0 else 0)
+    df['RSI'] = df['RSI'].rolling(window=14).mean() * 100
+    # Volatility Filter: Simple Std Deviation
+    df['Volatility'] = df['Close'].rolling(window=20).std()
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Buy Condition: MA Crossover (upward trend), RSI &lt; 60 (not overbought), Volatility not too high
+    buy_condition = (df['MA5'] &gt; df['MA20']) &amp; (df['RSI'] &lt; 60) &amp; (df['Volatility'] &lt; df['Volatility'].mean())
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    # Sell Condition: MA Crossover (downward trend), RSI &gt; 40 (not oversold), Volatility not too low
+    sell_condition = (df['MA5'] &lt; df['MA20']) &amp; (df['RSI'] &gt; 40) &amp; (df['Volatility'] &gt; df['Volatility'].quantile(0.25))
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Ensure signal Series uses the same index as df
+    df["signal"] = pd.Series(df["signal"].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a combined RSI, MA Crossover, and Volatility Filter Strategy.
+    Parameters:
+    - df (DataFrame): Input DataFrame with 'Open', 'High', 'Low', 'Close', 'Volume' columns.
+    Returns:
+    - df (DataFrame): Modified DataFrame with the added 'signal' column.
+    """
+    # Calculate RSI with a 14-period window
+    df['Delta'] = df['Close'].diff().fillna(0)
+    df['Up'], df['Down'] = df['Delta'].copy(), df['Delta'].copy()
+    df['Up'][df['Up'] &lt; 0] = 0
+    df['Down'][df['Down'] &gt; 0] = 0
+    df['Rolling_Up'] = df['Up'].rolling(window=14).mean()
+    df['Rolling_Down'] = df['Down'].rolling(window=14).mean().abs()
+    df['RSI'] = 100 - (100 / (1 + (df['Rolling_Up'] / df['Rolling_Down'])))
+    # Short-term and Long-term Moving Averages
+    df['MA5'] = df['Close'].rolling(window=5).mean()
+    df['MA20'] = df['Close'].rolling(window=20).mean()
+    # Simple Volatility Filter using Rolling Standard Deviation
+    df['Volatility'] = df['Close'].rolling(window=20).std()
+    # Conditions
+    buy_condition = (df['RSI'] &lt; 40) &amp; (df['MA5'] &gt; df['MA20']) &amp; (df['Close'] &gt; df['MA20']) &amp; (df['Volatility'] &lt; df['Volatility'].mean())
+    sell_condition = (df['RSI'] &gt; 60) &amp; (df['MA5'] &lt; df['MA20']) &amp; (df['Close'] &lt; df['MA20']) &amp; (df['Volatility'] &lt; df['Volatility'].mean())
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Apply Conditions
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Clean Up (Remove Intermediate Columns for Memory Efficiency)
+    df.drop(columns=['Delta', 'Up', 'Down', 'Rolling_Up', 'Rolling_Down', 'MA5', 'MA20', 'Volatility'], inplace=True)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a combined RSI, MA Crossover, and Volatility Filter Strategy.
+    Parameters:
+    - df (DataFrame): Input DataFrame with 'Open', 'High', 'Low', 'Close', 'Volume' columns.
+    Returns:
+    - df (DataFrame): Modified DataFrame with the added 'signal' column.
+    """
+    # Calculate RSI with a 14-period window
+    df['Delta'] = df['Close'].diff().fillna(0)
+    df['Up'], df['Down'] = df['Delta'].copy(), df['Delta'].copy()
+    df['Up'][df['Up'] &lt; 0] = 0
+    df['Down'][df['Down'] &gt; 0] = 0
+    df['Rolling_Up'] = df['Up'].rolling(window=14).mean()
+    df['Rolling_Down'] = abs(df['Down'].rolling(window=14).mean())
+    df['RSI'] = 100 - (100 / (1 + (df['Rolling_Up'] / df['Rolling_Down'])))
+    # Short-term and Long-term Moving Averages
+    df['MA_5'] = df['Close'].rolling(window=5).mean()
+    df['MA_20'] = df['Close'].rolling(window=20).mean()
+    # Simple Volatility Filter using Rolling Standard Deviation
+    df['Volatility'] = df['Close'].rolling(window=20).std()
+    # Conditions
+    buy_condition = (df['RSI'] &lt; 40) &amp; (df['MA_5'] &gt; df['MA_20']) &amp; (df['Close'] &gt; df['MA_20']) &amp; (df['Volatility'] &lt; df['Volatility'].mean())
+    sell_condition = (df['RSI'] &gt; 60) &amp; (df['MA_5'] &lt; df['MA_20']) &amp; (df['Close'] &lt; df['MA_20']) &amp; (df['Volatility'] &lt; df['Volatility'].mean())
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Assign Signals
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Clean Up (Remove Intermediate Columns for Memory Efficiency)
+    df.drop(columns=['Delta', 'Up', 'Down', 'Rolling_Up', 'Rolling_Down', 'MA_5', 'MA_20', 'Volatility'], inplace=True)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a trend and volatility strategy.
+    Parameters:
+    - df (DataFrame): Must contain 'Open', 'High', 'Low', 'Close' columns.
+    Returns:
+    - DataFrame with an additional 'signal' column.
+    """
+    # Ensure necessary columns are present
+    required_columns = ['Open', 'High', 'Low', 'Close']
+    if not all(col in df.columns for col in required_columns):
+        raise ValueError("DataFrame must contain 'Open', 'High', 'Low', 'Close' columns.")
+    # Calculate Moving Averages for Trend Detection
+    df['MA_5'] = df['Close'].rolling(window=5).mean()  # Short-term MA
+    df['MA_20'] = df['Close'].rolling(window=20).mean()  # Long-term MA
+    # Calculate ATR for Volatility Bands
+    df['HL'] = df['High'] - df['Low']
+    df['HPC'] = np.abs(df['High'] - df['Close'].shift(1))
+    df['LPC'] = np.abs(df['Low'] - df['Close'].shift(1))
+    df['ATR'] = df[['HL', 'HPC', 'LPC']].max(axis=1).rolling(window=20).mean()
+    # Calculate Volatility Bands
+    df['Upper_ATR_Band'] = df['Close'] + 1 * df['ATR']
+    df['Lower_ATR_Band'] = df['Close'] - 1 * df['ATR']
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Generate Buy Signals
+    buy_condition = (df['MA_5'] &gt; df['MA_20']) &amp; (df['Close'] &gt; df['Lower_ATR_Band'])
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    # Generate Sell Signals
+    sell_condition = (df['MA_5'] &lt; df['MA_20']) &amp; (df['Close'] &lt; df['Upper_ATR_Band'])
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Clean Up (Optional, for memory efficiency)
+    # df.drop(columns=['MA_5', 'MA_20', 'HL', 'HPC', 'LPC', 'ATR', 'Upper_ATR_Band', 'Lower_ATR_Band'], inplace=True)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a combined RSI, MA Crossover, and Volatility Filter Strategy.
+    Parameters:
+    - df (DataFrame): Input DataFrame with 'Open', 'High', 'Low', 'Close', 'Volume' columns.
+    Returns:
+    - df (DataFrame): Modified DataFrame with the added 'signal' column.
+    """
+    # Calculate RSI with a 14-period window
+    delta = df['Close'].diff().fillna(0)
+    up, down = delta.copy(), delta.copy()
+    up[up &lt; 0] = 0
+    down[down &gt; 0] = 0
+    roll_up = up.rolling(window=14).mean()
+    roll_down = down.rolling(window=14).mean().abs()
+    RS = roll_up / roll_down
+    df['RSI'] = 100.0 - (100.0 / (1.0 + RS))
+    # Calculate Short and Long Term Moving Averages
+    df['MA5'] = df['Close'].rolling(window=5).mean()
+    df['MA20'] = df['Close'].rolling(window=20).mean()
+    # Simple Volatility Filter using Rolling Standard Deviation
+    df['Volatility'] = df['Close'].rolling(window=20).std()
+    # Signal Conditions
+    buy_condition = (df['RSI'] &lt; 40) &amp; (df['MA5'] &gt; df['MA20']) &amp; (df['Volatility'] &lt; df['Volatility'].mean())  # Buy on mean reversion signal, positive momentum, and below average volatility
+    sell_condition = (df['RSI'] &gt; 60) &amp; (df['MA5'] &lt; df['MA20']) &amp; (df['Volatility'] &lt; df['Volatility'].mean())  # Sell on overbought, negative momentum, and below average volatility
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Assign Signals
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Ensure 'signal' Series has the same index as df
+    df["signal"] = pd.Series(df["signal"].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on an enhanced strategy:
+    - Traditional RSI for momentum
+    - MA Crossover for trend confirmation
+    - Volatility filtering using Bollinger Bands
+    Parameters:
+    df (DataFrame): Input DataFrame with OHLCV data
+    Returns:
+    DataFrame: Modified DataFrame with 'signal' column added
+    """
+    # Calculate Traditional RSI
+    delta = df['Close'].diff().fillna(0)
+    up, down = delta.copy(), delta.copy()
+    up[up &lt; 0] = 0
+    down[down &gt; 0] = 0
+    roll_up = up.rolling(window=14).mean()
+    roll_down = down.rolling(window=14).mean().abs()
+    RS = roll_up / roll_down
+    df['RSI'] = 100.0 - (100.0 / (1.0 + RS))
+    # Calculate Moving Averages for Trend Confirmation
+    df['MA5'] = df['Close'].rolling(window=5).mean()
+    df['MA20'] = df['Close'].rolling(window=20).mean()
+    # Calculate Bollinger Bands for Volatility
+    df['MA_BB'] = df['Close'].rolling(window=20).mean()
+    df['Std_BB'] = df['Close'].rolling(window=20).std()
+    df['Lower_BB'] = df['MA_BB'] - 2 * df['Std_BB']
+    df['Upper_BB'] = df['MA_BB'] + 2 * df['Std_BB']
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Buy Condition: RSI &lt; 40, Short MA &gt; Long MA (Uptrend), and Price above Lower BB
+    buy_condition = (df['RSI'] &lt; 40) &amp; (df['MA5'] &gt; df['MA20']) &amp; (df['Close'] &gt; df['Lower_BB'])
+    # Sell Condition: RSI &gt; 60, Short MA &lt; Long MA (Downtrend), and Price below Upper BB
+    sell_condition = (df['RSI'] &gt; 60) &amp; (df['MA5'] &lt; df['MA20']) &amp; (df['Close'] &lt; df['Upper_BB'])
+    # Assign Signals
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Ensure signal Series uses the same index as df (implicitly handled by loc)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on an enhanced strategy:
+    - Traditional RSI for momentum
+    - MA5/MA20 crossover for trend
+    - ATR-based volatility filter
+    """
+    # 1. Traditional RSI Calculation (14 periods)
+    df['Delta'] = df['Close'].diff().fillna(0)
+    df['Up'] = df['Delta'].apply(lambda x: x if x &gt; 0 else 0)
+    df['Down'] = df['Delta'].apply(lambda x: abs(x) if x &lt; 0 else 0)
+    df['RSI'] = 100 - (100 / (1 + df['Up'].rolling(14).mean() / df['Down'].rolling(14).mean()))
+    # 2. MA Crossover
+    df['MA5'] = df['Close'].rolling(window=5).mean()
+    df['MA20'] = df['Close'].rolling(window=20).mean()
+    # 3. ATR for Volatility (14 periods)
+    df['HL'] = df['High'] - df['Low']
+    df['HPC'] = df['High'] - df['Close'].shift(1).fillna(df['High'].shift(1))
+    df['LPC'] = df['Close'].shift(1).fillna(df['Low'].shift(1)) - df['Low']
+    df['TR'] = df[['HL', 'HPC', 'LPC']].max(axis=1)
+    df['ATR'] = df['TR'].rolling(14).mean()
+    # Signal Generation
+    buy_condition = (df['MA5'] &gt; df['MA20']) &amp; (df['RSI'] &lt; 40) &amp; (df['Close'] &gt; df['Close'].shift(1)) &amp; (df['ATR'] &lt; df['ATR'].mean())
+    sell_condition = (df['MA5'] &lt; df['MA20']) &amp; (df['RSI'] &gt; 60) &amp; (df['Close'] &lt; df['Close'].shift(1)) &amp; (df['ATR'] &lt; df['ATR'].mean())
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Assign Signals
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Clean Up (Remove Intermediate Columns)
+    df.drop(columns=['Delta', 'Up', 'Down', 'HL', 'HPC', 'LPC', 'TR'], inplace=True)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on an enhanced strategy:
+    - Traditional RSI for momentum
+    - MA5/MA20 crossover for trend
+    - ATR-based volatility filter
+    """
+    # 1. Traditional RSI Calculation (14 periods)
+    df['Delta'] = df['Close'].diff().fillna(0)
+    df['Up'] = df['Delta'].apply(lambda x: x if x &gt; 0 else 0)
+    df['Down'] = df['Delta'].apply(lambda x: abs(x) if x &lt; 0 else 0)
+    df['RSI'] = 100 - (100 / (1 + df['Up'].rolling(14).mean() / df['Down'].rolling(14).mean()))
+    # 2. MA Crossover
+    df['MA5'] = df['Close'].rolling(window=5).mean()
+    df['MA20'] = df['Close'].rolling(window=20).mean()
+    # 3. ATR for Volatility (14 periods)
+    df['HL'] = df['High'] - df['Low']
+    df['HPC'] = df['High'] - df['Close'].shift(1).fillna(df['High'].shift(1))
+    df['LPC'] = df['Close'].shift(1).fillna(df['Low'].shift(1)) - df['Low']
+    df['TR'] = df[['HL', 'HPC', 'LPC']].max(axis=1)
+    df['ATR'] = df['TR'].rolling(window=14).mean()
+    # Signal Generation
+    buy_condition = (df['MA5'] &gt; df['MA20']) &amp; (df['RSI'] &lt; 40) &amp; (df['Close'] &lt; df['Close'].shift(1)) &amp; (df['ATR'] &lt; df['ATR'].mean())
+    sell_condition = (df['MA5'] &lt; df['MA20']) &amp; (df['RSI'] &gt; 60) &amp; (df['Close'] &gt; df['Close'].shift(1)) &amp; (df['ATR'] &lt; df['ATR'].mean())
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Assign Signals
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Clean Up (Remove Intermediate Columns)
+    df.drop(columns=['Delta', 'Up', 'Down', 'HL', 'HPC', 'LPC', 'TR'], inplace=True)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a refined strategy:
+    - Enhanced RSI for momentum
+    - Volatility-adjusted RSI thresholds
+    - Short-term MA crossover with volatility filter
+    """
+    # 1. **Enhanced RSI Calculation**
+    df['Delta'] = df['Close'].diff().fillna(0)
+    df['Up'] = df['Delta'].apply(lambda x: x if x &gt; 0 else 0)
+    df['Down'] = df['Delta'].apply(lambda x: -x if x &lt; 0 else 0)
+    df['RSI'] = 100 - (100 / (1 + df['Up'].rolling(14).mean() / df['Down'].rolling(14).mean()))
+    # 2. **Volatility-Adjusted RSI Thresholds**
+    # - Calculate recent volatility (std of returns)
+    df['Ret'] = df['Close'].pct_change().fillna(0)
+    df['Volatility'] = df['Ret'].rolling(20).std() * np.sqrt(20)  # Adjust for 20-period volatility
+    # - Dynamically adjust RSI thresholds based on volatility
+    df['Lower_RSI_Threshold'] = 30 + (df['Volatility'] * 10)  # Example adjustment, tune as needed
+    df['Upper_RSI_Threshold'] = 70 - (df['Volatility'] * 10)
+    # Ensure thresholds are within sensible bounds
+    df['Lower_RSI_Threshold'] = df['Lower_RSI_Threshold'].clip(lower=20, upper=40)
+    df['Upper_RSI_Threshold'] = df['Upper_RSI_Threshold'].clip(lower=60, upper=80)
+    # 3. **Short-term MA Crossover with Volatility Filter**
+    df['MA5'] = df['Close'].rolling(5).mean()
+    df['MA20'] = df['Close'].rolling(20).mean()
+    df['Volatility_Filter'] = df['Volatility'] &lt; df['Volatility'].mean()  # Trade during lower volatility
+    # Initialize Signal
+    df['signal'] = 0  # Default to Hold
+    # Buy Condition: MA Crossover UP &amp; RSI below lower threshold &amp; Low Volatility
+    buy_condition = (df['MA5'] &gt; df['MA20']) &amp; (df['RSI'] &lt; df['Lower_RSI_Threshold']) &amp; df['Volatility_Filter']
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    # Sell Condition: MA Crossover DOWN &amp; RSI above upper threshold &amp; Low Volatility
+    sell_condition = (df['MA5'] &lt; df['MA20']) &amp; (df['RSI'] &gt; df['Upper_RSI_Threshold']) &amp; df['Volatility_Filter']
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # **Ensure 'signal' Series has the same index as df**
+    df['signal'] = pd.Series(df['signal'].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a revised intraday trading strategy.
+    Strategy Overview:
+    - **Buy Signal**: When RSI &lt; 60 (indicating not overly bought) AND Short MA crosses above Long MA, 
+                      AND volatility is not excessively high.
+    - **Sell Signal**: When RSI &gt; 40 (indicating not overly sold) AND Short MA crosses below Long MA, 
+                       AND volatility is not excessively high.
+    - **Hold (0)**: Otherwise
+    Parameters:
+    df (DataFrame): Input DataFrame with 'Open', 'High', 'Low', 'Close', 'Volume' columns.
+    Returns:
+    DataFrame: Input DataFrame with an additional 'signal' column.
+    """
+    # Calculate RSI with a 14-period window
+    delta = df['Close'].diff().dropna()
+    up, down = delta.copy(), delta.copy()
+    up[up &lt; 0] = 0
+    down[down &gt; 0] = 0
+    roll_up = up.rolling(window=14).mean()
+    roll_down = down.rolling(window=14).mean().abs()
+    RS = roll_up / roll_down
+    df['RSI'] = 100.0 - (100.0 / (1.0 + RS))
+    # Simple Moving Averages for trend identification
+    df['MA5'] = df['Close'].rolling(window=5).mean()
+    df['MA20'] = df['Close'].rolling(window=20).mean()
+    # Volatility filter using rolling standard deviation
+    df['Volatility'] = df['Close'].rolling(window=20).std()
+    max_volatility_threshold = df['Volatility'].mean() * 1.5  # Adjust as needed
+    # Signal Generation
+    buy_condition = (df['RSI'] &lt; 60) &amp; (df['MA5'] &gt; df['MA20']) &amp; (df['MA5'].shift(1) &lt;= df['MA20'].shift(1)) &amp; (df['Volatility'] &lt; max_volatility_threshold)
+    sell_condition = (df['RSI'] &gt; 40) &amp; (df['MA5'] &lt; df['MA20']) &amp; (df['MA5'].shift(1) &gt;= df['MA20'].shift(1)) &amp; (df['Volatility'] &lt; max_volatility_threshold)
+    # Initialize signal column with Hold (0)
+    df['signal'] = 0
+    # Assign Buy and Sell signals
+    df.loc[buy_condition, 'signal'] = 1
+    df.loc[sell_condition, 'signal'] = -1
+    # Ensure signal Series uses the same index as df
     df['signal'] = pd.Series(df['signal'].values, index=df.index)
     return df</t>
   </si>
@@ -1927,7 +3413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y50"/>
+  <dimension ref="A1:Y137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2021,7 +3507,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -2077,7 +3563,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -2133,7 +3619,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -2189,7 +3675,7 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -2224,10 +3710,10 @@
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -2283,10 +3769,10 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -2351,7 +3837,7 @@
         <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -2386,10 +3872,10 @@
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -2445,7 +3931,7 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -2480,7 +3966,7 @@
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -2515,10 +4001,10 @@
         <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -2574,10 +4060,10 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -2633,7 +4119,7 @@
         <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -2668,7 +4154,7 @@
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15">
         <v>10</v>
@@ -2703,7 +4189,7 @@
         <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F16">
         <v>10</v>
@@ -2738,10 +4224,10 @@
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F17">
         <v>10</v>
@@ -2797,10 +4283,10 @@
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F18">
         <v>10</v>
@@ -2856,10 +4342,10 @@
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="F19">
         <v>10</v>
@@ -2921,10 +4407,10 @@
         <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -2980,10 +4466,10 @@
         <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -3048,7 +4534,7 @@
         <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22">
         <v>10</v>
@@ -3092,7 +4578,7 @@
         <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23">
         <v>10</v>
@@ -3127,7 +4613,7 @@
         <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F24">
         <v>10</v>
@@ -3162,7 +4648,7 @@
         <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F25">
         <v>10</v>
@@ -3206,7 +4692,7 @@
         <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F26">
         <v>10</v>
@@ -3250,7 +4736,7 @@
         <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F27">
         <v>10</v>
@@ -3291,7 +4777,7 @@
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F28">
         <v>10</v>
@@ -3332,7 +4818,7 @@
         <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F29">
         <v>10</v>
@@ -3373,7 +4859,7 @@
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F30">
         <v>10</v>
@@ -3414,10 +4900,10 @@
         <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F31">
         <v>10</v>
@@ -3488,7 +4974,7 @@
         <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F32">
         <v>10</v>
@@ -3529,10 +5015,10 @@
         <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F33">
         <v>10</v>
@@ -3597,10 +5083,10 @@
         <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="F34">
         <v>10</v>
@@ -3671,10 +5157,10 @@
         <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="F35">
         <v>10</v>
@@ -3748,10 +5234,10 @@
         <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="F36">
         <v>10</v>
@@ -3816,10 +5302,10 @@
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F37">
         <v>10</v>
@@ -3881,10 +5367,10 @@
         <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E38" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F38">
         <v>10</v>
@@ -3949,10 +5435,10 @@
         <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F39">
         <v>10</v>
@@ -4017,10 +5503,10 @@
         <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F40">
         <v>10</v>
@@ -4085,10 +5571,10 @@
         <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F41">
         <v>10</v>
@@ -4153,10 +5639,10 @@
         <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E42" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F42">
         <v>10</v>
@@ -4221,10 +5707,10 @@
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F43">
         <v>10</v>
@@ -4289,10 +5775,10 @@
         <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E44" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F44">
         <v>10</v>
@@ -4363,10 +5849,10 @@
         <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F45">
         <v>10</v>
@@ -4440,10 +5926,10 @@
         <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E46" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="F46">
         <v>10</v>
@@ -4517,10 +6003,10 @@
         <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F47">
         <v>10</v>
@@ -4594,10 +6080,10 @@
         <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="F48">
         <v>10</v>
@@ -4671,10 +6157,10 @@
         <v>46</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="F49">
         <v>10</v>
@@ -4739,7 +6225,7 @@
     </row>
     <row r="50" spans="1:25">
       <c r="A50" s="2">
-        <v>45791.83545445222</v>
+        <v>45791.83545445602</v>
       </c>
       <c r="B50" t="s">
         <v>33</v>
@@ -4748,10 +6234,10 @@
         <v>45</v>
       </c>
       <c r="D50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E50" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="F50">
         <v>10</v>
@@ -4811,6 +6297,6627 @@
         <v>20</v>
       </c>
       <c r="Y50">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
+      <c r="A51" s="2">
+        <v>45791.83577328704</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="G51">
+        <v>9</v>
+      </c>
+      <c r="H51">
+        <v>-0.89</v>
+      </c>
+      <c r="I51">
+        <v>-15.3</v>
+      </c>
+      <c r="J51">
+        <v>0.92</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>20</v>
+      </c>
+      <c r="M51">
+        <v>10</v>
+      </c>
+      <c r="N51">
+        <v>10</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>14</v>
+      </c>
+      <c r="U51">
+        <v>14</v>
+      </c>
+      <c r="V51">
+        <v>5</v>
+      </c>
+      <c r="W51">
+        <v>20</v>
+      </c>
+      <c r="X51">
+        <v>20</v>
+      </c>
+      <c r="Y51">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
+      <c r="A52" s="2">
+        <v>45791.83607855324</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <v>9</v>
+      </c>
+      <c r="H52">
+        <v>-0.89</v>
+      </c>
+      <c r="I52">
+        <v>-15.3</v>
+      </c>
+      <c r="J52">
+        <v>0.92</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>20</v>
+      </c>
+      <c r="M52">
+        <v>10</v>
+      </c>
+      <c r="N52">
+        <v>9</v>
+      </c>
+      <c r="O52">
+        <v>-1.97</v>
+      </c>
+      <c r="P52">
+        <v>-9.07</v>
+      </c>
+      <c r="Q52">
+        <v>3.12</v>
+      </c>
+      <c r="R52">
+        <v>7</v>
+      </c>
+      <c r="S52">
+        <v>70</v>
+      </c>
+      <c r="T52">
+        <v>5</v>
+      </c>
+      <c r="U52">
+        <v>20</v>
+      </c>
+      <c r="V52">
+        <v>20</v>
+      </c>
+      <c r="W52">
+        <v>20</v>
+      </c>
+      <c r="X52">
+        <v>20</v>
+      </c>
+      <c r="Y52">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
+      <c r="A53" s="2">
+        <v>45791.83638405093</v>
+      </c>
+      <c r="B53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" t="s">
+        <v>107</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+      <c r="G53">
+        <v>9</v>
+      </c>
+      <c r="H53">
+        <v>-0.89</v>
+      </c>
+      <c r="I53">
+        <v>-15.3</v>
+      </c>
+      <c r="J53">
+        <v>0.92</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>20</v>
+      </c>
+      <c r="M53">
+        <v>10</v>
+      </c>
+      <c r="N53">
+        <v>10</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>14</v>
+      </c>
+      <c r="U53">
+        <v>14</v>
+      </c>
+      <c r="V53">
+        <v>5</v>
+      </c>
+      <c r="W53">
+        <v>20</v>
+      </c>
+      <c r="X53">
+        <v>20</v>
+      </c>
+      <c r="Y53">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
+      <c r="A54" s="2">
+        <v>45791.83670237268</v>
+      </c>
+      <c r="B54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54" t="s">
+        <v>107</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+      <c r="G54">
+        <v>9</v>
+      </c>
+      <c r="H54">
+        <v>-0.89</v>
+      </c>
+      <c r="I54">
+        <v>-15.3</v>
+      </c>
+      <c r="J54">
+        <v>0.92</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <v>20</v>
+      </c>
+      <c r="M54">
+        <v>10</v>
+      </c>
+      <c r="N54">
+        <v>10</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>14</v>
+      </c>
+      <c r="U54">
+        <v>14</v>
+      </c>
+      <c r="V54">
+        <v>5</v>
+      </c>
+      <c r="W54">
+        <v>20</v>
+      </c>
+      <c r="X54">
+        <v>20</v>
+      </c>
+      <c r="Y54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
+      <c r="A55" s="2">
+        <v>45791.8370259838</v>
+      </c>
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55">
+        <v>10</v>
+      </c>
+      <c r="G55">
+        <v>9</v>
+      </c>
+      <c r="H55">
+        <v>-0.89</v>
+      </c>
+      <c r="I55">
+        <v>-15.3</v>
+      </c>
+      <c r="J55">
+        <v>0.92</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>20</v>
+      </c>
+      <c r="M55">
+        <v>10</v>
+      </c>
+      <c r="N55">
+        <v>10</v>
+      </c>
+      <c r="O55">
+        <v>0.27</v>
+      </c>
+      <c r="P55">
+        <v>15.02</v>
+      </c>
+      <c r="Q55">
+        <v>0.03</v>
+      </c>
+      <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
+        <v>20</v>
+      </c>
+      <c r="T55">
+        <v>14</v>
+      </c>
+      <c r="U55">
+        <v>14</v>
+      </c>
+      <c r="V55">
+        <v>5</v>
+      </c>
+      <c r="W55">
+        <v>20</v>
+      </c>
+      <c r="X55">
+        <v>20</v>
+      </c>
+      <c r="Y55">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
+      <c r="A56" s="2">
+        <v>45791.83924386574</v>
+      </c>
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56">
+        <v>9</v>
+      </c>
+      <c r="H56">
+        <v>-0.89</v>
+      </c>
+      <c r="I56">
+        <v>-15.3</v>
+      </c>
+      <c r="J56">
+        <v>0.92</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>20</v>
+      </c>
+      <c r="M56">
+        <v>10</v>
+      </c>
+      <c r="N56">
+        <v>9</v>
+      </c>
+      <c r="O56">
+        <v>-0.4</v>
+      </c>
+      <c r="P56">
+        <v>5.74</v>
+      </c>
+      <c r="Q56">
+        <v>0.28</v>
+      </c>
+      <c r="R56">
+        <v>6</v>
+      </c>
+      <c r="S56">
+        <v>60</v>
+      </c>
+      <c r="T56">
+        <v>14</v>
+      </c>
+      <c r="U56">
+        <v>14</v>
+      </c>
+      <c r="V56">
+        <v>5</v>
+      </c>
+      <c r="W56">
+        <v>20</v>
+      </c>
+      <c r="X56">
+        <v>20</v>
+      </c>
+      <c r="Y56">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
+      <c r="A57" s="2">
+        <v>45791.83956162037</v>
+      </c>
+      <c r="B57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57">
+        <v>9</v>
+      </c>
+      <c r="H57">
+        <v>-0.89</v>
+      </c>
+      <c r="I57">
+        <v>-15.3</v>
+      </c>
+      <c r="J57">
+        <v>0.92</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>20</v>
+      </c>
+      <c r="M57">
+        <v>10</v>
+      </c>
+      <c r="N57">
+        <v>9</v>
+      </c>
+      <c r="O57">
+        <v>-0.4</v>
+      </c>
+      <c r="P57">
+        <v>5.74</v>
+      </c>
+      <c r="Q57">
+        <v>0.28</v>
+      </c>
+      <c r="R57">
+        <v>6</v>
+      </c>
+      <c r="S57">
+        <v>60</v>
+      </c>
+      <c r="T57">
+        <v>14</v>
+      </c>
+      <c r="U57">
+        <v>14</v>
+      </c>
+      <c r="V57">
+        <v>5</v>
+      </c>
+      <c r="W57">
+        <v>20</v>
+      </c>
+      <c r="X57">
+        <v>20</v>
+      </c>
+      <c r="Y57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="A58" s="2">
+        <v>45791.83987743055</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" t="s">
+        <v>109</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58">
+        <v>9</v>
+      </c>
+      <c r="H58">
+        <v>-0.89</v>
+      </c>
+      <c r="I58">
+        <v>-15.3</v>
+      </c>
+      <c r="J58">
+        <v>0.92</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>20</v>
+      </c>
+      <c r="M58">
+        <v>10</v>
+      </c>
+      <c r="N58">
+        <v>10</v>
+      </c>
+      <c r="O58">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="P58">
+        <v>15.03</v>
+      </c>
+      <c r="Q58">
+        <v>0.03</v>
+      </c>
+      <c r="R58">
+        <v>4</v>
+      </c>
+      <c r="S58">
+        <v>40</v>
+      </c>
+      <c r="T58">
+        <v>14</v>
+      </c>
+      <c r="U58">
+        <v>14</v>
+      </c>
+      <c r="V58">
+        <v>5</v>
+      </c>
+      <c r="W58">
+        <v>20</v>
+      </c>
+      <c r="X58">
+        <v>20</v>
+      </c>
+      <c r="Y58">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
+      <c r="A59" s="2">
+        <v>45791.84019070602</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" t="s">
+        <v>106</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59">
+        <v>9</v>
+      </c>
+      <c r="H59">
+        <v>-0.89</v>
+      </c>
+      <c r="I59">
+        <v>-15.3</v>
+      </c>
+      <c r="J59">
+        <v>0.92</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>20</v>
+      </c>
+      <c r="M59">
+        <v>10</v>
+      </c>
+      <c r="N59">
+        <v>9</v>
+      </c>
+      <c r="O59">
+        <v>-0.4</v>
+      </c>
+      <c r="P59">
+        <v>5.74</v>
+      </c>
+      <c r="Q59">
+        <v>0.28</v>
+      </c>
+      <c r="R59">
+        <v>6</v>
+      </c>
+      <c r="S59">
+        <v>60</v>
+      </c>
+      <c r="T59">
+        <v>14</v>
+      </c>
+      <c r="U59">
+        <v>14</v>
+      </c>
+      <c r="V59">
+        <v>5</v>
+      </c>
+      <c r="W59">
+        <v>20</v>
+      </c>
+      <c r="X59">
+        <v>20</v>
+      </c>
+      <c r="Y59">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
+      <c r="A60" s="2">
+        <v>45791.84050649306</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" t="s">
+        <v>106</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60">
+        <v>9</v>
+      </c>
+      <c r="H60">
+        <v>-0.89</v>
+      </c>
+      <c r="I60">
+        <v>-15.3</v>
+      </c>
+      <c r="J60">
+        <v>0.92</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>20</v>
+      </c>
+      <c r="M60">
+        <v>10</v>
+      </c>
+      <c r="N60">
+        <v>9</v>
+      </c>
+      <c r="O60">
+        <v>-0.4</v>
+      </c>
+      <c r="P60">
+        <v>5.74</v>
+      </c>
+      <c r="Q60">
+        <v>0.28</v>
+      </c>
+      <c r="R60">
+        <v>6</v>
+      </c>
+      <c r="S60">
+        <v>60</v>
+      </c>
+      <c r="T60">
+        <v>14</v>
+      </c>
+      <c r="U60">
+        <v>14</v>
+      </c>
+      <c r="V60">
+        <v>5</v>
+      </c>
+      <c r="W60">
+        <v>20</v>
+      </c>
+      <c r="X60">
+        <v>20</v>
+      </c>
+      <c r="Y60">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
+      <c r="A61" s="2">
+        <v>45791.84082215278</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" t="s">
+        <v>45</v>
+      </c>
+      <c r="D61" t="s">
+        <v>48</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61">
+        <v>9</v>
+      </c>
+      <c r="H61">
+        <v>-0.89</v>
+      </c>
+      <c r="I61">
+        <v>-15.3</v>
+      </c>
+      <c r="J61">
+        <v>0.92</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61">
+        <v>20</v>
+      </c>
+      <c r="W61">
+        <v>20</v>
+      </c>
+      <c r="X61">
+        <v>20</v>
+      </c>
+      <c r="Y61">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
+      <c r="A62" s="2">
+        <v>45791.84113321759</v>
+      </c>
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62" t="s">
+        <v>110</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>9</v>
+      </c>
+      <c r="H62">
+        <v>-0.89</v>
+      </c>
+      <c r="I62">
+        <v>-15.3</v>
+      </c>
+      <c r="J62">
+        <v>0.92</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>20</v>
+      </c>
+      <c r="M62">
+        <v>10</v>
+      </c>
+      <c r="N62">
+        <v>10</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>5</v>
+      </c>
+      <c r="U62">
+        <v>20</v>
+      </c>
+      <c r="V62">
+        <v>14</v>
+      </c>
+      <c r="W62">
+        <v>20</v>
+      </c>
+      <c r="X62">
+        <v>20</v>
+      </c>
+      <c r="Y62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
+      <c r="A63" s="2">
+        <v>45791.84143818287</v>
+      </c>
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" t="s">
+        <v>45</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" t="s">
+        <v>106</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63">
+        <v>9</v>
+      </c>
+      <c r="H63">
+        <v>-0.89</v>
+      </c>
+      <c r="I63">
+        <v>-15.3</v>
+      </c>
+      <c r="J63">
+        <v>0.92</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <v>20</v>
+      </c>
+      <c r="M63">
+        <v>10</v>
+      </c>
+      <c r="N63">
+        <v>9</v>
+      </c>
+      <c r="O63">
+        <v>-0.4</v>
+      </c>
+      <c r="P63">
+        <v>5.74</v>
+      </c>
+      <c r="Q63">
+        <v>0.28</v>
+      </c>
+      <c r="R63">
+        <v>6</v>
+      </c>
+      <c r="S63">
+        <v>60</v>
+      </c>
+      <c r="T63">
+        <v>14</v>
+      </c>
+      <c r="U63">
+        <v>14</v>
+      </c>
+      <c r="V63">
+        <v>5</v>
+      </c>
+      <c r="W63">
+        <v>20</v>
+      </c>
+      <c r="X63">
+        <v>20</v>
+      </c>
+      <c r="Y63">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
+      <c r="A64" s="2">
+        <v>45791.84175380787</v>
+      </c>
+      <c r="B64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" t="s">
+        <v>106</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64">
+        <v>9</v>
+      </c>
+      <c r="H64">
+        <v>-0.89</v>
+      </c>
+      <c r="I64">
+        <v>-15.3</v>
+      </c>
+      <c r="J64">
+        <v>0.92</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>20</v>
+      </c>
+      <c r="M64">
+        <v>10</v>
+      </c>
+      <c r="N64">
+        <v>9</v>
+      </c>
+      <c r="O64">
+        <v>-0.4</v>
+      </c>
+      <c r="P64">
+        <v>5.74</v>
+      </c>
+      <c r="Q64">
+        <v>0.28</v>
+      </c>
+      <c r="R64">
+        <v>6</v>
+      </c>
+      <c r="S64">
+        <v>60</v>
+      </c>
+      <c r="T64">
+        <v>14</v>
+      </c>
+      <c r="U64">
+        <v>14</v>
+      </c>
+      <c r="V64">
+        <v>5</v>
+      </c>
+      <c r="W64">
+        <v>20</v>
+      </c>
+      <c r="X64">
+        <v>20</v>
+      </c>
+      <c r="Y64">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
+      <c r="A65" s="2">
+        <v>45791.84206902778</v>
+      </c>
+      <c r="B65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" t="s">
+        <v>111</v>
+      </c>
+      <c r="F65">
+        <v>10</v>
+      </c>
+      <c r="G65">
+        <v>9</v>
+      </c>
+      <c r="H65">
+        <v>-0.89</v>
+      </c>
+      <c r="I65">
+        <v>-15.3</v>
+      </c>
+      <c r="J65">
+        <v>0.92</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>20</v>
+      </c>
+      <c r="M65">
+        <v>10</v>
+      </c>
+      <c r="N65">
+        <v>9</v>
+      </c>
+      <c r="O65">
+        <v>-1.03</v>
+      </c>
+      <c r="P65">
+        <v>-20.37</v>
+      </c>
+      <c r="Q65">
+        <v>0.53</v>
+      </c>
+      <c r="R65">
+        <v>5</v>
+      </c>
+      <c r="S65">
+        <v>50</v>
+      </c>
+      <c r="T65">
+        <v>14</v>
+      </c>
+      <c r="U65">
+        <v>14</v>
+      </c>
+      <c r="V65">
+        <v>5</v>
+      </c>
+      <c r="W65">
+        <v>20</v>
+      </c>
+      <c r="X65">
+        <v>20</v>
+      </c>
+      <c r="Y65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
+      <c r="A66" s="2">
+        <v>45791.84239056713</v>
+      </c>
+      <c r="B66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" t="s">
+        <v>70</v>
+      </c>
+      <c r="E66" t="s">
+        <v>107</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+      <c r="G66">
+        <v>9</v>
+      </c>
+      <c r="H66">
+        <v>-0.89</v>
+      </c>
+      <c r="I66">
+        <v>-15.3</v>
+      </c>
+      <c r="J66">
+        <v>0.92</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>20</v>
+      </c>
+      <c r="M66">
+        <v>10</v>
+      </c>
+      <c r="N66">
+        <v>10</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>14</v>
+      </c>
+      <c r="U66">
+        <v>14</v>
+      </c>
+      <c r="V66">
+        <v>5</v>
+      </c>
+      <c r="W66">
+        <v>20</v>
+      </c>
+      <c r="X66">
+        <v>20</v>
+      </c>
+      <c r="Y66">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
+      <c r="A67" s="2">
+        <v>45791.84272076389</v>
+      </c>
+      <c r="B67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" t="s">
+        <v>45</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" t="s">
+        <v>112</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="G67">
+        <v>9</v>
+      </c>
+      <c r="H67">
+        <v>-0.89</v>
+      </c>
+      <c r="I67">
+        <v>-15.3</v>
+      </c>
+      <c r="J67">
+        <v>0.92</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>20</v>
+      </c>
+      <c r="M67">
+        <v>10</v>
+      </c>
+      <c r="N67">
+        <v>10</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>14</v>
+      </c>
+      <c r="U67">
+        <v>14</v>
+      </c>
+      <c r="V67">
+        <v>5</v>
+      </c>
+      <c r="W67">
+        <v>20</v>
+      </c>
+      <c r="X67">
+        <v>20</v>
+      </c>
+      <c r="Y67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
+      <c r="A68" s="2">
+        <v>45791.84301851852</v>
+      </c>
+      <c r="B68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" t="s">
+        <v>45</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" t="s">
+        <v>106</v>
+      </c>
+      <c r="F68">
+        <v>10</v>
+      </c>
+      <c r="G68">
+        <v>9</v>
+      </c>
+      <c r="H68">
+        <v>-0.89</v>
+      </c>
+      <c r="I68">
+        <v>-15.3</v>
+      </c>
+      <c r="J68">
+        <v>0.92</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <v>20</v>
+      </c>
+      <c r="M68">
+        <v>10</v>
+      </c>
+      <c r="N68">
+        <v>9</v>
+      </c>
+      <c r="O68">
+        <v>-0.4</v>
+      </c>
+      <c r="P68">
+        <v>5.74</v>
+      </c>
+      <c r="Q68">
+        <v>0.28</v>
+      </c>
+      <c r="R68">
+        <v>6</v>
+      </c>
+      <c r="S68">
+        <v>60</v>
+      </c>
+      <c r="T68">
+        <v>14</v>
+      </c>
+      <c r="U68">
+        <v>14</v>
+      </c>
+      <c r="V68">
+        <v>5</v>
+      </c>
+      <c r="W68">
+        <v>20</v>
+      </c>
+      <c r="X68">
+        <v>20</v>
+      </c>
+      <c r="Y68">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
+      <c r="A69" s="2">
+        <v>45791.84333740741</v>
+      </c>
+      <c r="B69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" t="s">
+        <v>45</v>
+      </c>
+      <c r="D69" t="s">
+        <v>70</v>
+      </c>
+      <c r="E69" t="s">
+        <v>107</v>
+      </c>
+      <c r="F69">
+        <v>10</v>
+      </c>
+      <c r="G69">
+        <v>9</v>
+      </c>
+      <c r="H69">
+        <v>-0.89</v>
+      </c>
+      <c r="I69">
+        <v>-15.3</v>
+      </c>
+      <c r="J69">
+        <v>0.92</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>20</v>
+      </c>
+      <c r="M69">
+        <v>10</v>
+      </c>
+      <c r="N69">
+        <v>10</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>14</v>
+      </c>
+      <c r="U69">
+        <v>14</v>
+      </c>
+      <c r="V69">
+        <v>5</v>
+      </c>
+      <c r="W69">
+        <v>20</v>
+      </c>
+      <c r="X69">
+        <v>20</v>
+      </c>
+      <c r="Y69">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
+      <c r="A70" s="2">
+        <v>45791.84365506945</v>
+      </c>
+      <c r="B70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" t="s">
+        <v>68</v>
+      </c>
+      <c r="E70" t="s">
+        <v>105</v>
+      </c>
+      <c r="F70">
+        <v>10</v>
+      </c>
+      <c r="G70">
+        <v>9</v>
+      </c>
+      <c r="H70">
+        <v>-0.89</v>
+      </c>
+      <c r="I70">
+        <v>-15.3</v>
+      </c>
+      <c r="J70">
+        <v>0.92</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>20</v>
+      </c>
+      <c r="M70">
+        <v>10</v>
+      </c>
+      <c r="N70">
+        <v>9</v>
+      </c>
+      <c r="O70">
+        <v>-1.97</v>
+      </c>
+      <c r="P70">
+        <v>-9.07</v>
+      </c>
+      <c r="Q70">
+        <v>3.12</v>
+      </c>
+      <c r="R70">
+        <v>7</v>
+      </c>
+      <c r="S70">
+        <v>70</v>
+      </c>
+      <c r="T70">
+        <v>5</v>
+      </c>
+      <c r="U70">
+        <v>20</v>
+      </c>
+      <c r="V70">
+        <v>20</v>
+      </c>
+      <c r="W70">
+        <v>20</v>
+      </c>
+      <c r="X70">
+        <v>20</v>
+      </c>
+      <c r="Y70">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25">
+      <c r="A71" s="2">
+        <v>45791.84396253472</v>
+      </c>
+      <c r="B71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" t="s">
+        <v>47</v>
+      </c>
+      <c r="D71" t="s">
+        <v>73</v>
+      </c>
+      <c r="E71" t="s">
+        <v>113</v>
+      </c>
+      <c r="F71">
+        <v>10</v>
+      </c>
+      <c r="G71">
+        <v>9</v>
+      </c>
+      <c r="H71">
+        <v>-0.89</v>
+      </c>
+      <c r="I71">
+        <v>-15.3</v>
+      </c>
+      <c r="J71">
+        <v>0.92</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>20</v>
+      </c>
+      <c r="M71">
+        <v>10</v>
+      </c>
+      <c r="N71">
+        <v>9</v>
+      </c>
+      <c r="O71">
+        <v>-0.2</v>
+      </c>
+      <c r="P71">
+        <v>15.87</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <v>20</v>
+      </c>
+      <c r="T71">
+        <v>14</v>
+      </c>
+      <c r="U71">
+        <v>14</v>
+      </c>
+      <c r="V71">
+        <v>5</v>
+      </c>
+      <c r="W71">
+        <v>20</v>
+      </c>
+      <c r="X71">
+        <v>20</v>
+      </c>
+      <c r="Y71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
+      <c r="A72" s="2">
+        <v>45791.84426681713</v>
+      </c>
+      <c r="B72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" t="s">
+        <v>114</v>
+      </c>
+      <c r="F72">
+        <v>10</v>
+      </c>
+      <c r="G72">
+        <v>9</v>
+      </c>
+      <c r="H72">
+        <v>-0.89</v>
+      </c>
+      <c r="I72">
+        <v>-15.3</v>
+      </c>
+      <c r="J72">
+        <v>0.92</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>20</v>
+      </c>
+      <c r="M72">
+        <v>10</v>
+      </c>
+      <c r="N72">
+        <v>9</v>
+      </c>
+      <c r="O72">
+        <v>-0.4</v>
+      </c>
+      <c r="P72">
+        <v>5.74</v>
+      </c>
+      <c r="Q72">
+        <v>0.28</v>
+      </c>
+      <c r="R72">
+        <v>6</v>
+      </c>
+      <c r="S72">
+        <v>60</v>
+      </c>
+      <c r="T72">
+        <v>14</v>
+      </c>
+      <c r="U72">
+        <v>14</v>
+      </c>
+      <c r="V72">
+        <v>5</v>
+      </c>
+      <c r="W72">
+        <v>20</v>
+      </c>
+      <c r="X72">
+        <v>20</v>
+      </c>
+      <c r="Y72">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25">
+      <c r="A73" s="2">
+        <v>45791.84457972222</v>
+      </c>
+      <c r="B73" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" t="s">
+        <v>106</v>
+      </c>
+      <c r="F73">
+        <v>10</v>
+      </c>
+      <c r="G73">
+        <v>9</v>
+      </c>
+      <c r="H73">
+        <v>-0.89</v>
+      </c>
+      <c r="I73">
+        <v>-15.3</v>
+      </c>
+      <c r="J73">
+        <v>0.92</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>20</v>
+      </c>
+      <c r="M73">
+        <v>10</v>
+      </c>
+      <c r="N73">
+        <v>9</v>
+      </c>
+      <c r="O73">
+        <v>-0.4</v>
+      </c>
+      <c r="P73">
+        <v>5.74</v>
+      </c>
+      <c r="Q73">
+        <v>0.28</v>
+      </c>
+      <c r="R73">
+        <v>6</v>
+      </c>
+      <c r="S73">
+        <v>60</v>
+      </c>
+      <c r="T73">
+        <v>14</v>
+      </c>
+      <c r="U73">
+        <v>14</v>
+      </c>
+      <c r="V73">
+        <v>5</v>
+      </c>
+      <c r="W73">
+        <v>20</v>
+      </c>
+      <c r="X73">
+        <v>20</v>
+      </c>
+      <c r="Y73">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25">
+      <c r="A74" s="2">
+        <v>45791.84489846065</v>
+      </c>
+      <c r="B74" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" t="s">
+        <v>70</v>
+      </c>
+      <c r="E74" t="s">
+        <v>107</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+      <c r="G74">
+        <v>9</v>
+      </c>
+      <c r="H74">
+        <v>-0.89</v>
+      </c>
+      <c r="I74">
+        <v>-15.3</v>
+      </c>
+      <c r="J74">
+        <v>0.92</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>20</v>
+      </c>
+      <c r="M74">
+        <v>10</v>
+      </c>
+      <c r="N74">
+        <v>10</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>14</v>
+      </c>
+      <c r="U74">
+        <v>14</v>
+      </c>
+      <c r="V74">
+        <v>5</v>
+      </c>
+      <c r="W74">
+        <v>20</v>
+      </c>
+      <c r="X74">
+        <v>20</v>
+      </c>
+      <c r="Y74">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
+      <c r="A75" s="2">
+        <v>45791.84521165509</v>
+      </c>
+      <c r="B75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" t="s">
+        <v>45</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" t="s">
+        <v>106</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75">
+        <v>9</v>
+      </c>
+      <c r="H75">
+        <v>-0.89</v>
+      </c>
+      <c r="I75">
+        <v>-15.3</v>
+      </c>
+      <c r="J75">
+        <v>0.92</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>20</v>
+      </c>
+      <c r="M75">
+        <v>10</v>
+      </c>
+      <c r="N75">
+        <v>9</v>
+      </c>
+      <c r="O75">
+        <v>-0.4</v>
+      </c>
+      <c r="P75">
+        <v>5.74</v>
+      </c>
+      <c r="Q75">
+        <v>0.28</v>
+      </c>
+      <c r="R75">
+        <v>6</v>
+      </c>
+      <c r="S75">
+        <v>60</v>
+      </c>
+      <c r="T75">
+        <v>14</v>
+      </c>
+      <c r="U75">
+        <v>14</v>
+      </c>
+      <c r="V75">
+        <v>5</v>
+      </c>
+      <c r="W75">
+        <v>20</v>
+      </c>
+      <c r="X75">
+        <v>20</v>
+      </c>
+      <c r="Y75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25">
+      <c r="A76" s="2">
+        <v>45791.84553090278</v>
+      </c>
+      <c r="B76" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" t="s">
+        <v>45</v>
+      </c>
+      <c r="D76" t="s">
+        <v>48</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76">
+        <v>9</v>
+      </c>
+      <c r="H76">
+        <v>-0.89</v>
+      </c>
+      <c r="I76">
+        <v>-15.3</v>
+      </c>
+      <c r="J76">
+        <v>0.92</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+      <c r="L76">
+        <v>20</v>
+      </c>
+      <c r="W76">
+        <v>20</v>
+      </c>
+      <c r="X76">
+        <v>20</v>
+      </c>
+      <c r="Y76">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25">
+      <c r="A77" s="2">
+        <v>45791.84582035879</v>
+      </c>
+      <c r="B77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" t="s">
+        <v>47</v>
+      </c>
+      <c r="D77" t="s">
+        <v>71</v>
+      </c>
+      <c r="E77" t="s">
+        <v>115</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77">
+        <v>9</v>
+      </c>
+      <c r="H77">
+        <v>-0.89</v>
+      </c>
+      <c r="I77">
+        <v>-15.3</v>
+      </c>
+      <c r="J77">
+        <v>0.92</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <v>20</v>
+      </c>
+      <c r="M77">
+        <v>10</v>
+      </c>
+      <c r="N77">
+        <v>9</v>
+      </c>
+      <c r="O77">
+        <v>-1.71</v>
+      </c>
+      <c r="P77">
+        <v>-7.01</v>
+      </c>
+      <c r="Q77">
+        <v>2.58</v>
+      </c>
+      <c r="R77">
+        <v>10</v>
+      </c>
+      <c r="S77">
+        <v>100</v>
+      </c>
+      <c r="T77">
+        <v>5</v>
+      </c>
+      <c r="U77">
+        <v>20</v>
+      </c>
+      <c r="V77">
+        <v>14</v>
+      </c>
+      <c r="W77">
+        <v>20</v>
+      </c>
+      <c r="X77">
+        <v>20</v>
+      </c>
+      <c r="Y77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25">
+      <c r="A78" s="2">
+        <v>45791.84640546297</v>
+      </c>
+      <c r="B78" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" t="s">
+        <v>45</v>
+      </c>
+      <c r="D78" t="s">
+        <v>74</v>
+      </c>
+      <c r="E78" t="s">
+        <v>116</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78">
+        <v>9</v>
+      </c>
+      <c r="H78">
+        <v>-0.89</v>
+      </c>
+      <c r="I78">
+        <v>-15.3</v>
+      </c>
+      <c r="J78">
+        <v>0.92</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>20</v>
+      </c>
+      <c r="M78">
+        <v>10</v>
+      </c>
+      <c r="N78">
+        <v>10</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>14</v>
+      </c>
+      <c r="U78">
+        <v>14</v>
+      </c>
+      <c r="V78">
+        <v>5</v>
+      </c>
+      <c r="W78">
+        <v>20</v>
+      </c>
+      <c r="X78">
+        <v>20</v>
+      </c>
+      <c r="Y78">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25">
+      <c r="A79" s="2">
+        <v>45791.84671291667</v>
+      </c>
+      <c r="B79" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" t="s">
+        <v>45</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" t="s">
+        <v>106</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
+      </c>
+      <c r="G79">
+        <v>9</v>
+      </c>
+      <c r="H79">
+        <v>-0.89</v>
+      </c>
+      <c r="I79">
+        <v>-15.3</v>
+      </c>
+      <c r="J79">
+        <v>0.92</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <v>20</v>
+      </c>
+      <c r="M79">
+        <v>10</v>
+      </c>
+      <c r="N79">
+        <v>9</v>
+      </c>
+      <c r="O79">
+        <v>-0.4</v>
+      </c>
+      <c r="P79">
+        <v>5.74</v>
+      </c>
+      <c r="Q79">
+        <v>0.28</v>
+      </c>
+      <c r="R79">
+        <v>6</v>
+      </c>
+      <c r="S79">
+        <v>60</v>
+      </c>
+      <c r="T79">
+        <v>14</v>
+      </c>
+      <c r="U79">
+        <v>14</v>
+      </c>
+      <c r="V79">
+        <v>5</v>
+      </c>
+      <c r="W79">
+        <v>20</v>
+      </c>
+      <c r="X79">
+        <v>20</v>
+      </c>
+      <c r="Y79">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25">
+      <c r="A80" s="2">
+        <v>45791.84703327547</v>
+      </c>
+      <c r="B80" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" t="s">
+        <v>45</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" t="s">
+        <v>117</v>
+      </c>
+      <c r="F80">
+        <v>10</v>
+      </c>
+      <c r="G80">
+        <v>9</v>
+      </c>
+      <c r="H80">
+        <v>-0.89</v>
+      </c>
+      <c r="I80">
+        <v>-15.3</v>
+      </c>
+      <c r="J80">
+        <v>0.92</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <v>20</v>
+      </c>
+      <c r="M80">
+        <v>10</v>
+      </c>
+      <c r="N80">
+        <v>9</v>
+      </c>
+      <c r="O80">
+        <v>-0.4</v>
+      </c>
+      <c r="P80">
+        <v>5.74</v>
+      </c>
+      <c r="Q80">
+        <v>0.28</v>
+      </c>
+      <c r="R80">
+        <v>6</v>
+      </c>
+      <c r="S80">
+        <v>60</v>
+      </c>
+      <c r="T80">
+        <v>14</v>
+      </c>
+      <c r="U80">
+        <v>14</v>
+      </c>
+      <c r="V80">
+        <v>5</v>
+      </c>
+      <c r="W80">
+        <v>20</v>
+      </c>
+      <c r="X80">
+        <v>20</v>
+      </c>
+      <c r="Y80">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25">
+      <c r="A81" s="2">
+        <v>45791.84735321759</v>
+      </c>
+      <c r="B81" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" t="s">
+        <v>46</v>
+      </c>
+      <c r="D81" t="s">
+        <v>68</v>
+      </c>
+      <c r="E81" t="s">
+        <v>105</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="G81">
+        <v>9</v>
+      </c>
+      <c r="H81">
+        <v>-0.89</v>
+      </c>
+      <c r="I81">
+        <v>-15.3</v>
+      </c>
+      <c r="J81">
+        <v>0.92</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <v>20</v>
+      </c>
+      <c r="M81">
+        <v>10</v>
+      </c>
+      <c r="N81">
+        <v>9</v>
+      </c>
+      <c r="O81">
+        <v>-1.97</v>
+      </c>
+      <c r="P81">
+        <v>-9.07</v>
+      </c>
+      <c r="Q81">
+        <v>3.12</v>
+      </c>
+      <c r="R81">
+        <v>7</v>
+      </c>
+      <c r="S81">
+        <v>70</v>
+      </c>
+      <c r="T81">
+        <v>5</v>
+      </c>
+      <c r="U81">
+        <v>20</v>
+      </c>
+      <c r="V81">
+        <v>20</v>
+      </c>
+      <c r="W81">
+        <v>20</v>
+      </c>
+      <c r="X81">
+        <v>20</v>
+      </c>
+      <c r="Y81">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25">
+      <c r="A82" s="2">
+        <v>45791.84766226852</v>
+      </c>
+      <c r="B82" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" t="s">
+        <v>47</v>
+      </c>
+      <c r="D82" t="s">
+        <v>73</v>
+      </c>
+      <c r="E82" t="s">
+        <v>113</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="G82">
+        <v>9</v>
+      </c>
+      <c r="H82">
+        <v>-0.89</v>
+      </c>
+      <c r="I82">
+        <v>-15.3</v>
+      </c>
+      <c r="J82">
+        <v>0.92</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <v>20</v>
+      </c>
+      <c r="M82">
+        <v>10</v>
+      </c>
+      <c r="N82">
+        <v>9</v>
+      </c>
+      <c r="O82">
+        <v>-0.2</v>
+      </c>
+      <c r="P82">
+        <v>15.87</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>2</v>
+      </c>
+      <c r="S82">
+        <v>20</v>
+      </c>
+      <c r="T82">
+        <v>14</v>
+      </c>
+      <c r="U82">
+        <v>14</v>
+      </c>
+      <c r="V82">
+        <v>5</v>
+      </c>
+      <c r="W82">
+        <v>20</v>
+      </c>
+      <c r="X82">
+        <v>20</v>
+      </c>
+      <c r="Y82">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25">
+      <c r="A83" s="2">
+        <v>45791.84796722222</v>
+      </c>
+      <c r="B83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" t="s">
+        <v>47</v>
+      </c>
+      <c r="D83" t="s">
+        <v>73</v>
+      </c>
+      <c r="E83" t="s">
+        <v>113</v>
+      </c>
+      <c r="F83">
+        <v>10</v>
+      </c>
+      <c r="G83">
+        <v>9</v>
+      </c>
+      <c r="H83">
+        <v>-0.89</v>
+      </c>
+      <c r="I83">
+        <v>-15.3</v>
+      </c>
+      <c r="J83">
+        <v>0.92</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
+      <c r="L83">
+        <v>20</v>
+      </c>
+      <c r="M83">
+        <v>10</v>
+      </c>
+      <c r="N83">
+        <v>9</v>
+      </c>
+      <c r="O83">
+        <v>-0.2</v>
+      </c>
+      <c r="P83">
+        <v>15.87</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>20</v>
+      </c>
+      <c r="T83">
+        <v>14</v>
+      </c>
+      <c r="U83">
+        <v>14</v>
+      </c>
+      <c r="V83">
+        <v>5</v>
+      </c>
+      <c r="W83">
+        <v>20</v>
+      </c>
+      <c r="X83">
+        <v>20</v>
+      </c>
+      <c r="Y83">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25">
+      <c r="A84" s="2">
+        <v>45791.84827299768</v>
+      </c>
+      <c r="B84" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84" t="s">
+        <v>45</v>
+      </c>
+      <c r="D84" t="s">
+        <v>70</v>
+      </c>
+      <c r="E84" t="s">
+        <v>118</v>
+      </c>
+      <c r="F84">
+        <v>10</v>
+      </c>
+      <c r="G84">
+        <v>9</v>
+      </c>
+      <c r="H84">
+        <v>-0.89</v>
+      </c>
+      <c r="I84">
+        <v>-15.3</v>
+      </c>
+      <c r="J84">
+        <v>0.92</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>20</v>
+      </c>
+      <c r="M84">
+        <v>10</v>
+      </c>
+      <c r="N84">
+        <v>10</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>14</v>
+      </c>
+      <c r="U84">
+        <v>14</v>
+      </c>
+      <c r="V84">
+        <v>5</v>
+      </c>
+      <c r="W84">
+        <v>20</v>
+      </c>
+      <c r="X84">
+        <v>20</v>
+      </c>
+      <c r="Y84">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25">
+      <c r="A85" s="2">
+        <v>45791.84857759259</v>
+      </c>
+      <c r="B85" t="s">
+        <v>33</v>
+      </c>
+      <c r="C85" t="s">
+        <v>46</v>
+      </c>
+      <c r="D85" t="s">
+        <v>68</v>
+      </c>
+      <c r="E85" t="s">
+        <v>105</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+      <c r="G85">
+        <v>9</v>
+      </c>
+      <c r="H85">
+        <v>-0.89</v>
+      </c>
+      <c r="I85">
+        <v>-15.3</v>
+      </c>
+      <c r="J85">
+        <v>0.92</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>20</v>
+      </c>
+      <c r="M85">
+        <v>10</v>
+      </c>
+      <c r="N85">
+        <v>9</v>
+      </c>
+      <c r="O85">
+        <v>-1.97</v>
+      </c>
+      <c r="P85">
+        <v>-9.07</v>
+      </c>
+      <c r="Q85">
+        <v>3.12</v>
+      </c>
+      <c r="R85">
+        <v>7</v>
+      </c>
+      <c r="S85">
+        <v>70</v>
+      </c>
+      <c r="T85">
+        <v>5</v>
+      </c>
+      <c r="U85">
+        <v>20</v>
+      </c>
+      <c r="V85">
+        <v>20</v>
+      </c>
+      <c r="W85">
+        <v>20</v>
+      </c>
+      <c r="X85">
+        <v>20</v>
+      </c>
+      <c r="Y85">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25">
+      <c r="A86" s="2">
+        <v>45791.84888490741</v>
+      </c>
+      <c r="B86" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86" t="s">
+        <v>46</v>
+      </c>
+      <c r="D86" t="s">
+        <v>68</v>
+      </c>
+      <c r="E86" t="s">
+        <v>119</v>
+      </c>
+      <c r="F86">
+        <v>10</v>
+      </c>
+      <c r="G86">
+        <v>9</v>
+      </c>
+      <c r="H86">
+        <v>-0.89</v>
+      </c>
+      <c r="I86">
+        <v>-15.3</v>
+      </c>
+      <c r="J86">
+        <v>0.92</v>
+      </c>
+      <c r="K86">
+        <v>2</v>
+      </c>
+      <c r="L86">
+        <v>20</v>
+      </c>
+      <c r="M86">
+        <v>10</v>
+      </c>
+      <c r="N86">
+        <v>9</v>
+      </c>
+      <c r="O86">
+        <v>-1.97</v>
+      </c>
+      <c r="P86">
+        <v>-9.07</v>
+      </c>
+      <c r="Q86">
+        <v>3.12</v>
+      </c>
+      <c r="R86">
+        <v>7</v>
+      </c>
+      <c r="S86">
+        <v>70</v>
+      </c>
+      <c r="T86">
+        <v>5</v>
+      </c>
+      <c r="U86">
+        <v>20</v>
+      </c>
+      <c r="V86">
+        <v>20</v>
+      </c>
+      <c r="W86">
+        <v>20</v>
+      </c>
+      <c r="X86">
+        <v>20</v>
+      </c>
+      <c r="Y86">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25">
+      <c r="A87" s="2">
+        <v>45791.84919030093</v>
+      </c>
+      <c r="B87" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" t="s">
+        <v>45</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" t="s">
+        <v>106</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
+      </c>
+      <c r="G87">
+        <v>9</v>
+      </c>
+      <c r="H87">
+        <v>-0.89</v>
+      </c>
+      <c r="I87">
+        <v>-15.3</v>
+      </c>
+      <c r="J87">
+        <v>0.92</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>20</v>
+      </c>
+      <c r="M87">
+        <v>10</v>
+      </c>
+      <c r="N87">
+        <v>9</v>
+      </c>
+      <c r="O87">
+        <v>-0.4</v>
+      </c>
+      <c r="P87">
+        <v>5.74</v>
+      </c>
+      <c r="Q87">
+        <v>0.28</v>
+      </c>
+      <c r="R87">
+        <v>6</v>
+      </c>
+      <c r="S87">
+        <v>60</v>
+      </c>
+      <c r="T87">
+        <v>14</v>
+      </c>
+      <c r="U87">
+        <v>14</v>
+      </c>
+      <c r="V87">
+        <v>5</v>
+      </c>
+      <c r="W87">
+        <v>20</v>
+      </c>
+      <c r="X87">
+        <v>20</v>
+      </c>
+      <c r="Y87">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25">
+      <c r="A88" s="2">
+        <v>45791.84950658565</v>
+      </c>
+      <c r="B88" t="s">
+        <v>33</v>
+      </c>
+      <c r="C88" t="s">
+        <v>47</v>
+      </c>
+      <c r="D88" t="s">
+        <v>73</v>
+      </c>
+      <c r="E88" t="s">
+        <v>120</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+      <c r="G88">
+        <v>9</v>
+      </c>
+      <c r="H88">
+        <v>-0.89</v>
+      </c>
+      <c r="I88">
+        <v>-15.3</v>
+      </c>
+      <c r="J88">
+        <v>0.92</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>20</v>
+      </c>
+      <c r="M88">
+        <v>10</v>
+      </c>
+      <c r="N88">
+        <v>9</v>
+      </c>
+      <c r="O88">
+        <v>-0.2</v>
+      </c>
+      <c r="P88">
+        <v>15.87</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>2</v>
+      </c>
+      <c r="S88">
+        <v>20</v>
+      </c>
+      <c r="T88">
+        <v>14</v>
+      </c>
+      <c r="U88">
+        <v>14</v>
+      </c>
+      <c r="V88">
+        <v>5</v>
+      </c>
+      <c r="W88">
+        <v>20</v>
+      </c>
+      <c r="X88">
+        <v>20</v>
+      </c>
+      <c r="Y88">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25">
+      <c r="A89" s="2">
+        <v>45791.84980452546</v>
+      </c>
+      <c r="B89" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" t="s">
+        <v>47</v>
+      </c>
+      <c r="D89" t="s">
+        <v>73</v>
+      </c>
+      <c r="E89" t="s">
+        <v>121</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="G89">
+        <v>9</v>
+      </c>
+      <c r="H89">
+        <v>-0.89</v>
+      </c>
+      <c r="I89">
+        <v>-15.3</v>
+      </c>
+      <c r="J89">
+        <v>0.92</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <v>20</v>
+      </c>
+      <c r="M89">
+        <v>10</v>
+      </c>
+      <c r="N89">
+        <v>9</v>
+      </c>
+      <c r="O89">
+        <v>-0.2</v>
+      </c>
+      <c r="P89">
+        <v>15.87</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>2</v>
+      </c>
+      <c r="S89">
+        <v>20</v>
+      </c>
+      <c r="T89">
+        <v>14</v>
+      </c>
+      <c r="U89">
+        <v>14</v>
+      </c>
+      <c r="V89">
+        <v>5</v>
+      </c>
+      <c r="W89">
+        <v>20</v>
+      </c>
+      <c r="X89">
+        <v>20</v>
+      </c>
+      <c r="Y89">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25">
+      <c r="A90" s="2">
+        <v>45791.85010104167</v>
+      </c>
+      <c r="B90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" t="s">
+        <v>45</v>
+      </c>
+      <c r="D90" t="s">
+        <v>75</v>
+      </c>
+      <c r="E90" t="s">
+        <v>122</v>
+      </c>
+      <c r="F90">
+        <v>10</v>
+      </c>
+      <c r="G90">
+        <v>9</v>
+      </c>
+      <c r="H90">
+        <v>-0.89</v>
+      </c>
+      <c r="I90">
+        <v>-15.3</v>
+      </c>
+      <c r="J90">
+        <v>0.92</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>20</v>
+      </c>
+      <c r="M90">
+        <v>10</v>
+      </c>
+      <c r="N90">
+        <v>10</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>14</v>
+      </c>
+      <c r="U90">
+        <v>14</v>
+      </c>
+      <c r="V90">
+        <v>5</v>
+      </c>
+      <c r="W90">
+        <v>20</v>
+      </c>
+      <c r="X90">
+        <v>20</v>
+      </c>
+      <c r="Y90">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25">
+      <c r="A91" s="2">
+        <v>45791.85038276621</v>
+      </c>
+      <c r="B91" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91" t="s">
+        <v>45</v>
+      </c>
+      <c r="D91" t="s">
+        <v>70</v>
+      </c>
+      <c r="E91" t="s">
+        <v>107</v>
+      </c>
+      <c r="F91">
+        <v>10</v>
+      </c>
+      <c r="G91">
+        <v>9</v>
+      </c>
+      <c r="H91">
+        <v>-0.89</v>
+      </c>
+      <c r="I91">
+        <v>-15.3</v>
+      </c>
+      <c r="J91">
+        <v>0.92</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91">
+        <v>20</v>
+      </c>
+      <c r="M91">
+        <v>10</v>
+      </c>
+      <c r="N91">
+        <v>10</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>14</v>
+      </c>
+      <c r="U91">
+        <v>14</v>
+      </c>
+      <c r="V91">
+        <v>5</v>
+      </c>
+      <c r="W91">
+        <v>20</v>
+      </c>
+      <c r="X91">
+        <v>20</v>
+      </c>
+      <c r="Y91">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25">
+      <c r="A92" s="2">
+        <v>45791.85069344907</v>
+      </c>
+      <c r="B92" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" t="s">
+        <v>47</v>
+      </c>
+      <c r="D92" t="s">
+        <v>73</v>
+      </c>
+      <c r="E92" t="s">
+        <v>123</v>
+      </c>
+      <c r="F92">
+        <v>10</v>
+      </c>
+      <c r="G92">
+        <v>9</v>
+      </c>
+      <c r="H92">
+        <v>-0.89</v>
+      </c>
+      <c r="I92">
+        <v>-15.3</v>
+      </c>
+      <c r="J92">
+        <v>0.92</v>
+      </c>
+      <c r="K92">
+        <v>2</v>
+      </c>
+      <c r="L92">
+        <v>20</v>
+      </c>
+      <c r="M92">
+        <v>10</v>
+      </c>
+      <c r="N92">
+        <v>9</v>
+      </c>
+      <c r="O92">
+        <v>-0.2</v>
+      </c>
+      <c r="P92">
+        <v>15.87</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>2</v>
+      </c>
+      <c r="S92">
+        <v>20</v>
+      </c>
+      <c r="T92">
+        <v>14</v>
+      </c>
+      <c r="U92">
+        <v>14</v>
+      </c>
+      <c r="V92">
+        <v>5</v>
+      </c>
+      <c r="W92">
+        <v>20</v>
+      </c>
+      <c r="X92">
+        <v>20</v>
+      </c>
+      <c r="Y92">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25">
+      <c r="A93" s="2">
+        <v>45791.85099065972</v>
+      </c>
+      <c r="B93" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93" t="s">
+        <v>45</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" t="s">
+        <v>106</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+      <c r="G93">
+        <v>9</v>
+      </c>
+      <c r="H93">
+        <v>-0.89</v>
+      </c>
+      <c r="I93">
+        <v>-15.3</v>
+      </c>
+      <c r="J93">
+        <v>0.92</v>
+      </c>
+      <c r="K93">
+        <v>2</v>
+      </c>
+      <c r="L93">
+        <v>20</v>
+      </c>
+      <c r="M93">
+        <v>10</v>
+      </c>
+      <c r="N93">
+        <v>9</v>
+      </c>
+      <c r="O93">
+        <v>-0.4</v>
+      </c>
+      <c r="P93">
+        <v>5.74</v>
+      </c>
+      <c r="Q93">
+        <v>0.28</v>
+      </c>
+      <c r="R93">
+        <v>6</v>
+      </c>
+      <c r="S93">
+        <v>60</v>
+      </c>
+      <c r="T93">
+        <v>14</v>
+      </c>
+      <c r="U93">
+        <v>14</v>
+      </c>
+      <c r="V93">
+        <v>5</v>
+      </c>
+      <c r="W93">
+        <v>20</v>
+      </c>
+      <c r="X93">
+        <v>20</v>
+      </c>
+      <c r="Y93">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25">
+      <c r="A94" s="2">
+        <v>45791.85130540509</v>
+      </c>
+      <c r="B94" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" t="s">
+        <v>45</v>
+      </c>
+      <c r="D94" t="s">
+        <v>76</v>
+      </c>
+      <c r="E94" t="s">
+        <v>124</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94">
+        <v>9</v>
+      </c>
+      <c r="H94">
+        <v>-0.89</v>
+      </c>
+      <c r="I94">
+        <v>-15.3</v>
+      </c>
+      <c r="J94">
+        <v>0.92</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>20</v>
+      </c>
+      <c r="M94">
+        <v>10</v>
+      </c>
+      <c r="N94">
+        <v>10</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>5</v>
+      </c>
+      <c r="U94">
+        <v>20</v>
+      </c>
+      <c r="V94">
+        <v>14</v>
+      </c>
+      <c r="W94">
+        <v>20</v>
+      </c>
+      <c r="X94">
+        <v>20</v>
+      </c>
+      <c r="Y94">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25">
+      <c r="A95" s="2">
+        <v>45791.85159357639</v>
+      </c>
+      <c r="B95" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95" t="s">
+        <v>45</v>
+      </c>
+      <c r="D95" t="s">
+        <v>77</v>
+      </c>
+      <c r="E95" t="s">
+        <v>125</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+      <c r="G95">
+        <v>9</v>
+      </c>
+      <c r="H95">
+        <v>-0.89</v>
+      </c>
+      <c r="I95">
+        <v>-15.3</v>
+      </c>
+      <c r="J95">
+        <v>0.92</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="L95">
+        <v>20</v>
+      </c>
+      <c r="M95">
+        <v>10</v>
+      </c>
+      <c r="N95">
+        <v>9</v>
+      </c>
+      <c r="O95">
+        <v>-1.07</v>
+      </c>
+      <c r="P95">
+        <v>-15.87</v>
+      </c>
+      <c r="Q95">
+        <v>0.87</v>
+      </c>
+      <c r="R95">
+        <v>2</v>
+      </c>
+      <c r="S95">
+        <v>20</v>
+      </c>
+      <c r="T95">
+        <v>14</v>
+      </c>
+      <c r="U95">
+        <v>14</v>
+      </c>
+      <c r="V95">
+        <v>20</v>
+      </c>
+      <c r="W95">
+        <v>20</v>
+      </c>
+      <c r="X95">
+        <v>20</v>
+      </c>
+      <c r="Y95">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25">
+      <c r="A96" s="2">
+        <v>45791.85189866898</v>
+      </c>
+      <c r="B96" t="s">
+        <v>33</v>
+      </c>
+      <c r="C96" t="s">
+        <v>47</v>
+      </c>
+      <c r="D96" t="s">
+        <v>73</v>
+      </c>
+      <c r="E96" t="s">
+        <v>123</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+      <c r="G96">
+        <v>9</v>
+      </c>
+      <c r="H96">
+        <v>-0.89</v>
+      </c>
+      <c r="I96">
+        <v>-15.3</v>
+      </c>
+      <c r="J96">
+        <v>0.92</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+      <c r="L96">
+        <v>20</v>
+      </c>
+      <c r="M96">
+        <v>10</v>
+      </c>
+      <c r="N96">
+        <v>9</v>
+      </c>
+      <c r="O96">
+        <v>-0.2</v>
+      </c>
+      <c r="P96">
+        <v>15.87</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>2</v>
+      </c>
+      <c r="S96">
+        <v>20</v>
+      </c>
+      <c r="T96">
+        <v>14</v>
+      </c>
+      <c r="U96">
+        <v>14</v>
+      </c>
+      <c r="V96">
+        <v>5</v>
+      </c>
+      <c r="W96">
+        <v>20</v>
+      </c>
+      <c r="X96">
+        <v>20</v>
+      </c>
+      <c r="Y96">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25">
+      <c r="A97" s="2">
+        <v>45791.85220133102</v>
+      </c>
+      <c r="B97" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97" t="s">
+        <v>45</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" t="s">
+        <v>106</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
+      </c>
+      <c r="G97">
+        <v>9</v>
+      </c>
+      <c r="H97">
+        <v>-0.89</v>
+      </c>
+      <c r="I97">
+        <v>-15.3</v>
+      </c>
+      <c r="J97">
+        <v>0.92</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+      <c r="L97">
+        <v>20</v>
+      </c>
+      <c r="M97">
+        <v>10</v>
+      </c>
+      <c r="N97">
+        <v>9</v>
+      </c>
+      <c r="O97">
+        <v>-0.4</v>
+      </c>
+      <c r="P97">
+        <v>5.74</v>
+      </c>
+      <c r="Q97">
+        <v>0.28</v>
+      </c>
+      <c r="R97">
+        <v>6</v>
+      </c>
+      <c r="S97">
+        <v>60</v>
+      </c>
+      <c r="T97">
+        <v>14</v>
+      </c>
+      <c r="U97">
+        <v>14</v>
+      </c>
+      <c r="V97">
+        <v>5</v>
+      </c>
+      <c r="W97">
+        <v>20</v>
+      </c>
+      <c r="X97">
+        <v>20</v>
+      </c>
+      <c r="Y97">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25">
+      <c r="A98" s="2">
+        <v>45791.85252003472</v>
+      </c>
+      <c r="B98" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98" t="s">
+        <v>45</v>
+      </c>
+      <c r="D98" t="s">
+        <v>70</v>
+      </c>
+      <c r="E98" t="s">
+        <v>126</v>
+      </c>
+      <c r="F98">
+        <v>10</v>
+      </c>
+      <c r="G98">
+        <v>9</v>
+      </c>
+      <c r="H98">
+        <v>-0.89</v>
+      </c>
+      <c r="I98">
+        <v>-15.3</v>
+      </c>
+      <c r="J98">
+        <v>0.92</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <v>20</v>
+      </c>
+      <c r="M98">
+        <v>10</v>
+      </c>
+      <c r="N98">
+        <v>10</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>14</v>
+      </c>
+      <c r="U98">
+        <v>14</v>
+      </c>
+      <c r="V98">
+        <v>5</v>
+      </c>
+      <c r="W98">
+        <v>20</v>
+      </c>
+      <c r="X98">
+        <v>20</v>
+      </c>
+      <c r="Y98">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25">
+      <c r="A99" s="2">
+        <v>45791.85282828704</v>
+      </c>
+      <c r="B99" t="s">
+        <v>33</v>
+      </c>
+      <c r="C99" t="s">
+        <v>45</v>
+      </c>
+      <c r="D99" t="s">
+        <v>70</v>
+      </c>
+      <c r="E99" t="s">
+        <v>126</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+      <c r="G99">
+        <v>9</v>
+      </c>
+      <c r="H99">
+        <v>-0.89</v>
+      </c>
+      <c r="I99">
+        <v>-15.3</v>
+      </c>
+      <c r="J99">
+        <v>0.92</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="L99">
+        <v>20</v>
+      </c>
+      <c r="M99">
+        <v>10</v>
+      </c>
+      <c r="N99">
+        <v>10</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>14</v>
+      </c>
+      <c r="U99">
+        <v>14</v>
+      </c>
+      <c r="V99">
+        <v>5</v>
+      </c>
+      <c r="W99">
+        <v>20</v>
+      </c>
+      <c r="X99">
+        <v>20</v>
+      </c>
+      <c r="Y99">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25">
+      <c r="A100" s="2">
+        <v>45791.85313643519</v>
+      </c>
+      <c r="B100" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100" t="s">
+        <v>46</v>
+      </c>
+      <c r="D100" t="s">
+        <v>68</v>
+      </c>
+      <c r="E100" t="s">
+        <v>105</v>
+      </c>
+      <c r="F100">
+        <v>10</v>
+      </c>
+      <c r="G100">
+        <v>9</v>
+      </c>
+      <c r="H100">
+        <v>-0.89</v>
+      </c>
+      <c r="I100">
+        <v>-15.3</v>
+      </c>
+      <c r="J100">
+        <v>0.92</v>
+      </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
+      <c r="L100">
+        <v>20</v>
+      </c>
+      <c r="M100">
+        <v>10</v>
+      </c>
+      <c r="N100">
+        <v>9</v>
+      </c>
+      <c r="O100">
+        <v>-1.97</v>
+      </c>
+      <c r="P100">
+        <v>-9.07</v>
+      </c>
+      <c r="Q100">
+        <v>3.12</v>
+      </c>
+      <c r="R100">
+        <v>7</v>
+      </c>
+      <c r="S100">
+        <v>70</v>
+      </c>
+      <c r="T100">
+        <v>5</v>
+      </c>
+      <c r="U100">
+        <v>20</v>
+      </c>
+      <c r="V100">
+        <v>20</v>
+      </c>
+      <c r="W100">
+        <v>20</v>
+      </c>
+      <c r="X100">
+        <v>20</v>
+      </c>
+      <c r="Y100">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25">
+      <c r="A101" s="2">
+        <v>45791.85344233796</v>
+      </c>
+      <c r="B101" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101" t="s">
+        <v>46</v>
+      </c>
+      <c r="D101" t="s">
+        <v>68</v>
+      </c>
+      <c r="E101" t="s">
+        <v>105</v>
+      </c>
+      <c r="F101">
+        <v>10</v>
+      </c>
+      <c r="G101">
+        <v>9</v>
+      </c>
+      <c r="H101">
+        <v>-0.89</v>
+      </c>
+      <c r="I101">
+        <v>-15.3</v>
+      </c>
+      <c r="J101">
+        <v>0.92</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="L101">
+        <v>20</v>
+      </c>
+      <c r="M101">
+        <v>10</v>
+      </c>
+      <c r="N101">
+        <v>9</v>
+      </c>
+      <c r="O101">
+        <v>-1.97</v>
+      </c>
+      <c r="P101">
+        <v>-9.07</v>
+      </c>
+      <c r="Q101">
+        <v>3.12</v>
+      </c>
+      <c r="R101">
+        <v>7</v>
+      </c>
+      <c r="S101">
+        <v>70</v>
+      </c>
+      <c r="T101">
+        <v>5</v>
+      </c>
+      <c r="U101">
+        <v>20</v>
+      </c>
+      <c r="V101">
+        <v>20</v>
+      </c>
+      <c r="W101">
+        <v>20</v>
+      </c>
+      <c r="X101">
+        <v>20</v>
+      </c>
+      <c r="Y101">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25">
+      <c r="A102" s="2">
+        <v>45791.85374971065</v>
+      </c>
+      <c r="B102" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" t="s">
+        <v>46</v>
+      </c>
+      <c r="D102" t="s">
+        <v>78</v>
+      </c>
+      <c r="E102" t="s">
+        <v>127</v>
+      </c>
+      <c r="F102">
+        <v>10</v>
+      </c>
+      <c r="G102">
+        <v>9</v>
+      </c>
+      <c r="H102">
+        <v>-0.89</v>
+      </c>
+      <c r="I102">
+        <v>-15.3</v>
+      </c>
+      <c r="J102">
+        <v>0.92</v>
+      </c>
+      <c r="K102">
+        <v>2</v>
+      </c>
+      <c r="L102">
+        <v>20</v>
+      </c>
+      <c r="M102">
+        <v>10</v>
+      </c>
+      <c r="N102">
+        <v>9</v>
+      </c>
+      <c r="O102">
+        <v>-0.76</v>
+      </c>
+      <c r="P102">
+        <v>-9.390000000000001</v>
+      </c>
+      <c r="Q102">
+        <v>0.34</v>
+      </c>
+      <c r="R102">
+        <v>6</v>
+      </c>
+      <c r="S102">
+        <v>60</v>
+      </c>
+      <c r="T102">
+        <v>7</v>
+      </c>
+      <c r="U102">
+        <v>20</v>
+      </c>
+      <c r="V102">
+        <v>5</v>
+      </c>
+      <c r="W102">
+        <v>20</v>
+      </c>
+      <c r="X102">
+        <v>20</v>
+      </c>
+      <c r="Y102">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25">
+      <c r="A103" s="2">
+        <v>45791.85404152777</v>
+      </c>
+      <c r="B103" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" t="s">
+        <v>45</v>
+      </c>
+      <c r="D103" t="s">
+        <v>79</v>
+      </c>
+      <c r="E103" t="s">
+        <v>128</v>
+      </c>
+      <c r="F103">
+        <v>10</v>
+      </c>
+      <c r="G103">
+        <v>9</v>
+      </c>
+      <c r="H103">
+        <v>-0.89</v>
+      </c>
+      <c r="I103">
+        <v>-15.3</v>
+      </c>
+      <c r="J103">
+        <v>0.92</v>
+      </c>
+      <c r="K103">
+        <v>2</v>
+      </c>
+      <c r="L103">
+        <v>20</v>
+      </c>
+      <c r="M103">
+        <v>10</v>
+      </c>
+      <c r="N103">
+        <v>10</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <v>14</v>
+      </c>
+      <c r="U103">
+        <v>14</v>
+      </c>
+      <c r="V103">
+        <v>20</v>
+      </c>
+      <c r="W103">
+        <v>20</v>
+      </c>
+      <c r="X103">
+        <v>20</v>
+      </c>
+      <c r="Y103">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25">
+      <c r="A104" s="2">
+        <v>45791.85434962963</v>
+      </c>
+      <c r="B104" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" t="s">
+        <v>45</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" t="s">
+        <v>117</v>
+      </c>
+      <c r="F104">
+        <v>10</v>
+      </c>
+      <c r="G104">
+        <v>9</v>
+      </c>
+      <c r="H104">
+        <v>-0.89</v>
+      </c>
+      <c r="I104">
+        <v>-15.3</v>
+      </c>
+      <c r="J104">
+        <v>0.92</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+      <c r="L104">
+        <v>20</v>
+      </c>
+      <c r="M104">
+        <v>10</v>
+      </c>
+      <c r="N104">
+        <v>9</v>
+      </c>
+      <c r="O104">
+        <v>-0.4</v>
+      </c>
+      <c r="P104">
+        <v>5.74</v>
+      </c>
+      <c r="Q104">
+        <v>0.28</v>
+      </c>
+      <c r="R104">
+        <v>6</v>
+      </c>
+      <c r="S104">
+        <v>60</v>
+      </c>
+      <c r="T104">
+        <v>14</v>
+      </c>
+      <c r="U104">
+        <v>14</v>
+      </c>
+      <c r="V104">
+        <v>5</v>
+      </c>
+      <c r="W104">
+        <v>20</v>
+      </c>
+      <c r="X104">
+        <v>20</v>
+      </c>
+      <c r="Y104">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25">
+      <c r="A105" s="2">
+        <v>45791.85466648148</v>
+      </c>
+      <c r="B105" t="s">
+        <v>33</v>
+      </c>
+      <c r="C105" t="s">
+        <v>45</v>
+      </c>
+      <c r="D105" t="s">
+        <v>70</v>
+      </c>
+      <c r="E105" t="s">
+        <v>129</v>
+      </c>
+      <c r="F105">
+        <v>10</v>
+      </c>
+      <c r="G105">
+        <v>9</v>
+      </c>
+      <c r="H105">
+        <v>-0.89</v>
+      </c>
+      <c r="I105">
+        <v>-15.3</v>
+      </c>
+      <c r="J105">
+        <v>0.92</v>
+      </c>
+      <c r="K105">
+        <v>2</v>
+      </c>
+      <c r="L105">
+        <v>20</v>
+      </c>
+      <c r="M105">
+        <v>10</v>
+      </c>
+      <c r="N105">
+        <v>10</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>0</v>
+      </c>
+      <c r="T105">
+        <v>14</v>
+      </c>
+      <c r="U105">
+        <v>14</v>
+      </c>
+      <c r="V105">
+        <v>5</v>
+      </c>
+      <c r="W105">
+        <v>20</v>
+      </c>
+      <c r="X105">
+        <v>20</v>
+      </c>
+      <c r="Y105">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25">
+      <c r="A106" s="2">
+        <v>45791.85498251158</v>
+      </c>
+      <c r="B106" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" t="s">
+        <v>47</v>
+      </c>
+      <c r="D106" t="s">
+        <v>73</v>
+      </c>
+      <c r="E106" t="s">
+        <v>113</v>
+      </c>
+      <c r="F106">
+        <v>10</v>
+      </c>
+      <c r="G106">
+        <v>9</v>
+      </c>
+      <c r="H106">
+        <v>-0.89</v>
+      </c>
+      <c r="I106">
+        <v>-15.3</v>
+      </c>
+      <c r="J106">
+        <v>0.92</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <v>20</v>
+      </c>
+      <c r="M106">
+        <v>10</v>
+      </c>
+      <c r="N106">
+        <v>9</v>
+      </c>
+      <c r="O106">
+        <v>-0.2</v>
+      </c>
+      <c r="P106">
+        <v>15.87</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>2</v>
+      </c>
+      <c r="S106">
+        <v>20</v>
+      </c>
+      <c r="T106">
+        <v>14</v>
+      </c>
+      <c r="U106">
+        <v>14</v>
+      </c>
+      <c r="V106">
+        <v>5</v>
+      </c>
+      <c r="W106">
+        <v>20</v>
+      </c>
+      <c r="X106">
+        <v>20</v>
+      </c>
+      <c r="Y106">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25">
+      <c r="A107" s="2">
+        <v>45791.85528604167</v>
+      </c>
+      <c r="B107" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" t="s">
+        <v>45</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" t="s">
+        <v>106</v>
+      </c>
+      <c r="F107">
+        <v>10</v>
+      </c>
+      <c r="G107">
+        <v>9</v>
+      </c>
+      <c r="H107">
+        <v>-0.89</v>
+      </c>
+      <c r="I107">
+        <v>-15.3</v>
+      </c>
+      <c r="J107">
+        <v>0.92</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+      <c r="L107">
+        <v>20</v>
+      </c>
+      <c r="M107">
+        <v>10</v>
+      </c>
+      <c r="N107">
+        <v>9</v>
+      </c>
+      <c r="O107">
+        <v>-0.4</v>
+      </c>
+      <c r="P107">
+        <v>5.74</v>
+      </c>
+      <c r="Q107">
+        <v>0.28</v>
+      </c>
+      <c r="R107">
+        <v>6</v>
+      </c>
+      <c r="S107">
+        <v>60</v>
+      </c>
+      <c r="T107">
+        <v>14</v>
+      </c>
+      <c r="U107">
+        <v>14</v>
+      </c>
+      <c r="V107">
+        <v>5</v>
+      </c>
+      <c r="W107">
+        <v>20</v>
+      </c>
+      <c r="X107">
+        <v>20</v>
+      </c>
+      <c r="Y107">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25">
+      <c r="A108" s="2">
+        <v>45791.85560450231</v>
+      </c>
+      <c r="B108" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108" t="s">
+        <v>45</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" t="s">
+        <v>106</v>
+      </c>
+      <c r="F108">
+        <v>10</v>
+      </c>
+      <c r="G108">
+        <v>9</v>
+      </c>
+      <c r="H108">
+        <v>-0.89</v>
+      </c>
+      <c r="I108">
+        <v>-15.3</v>
+      </c>
+      <c r="J108">
+        <v>0.92</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+      <c r="L108">
+        <v>20</v>
+      </c>
+      <c r="M108">
+        <v>10</v>
+      </c>
+      <c r="N108">
+        <v>9</v>
+      </c>
+      <c r="O108">
+        <v>-0.4</v>
+      </c>
+      <c r="P108">
+        <v>5.74</v>
+      </c>
+      <c r="Q108">
+        <v>0.28</v>
+      </c>
+      <c r="R108">
+        <v>6</v>
+      </c>
+      <c r="S108">
+        <v>60</v>
+      </c>
+      <c r="T108">
+        <v>14</v>
+      </c>
+      <c r="U108">
+        <v>14</v>
+      </c>
+      <c r="V108">
+        <v>5</v>
+      </c>
+      <c r="W108">
+        <v>20</v>
+      </c>
+      <c r="X108">
+        <v>20</v>
+      </c>
+      <c r="Y108">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25">
+      <c r="A109" s="2">
+        <v>45791.85680805556</v>
+      </c>
+      <c r="B109" t="s">
+        <v>33</v>
+      </c>
+      <c r="C109" t="s">
+        <v>47</v>
+      </c>
+      <c r="D109" t="s">
+        <v>73</v>
+      </c>
+      <c r="E109" t="s">
+        <v>123</v>
+      </c>
+      <c r="F109">
+        <v>10</v>
+      </c>
+      <c r="G109">
+        <v>9</v>
+      </c>
+      <c r="H109">
+        <v>-0.89</v>
+      </c>
+      <c r="I109">
+        <v>-15.3</v>
+      </c>
+      <c r="J109">
+        <v>0.92</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>20</v>
+      </c>
+      <c r="M109">
+        <v>10</v>
+      </c>
+      <c r="N109">
+        <v>9</v>
+      </c>
+      <c r="O109">
+        <v>-0.2</v>
+      </c>
+      <c r="P109">
+        <v>15.87</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>2</v>
+      </c>
+      <c r="S109">
+        <v>20</v>
+      </c>
+      <c r="T109">
+        <v>14</v>
+      </c>
+      <c r="U109">
+        <v>14</v>
+      </c>
+      <c r="V109">
+        <v>5</v>
+      </c>
+      <c r="W109">
+        <v>20</v>
+      </c>
+      <c r="X109">
+        <v>20</v>
+      </c>
+      <c r="Y109">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25">
+      <c r="A110" s="2">
+        <v>45791.85711709491</v>
+      </c>
+      <c r="B110" t="s">
+        <v>33</v>
+      </c>
+      <c r="C110" t="s">
+        <v>45</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" t="s">
+        <v>106</v>
+      </c>
+      <c r="F110">
+        <v>10</v>
+      </c>
+      <c r="G110">
+        <v>9</v>
+      </c>
+      <c r="H110">
+        <v>-0.89</v>
+      </c>
+      <c r="I110">
+        <v>-15.3</v>
+      </c>
+      <c r="J110">
+        <v>0.92</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>20</v>
+      </c>
+      <c r="M110">
+        <v>10</v>
+      </c>
+      <c r="N110">
+        <v>9</v>
+      </c>
+      <c r="O110">
+        <v>-0.4</v>
+      </c>
+      <c r="P110">
+        <v>5.74</v>
+      </c>
+      <c r="Q110">
+        <v>0.28</v>
+      </c>
+      <c r="R110">
+        <v>6</v>
+      </c>
+      <c r="S110">
+        <v>60</v>
+      </c>
+      <c r="T110">
+        <v>14</v>
+      </c>
+      <c r="U110">
+        <v>14</v>
+      </c>
+      <c r="V110">
+        <v>5</v>
+      </c>
+      <c r="W110">
+        <v>20</v>
+      </c>
+      <c r="X110">
+        <v>20</v>
+      </c>
+      <c r="Y110">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25">
+      <c r="A111" s="2">
+        <v>45791.85744039352</v>
+      </c>
+      <c r="B111" t="s">
+        <v>33</v>
+      </c>
+      <c r="C111" t="s">
+        <v>45</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" t="s">
+        <v>109</v>
+      </c>
+      <c r="F111">
+        <v>10</v>
+      </c>
+      <c r="G111">
+        <v>9</v>
+      </c>
+      <c r="H111">
+        <v>-0.89</v>
+      </c>
+      <c r="I111">
+        <v>-15.3</v>
+      </c>
+      <c r="J111">
+        <v>0.92</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+      <c r="L111">
+        <v>20</v>
+      </c>
+      <c r="M111">
+        <v>10</v>
+      </c>
+      <c r="N111">
+        <v>10</v>
+      </c>
+      <c r="O111">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="P111">
+        <v>15.03</v>
+      </c>
+      <c r="Q111">
+        <v>0.03</v>
+      </c>
+      <c r="R111">
+        <v>4</v>
+      </c>
+      <c r="S111">
+        <v>40</v>
+      </c>
+      <c r="T111">
+        <v>14</v>
+      </c>
+      <c r="U111">
+        <v>14</v>
+      </c>
+      <c r="V111">
+        <v>5</v>
+      </c>
+      <c r="W111">
+        <v>20</v>
+      </c>
+      <c r="X111">
+        <v>20</v>
+      </c>
+      <c r="Y111">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25">
+      <c r="A112" s="2">
+        <v>45791.857758125</v>
+      </c>
+      <c r="B112" t="s">
+        <v>33</v>
+      </c>
+      <c r="C112" t="s">
+        <v>45</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" t="s">
+        <v>130</v>
+      </c>
+      <c r="F112">
+        <v>10</v>
+      </c>
+      <c r="G112">
+        <v>9</v>
+      </c>
+      <c r="H112">
+        <v>-0.89</v>
+      </c>
+      <c r="I112">
+        <v>-15.3</v>
+      </c>
+      <c r="J112">
+        <v>0.92</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <v>20</v>
+      </c>
+      <c r="M112">
+        <v>10</v>
+      </c>
+      <c r="N112">
+        <v>10</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>14</v>
+      </c>
+      <c r="U112">
+        <v>14</v>
+      </c>
+      <c r="V112">
+        <v>5</v>
+      </c>
+      <c r="W112">
+        <v>20</v>
+      </c>
+      <c r="X112">
+        <v>20</v>
+      </c>
+      <c r="Y112">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25">
+      <c r="A113" s="2">
+        <v>45791.85804925926</v>
+      </c>
+      <c r="B113" t="s">
+        <v>33</v>
+      </c>
+      <c r="C113" t="s">
+        <v>47</v>
+      </c>
+      <c r="D113" t="s">
+        <v>71</v>
+      </c>
+      <c r="E113" t="s">
+        <v>131</v>
+      </c>
+      <c r="F113">
+        <v>10</v>
+      </c>
+      <c r="G113">
+        <v>9</v>
+      </c>
+      <c r="H113">
+        <v>-0.89</v>
+      </c>
+      <c r="I113">
+        <v>-15.3</v>
+      </c>
+      <c r="J113">
+        <v>0.92</v>
+      </c>
+      <c r="K113">
+        <v>2</v>
+      </c>
+      <c r="L113">
+        <v>20</v>
+      </c>
+      <c r="M113">
+        <v>10</v>
+      </c>
+      <c r="N113">
+        <v>9</v>
+      </c>
+      <c r="O113">
+        <v>-1.5</v>
+      </c>
+      <c r="P113">
+        <v>-7.53</v>
+      </c>
+      <c r="Q113">
+        <v>2.3</v>
+      </c>
+      <c r="R113">
+        <v>8</v>
+      </c>
+      <c r="S113">
+        <v>80</v>
+      </c>
+      <c r="T113">
+        <v>5</v>
+      </c>
+      <c r="U113">
+        <v>20</v>
+      </c>
+      <c r="V113">
+        <v>14</v>
+      </c>
+      <c r="W113">
+        <v>20</v>
+      </c>
+      <c r="X113">
+        <v>20</v>
+      </c>
+      <c r="Y113">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25">
+      <c r="A114" s="2">
+        <v>45791.85833894676</v>
+      </c>
+      <c r="B114" t="s">
+        <v>33</v>
+      </c>
+      <c r="C114" t="s">
+        <v>45</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" t="s">
+        <v>106</v>
+      </c>
+      <c r="F114">
+        <v>10</v>
+      </c>
+      <c r="G114">
+        <v>9</v>
+      </c>
+      <c r="H114">
+        <v>-0.89</v>
+      </c>
+      <c r="I114">
+        <v>-15.3</v>
+      </c>
+      <c r="J114">
+        <v>0.92</v>
+      </c>
+      <c r="K114">
+        <v>2</v>
+      </c>
+      <c r="L114">
+        <v>20</v>
+      </c>
+      <c r="M114">
+        <v>10</v>
+      </c>
+      <c r="N114">
+        <v>9</v>
+      </c>
+      <c r="O114">
+        <v>-0.4</v>
+      </c>
+      <c r="P114">
+        <v>5.74</v>
+      </c>
+      <c r="Q114">
+        <v>0.28</v>
+      </c>
+      <c r="R114">
+        <v>6</v>
+      </c>
+      <c r="S114">
+        <v>60</v>
+      </c>
+      <c r="T114">
+        <v>14</v>
+      </c>
+      <c r="U114">
+        <v>14</v>
+      </c>
+      <c r="V114">
+        <v>5</v>
+      </c>
+      <c r="W114">
+        <v>20</v>
+      </c>
+      <c r="X114">
+        <v>20</v>
+      </c>
+      <c r="Y114">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25">
+      <c r="A115" s="2">
+        <v>45791.85865894676</v>
+      </c>
+      <c r="B115" t="s">
+        <v>33</v>
+      </c>
+      <c r="C115" t="s">
+        <v>45</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" t="s">
+        <v>132</v>
+      </c>
+      <c r="F115">
+        <v>10</v>
+      </c>
+      <c r="G115">
+        <v>9</v>
+      </c>
+      <c r="H115">
+        <v>-0.89</v>
+      </c>
+      <c r="I115">
+        <v>-15.3</v>
+      </c>
+      <c r="J115">
+        <v>0.92</v>
+      </c>
+      <c r="K115">
+        <v>2</v>
+      </c>
+      <c r="L115">
+        <v>20</v>
+      </c>
+      <c r="M115">
+        <v>10</v>
+      </c>
+      <c r="N115">
+        <v>10</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <v>0</v>
+      </c>
+      <c r="T115">
+        <v>14</v>
+      </c>
+      <c r="U115">
+        <v>14</v>
+      </c>
+      <c r="V115">
+        <v>5</v>
+      </c>
+      <c r="W115">
+        <v>20</v>
+      </c>
+      <c r="X115">
+        <v>20</v>
+      </c>
+      <c r="Y115">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25">
+      <c r="A116" s="2">
+        <v>45791.85896090278</v>
+      </c>
+      <c r="B116" t="s">
+        <v>33</v>
+      </c>
+      <c r="C116" t="s">
+        <v>47</v>
+      </c>
+      <c r="D116" t="s">
+        <v>73</v>
+      </c>
+      <c r="E116" t="s">
+        <v>113</v>
+      </c>
+      <c r="F116">
+        <v>10</v>
+      </c>
+      <c r="G116">
+        <v>9</v>
+      </c>
+      <c r="H116">
+        <v>-0.89</v>
+      </c>
+      <c r="I116">
+        <v>-15.3</v>
+      </c>
+      <c r="J116">
+        <v>0.92</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>20</v>
+      </c>
+      <c r="M116">
+        <v>10</v>
+      </c>
+      <c r="N116">
+        <v>9</v>
+      </c>
+      <c r="O116">
+        <v>-0.2</v>
+      </c>
+      <c r="P116">
+        <v>15.87</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <v>2</v>
+      </c>
+      <c r="S116">
+        <v>20</v>
+      </c>
+      <c r="T116">
+        <v>14</v>
+      </c>
+      <c r="U116">
+        <v>14</v>
+      </c>
+      <c r="V116">
+        <v>5</v>
+      </c>
+      <c r="W116">
+        <v>20</v>
+      </c>
+      <c r="X116">
+        <v>20</v>
+      </c>
+      <c r="Y116">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25">
+      <c r="A117" s="2">
+        <v>45791.85926637732</v>
+      </c>
+      <c r="B117" t="s">
+        <v>33</v>
+      </c>
+      <c r="C117" t="s">
+        <v>45</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" t="s">
+        <v>133</v>
+      </c>
+      <c r="F117">
+        <v>10</v>
+      </c>
+      <c r="G117">
+        <v>9</v>
+      </c>
+      <c r="H117">
+        <v>-0.89</v>
+      </c>
+      <c r="I117">
+        <v>-15.3</v>
+      </c>
+      <c r="J117">
+        <v>0.92</v>
+      </c>
+      <c r="K117">
+        <v>2</v>
+      </c>
+      <c r="L117">
+        <v>20</v>
+      </c>
+      <c r="M117">
+        <v>10</v>
+      </c>
+      <c r="N117">
+        <v>10</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>0</v>
+      </c>
+      <c r="S117">
+        <v>0</v>
+      </c>
+      <c r="T117">
+        <v>14</v>
+      </c>
+      <c r="U117">
+        <v>14</v>
+      </c>
+      <c r="V117">
+        <v>5</v>
+      </c>
+      <c r="W117">
+        <v>20</v>
+      </c>
+      <c r="X117">
+        <v>20</v>
+      </c>
+      <c r="Y117">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25">
+      <c r="A118" s="2">
+        <v>45791.85957752315</v>
+      </c>
+      <c r="B118" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118" t="s">
+        <v>46</v>
+      </c>
+      <c r="D118" t="s">
+        <v>80</v>
+      </c>
+      <c r="E118" t="s">
+        <v>134</v>
+      </c>
+      <c r="F118">
+        <v>10</v>
+      </c>
+      <c r="G118">
+        <v>9</v>
+      </c>
+      <c r="H118">
+        <v>-0.89</v>
+      </c>
+      <c r="I118">
+        <v>-15.3</v>
+      </c>
+      <c r="J118">
+        <v>0.92</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>20</v>
+      </c>
+      <c r="M118">
+        <v>10</v>
+      </c>
+      <c r="N118">
+        <v>9</v>
+      </c>
+      <c r="O118">
+        <v>-1.97</v>
+      </c>
+      <c r="P118">
+        <v>-9.07</v>
+      </c>
+      <c r="Q118">
+        <v>3.12</v>
+      </c>
+      <c r="R118">
+        <v>7</v>
+      </c>
+      <c r="S118">
+        <v>70</v>
+      </c>
+      <c r="T118">
+        <v>5</v>
+      </c>
+      <c r="U118">
+        <v>20</v>
+      </c>
+      <c r="V118">
+        <v>20</v>
+      </c>
+      <c r="W118">
+        <v>20</v>
+      </c>
+      <c r="X118">
+        <v>20</v>
+      </c>
+      <c r="Y118">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25">
+      <c r="A119" s="2">
+        <v>45791.85993990741</v>
+      </c>
+      <c r="B119" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119" t="s">
+        <v>45</v>
+      </c>
+      <c r="D119" t="s">
+        <v>70</v>
+      </c>
+      <c r="E119" t="s">
+        <v>107</v>
+      </c>
+      <c r="F119">
+        <v>10</v>
+      </c>
+      <c r="G119">
+        <v>9</v>
+      </c>
+      <c r="H119">
+        <v>-0.89</v>
+      </c>
+      <c r="I119">
+        <v>-15.3</v>
+      </c>
+      <c r="J119">
+        <v>0.92</v>
+      </c>
+      <c r="K119">
+        <v>2</v>
+      </c>
+      <c r="L119">
+        <v>20</v>
+      </c>
+      <c r="M119">
+        <v>10</v>
+      </c>
+      <c r="N119">
+        <v>10</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <v>0</v>
+      </c>
+      <c r="S119">
+        <v>0</v>
+      </c>
+      <c r="T119">
+        <v>14</v>
+      </c>
+      <c r="U119">
+        <v>14</v>
+      </c>
+      <c r="V119">
+        <v>5</v>
+      </c>
+      <c r="W119">
+        <v>20</v>
+      </c>
+      <c r="X119">
+        <v>20</v>
+      </c>
+      <c r="Y119">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25">
+      <c r="A120" s="2">
+        <v>45791.86025694444</v>
+      </c>
+      <c r="B120" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120" t="s">
+        <v>45</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" t="s">
+        <v>135</v>
+      </c>
+      <c r="F120">
+        <v>10</v>
+      </c>
+      <c r="G120">
+        <v>9</v>
+      </c>
+      <c r="H120">
+        <v>-0.89</v>
+      </c>
+      <c r="I120">
+        <v>-15.3</v>
+      </c>
+      <c r="J120">
+        <v>0.92</v>
+      </c>
+      <c r="K120">
+        <v>2</v>
+      </c>
+      <c r="L120">
+        <v>20</v>
+      </c>
+      <c r="M120">
+        <v>10</v>
+      </c>
+      <c r="N120">
+        <v>10</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>0</v>
+      </c>
+      <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <v>14</v>
+      </c>
+      <c r="U120">
+        <v>14</v>
+      </c>
+      <c r="V120">
+        <v>5</v>
+      </c>
+      <c r="W120">
+        <v>20</v>
+      </c>
+      <c r="X120">
+        <v>20</v>
+      </c>
+      <c r="Y120">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25">
+      <c r="A121" s="2">
+        <v>45791.86055694445</v>
+      </c>
+      <c r="B121" t="s">
+        <v>33</v>
+      </c>
+      <c r="C121" t="s">
+        <v>45</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" t="s">
+        <v>106</v>
+      </c>
+      <c r="F121">
+        <v>10</v>
+      </c>
+      <c r="G121">
+        <v>9</v>
+      </c>
+      <c r="H121">
+        <v>-0.89</v>
+      </c>
+      <c r="I121">
+        <v>-15.3</v>
+      </c>
+      <c r="J121">
+        <v>0.92</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>20</v>
+      </c>
+      <c r="M121">
+        <v>10</v>
+      </c>
+      <c r="N121">
+        <v>9</v>
+      </c>
+      <c r="O121">
+        <v>-0.4</v>
+      </c>
+      <c r="P121">
+        <v>5.74</v>
+      </c>
+      <c r="Q121">
+        <v>0.28</v>
+      </c>
+      <c r="R121">
+        <v>6</v>
+      </c>
+      <c r="S121">
+        <v>60</v>
+      </c>
+      <c r="T121">
+        <v>14</v>
+      </c>
+      <c r="U121">
+        <v>14</v>
+      </c>
+      <c r="V121">
+        <v>5</v>
+      </c>
+      <c r="W121">
+        <v>20</v>
+      </c>
+      <c r="X121">
+        <v>20</v>
+      </c>
+      <c r="Y121">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25">
+      <c r="A122" s="2">
+        <v>45791.86088319444</v>
+      </c>
+      <c r="B122" t="s">
+        <v>33</v>
+      </c>
+      <c r="C122" t="s">
+        <v>46</v>
+      </c>
+      <c r="D122" t="s">
+        <v>68</v>
+      </c>
+      <c r="E122" t="s">
+        <v>105</v>
+      </c>
+      <c r="F122">
+        <v>10</v>
+      </c>
+      <c r="G122">
+        <v>9</v>
+      </c>
+      <c r="H122">
+        <v>-0.89</v>
+      </c>
+      <c r="I122">
+        <v>-15.3</v>
+      </c>
+      <c r="J122">
+        <v>0.92</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>20</v>
+      </c>
+      <c r="M122">
+        <v>10</v>
+      </c>
+      <c r="N122">
+        <v>9</v>
+      </c>
+      <c r="O122">
+        <v>-1.97</v>
+      </c>
+      <c r="P122">
+        <v>-9.07</v>
+      </c>
+      <c r="Q122">
+        <v>3.12</v>
+      </c>
+      <c r="R122">
+        <v>7</v>
+      </c>
+      <c r="S122">
+        <v>70</v>
+      </c>
+      <c r="T122">
+        <v>5</v>
+      </c>
+      <c r="U122">
+        <v>20</v>
+      </c>
+      <c r="V122">
+        <v>20</v>
+      </c>
+      <c r="W122">
+        <v>20</v>
+      </c>
+      <c r="X122">
+        <v>20</v>
+      </c>
+      <c r="Y122">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25">
+      <c r="A123" s="2">
+        <v>45791.861203125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>33</v>
+      </c>
+      <c r="C123" t="s">
+        <v>45</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" t="s">
+        <v>106</v>
+      </c>
+      <c r="F123">
+        <v>10</v>
+      </c>
+      <c r="G123">
+        <v>9</v>
+      </c>
+      <c r="H123">
+        <v>-0.89</v>
+      </c>
+      <c r="I123">
+        <v>-15.3</v>
+      </c>
+      <c r="J123">
+        <v>0.92</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>20</v>
+      </c>
+      <c r="M123">
+        <v>10</v>
+      </c>
+      <c r="N123">
+        <v>9</v>
+      </c>
+      <c r="O123">
+        <v>-0.4</v>
+      </c>
+      <c r="P123">
+        <v>5.74</v>
+      </c>
+      <c r="Q123">
+        <v>0.28</v>
+      </c>
+      <c r="R123">
+        <v>6</v>
+      </c>
+      <c r="S123">
+        <v>60</v>
+      </c>
+      <c r="T123">
+        <v>14</v>
+      </c>
+      <c r="U123">
+        <v>14</v>
+      </c>
+      <c r="V123">
+        <v>5</v>
+      </c>
+      <c r="W123">
+        <v>20</v>
+      </c>
+      <c r="X123">
+        <v>20</v>
+      </c>
+      <c r="Y123">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25">
+      <c r="A124" s="2">
+        <v>45791.86152640046</v>
+      </c>
+      <c r="B124" t="s">
+        <v>33</v>
+      </c>
+      <c r="C124" t="s">
+        <v>45</v>
+      </c>
+      <c r="D124" t="s">
+        <v>81</v>
+      </c>
+      <c r="E124" t="s">
+        <v>136</v>
+      </c>
+      <c r="F124">
+        <v>10</v>
+      </c>
+      <c r="G124">
+        <v>9</v>
+      </c>
+      <c r="H124">
+        <v>-0.89</v>
+      </c>
+      <c r="I124">
+        <v>-15.3</v>
+      </c>
+      <c r="J124">
+        <v>0.92</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>20</v>
+      </c>
+      <c r="M124">
+        <v>10</v>
+      </c>
+      <c r="N124">
+        <v>10</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <v>0</v>
+      </c>
+      <c r="S124">
+        <v>0</v>
+      </c>
+      <c r="T124">
+        <v>14</v>
+      </c>
+      <c r="U124">
+        <v>14</v>
+      </c>
+      <c r="V124">
+        <v>5</v>
+      </c>
+      <c r="W124">
+        <v>20</v>
+      </c>
+      <c r="X124">
+        <v>20</v>
+      </c>
+      <c r="Y124">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25">
+      <c r="A125" s="2">
+        <v>45791.8618190162</v>
+      </c>
+      <c r="B125" t="s">
+        <v>33</v>
+      </c>
+      <c r="C125" t="s">
+        <v>47</v>
+      </c>
+      <c r="D125" t="s">
+        <v>73</v>
+      </c>
+      <c r="E125" t="s">
+        <v>113</v>
+      </c>
+      <c r="F125">
+        <v>10</v>
+      </c>
+      <c r="G125">
+        <v>9</v>
+      </c>
+      <c r="H125">
+        <v>-0.89</v>
+      </c>
+      <c r="I125">
+        <v>-15.3</v>
+      </c>
+      <c r="J125">
+        <v>0.92</v>
+      </c>
+      <c r="K125">
+        <v>2</v>
+      </c>
+      <c r="L125">
+        <v>20</v>
+      </c>
+      <c r="M125">
+        <v>10</v>
+      </c>
+      <c r="N125">
+        <v>9</v>
+      </c>
+      <c r="O125">
+        <v>-0.2</v>
+      </c>
+      <c r="P125">
+        <v>15.87</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>2</v>
+      </c>
+      <c r="S125">
+        <v>20</v>
+      </c>
+      <c r="T125">
+        <v>14</v>
+      </c>
+      <c r="U125">
+        <v>14</v>
+      </c>
+      <c r="V125">
+        <v>5</v>
+      </c>
+      <c r="W125">
+        <v>20</v>
+      </c>
+      <c r="X125">
+        <v>20</v>
+      </c>
+      <c r="Y125">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25">
+      <c r="A126" s="2">
+        <v>45791.86212575231</v>
+      </c>
+      <c r="B126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C126" t="s">
+        <v>46</v>
+      </c>
+      <c r="D126" t="s">
+        <v>68</v>
+      </c>
+      <c r="E126" t="s">
+        <v>105</v>
+      </c>
+      <c r="F126">
+        <v>10</v>
+      </c>
+      <c r="G126">
+        <v>9</v>
+      </c>
+      <c r="H126">
+        <v>-0.89</v>
+      </c>
+      <c r="I126">
+        <v>-15.3</v>
+      </c>
+      <c r="J126">
+        <v>0.92</v>
+      </c>
+      <c r="K126">
+        <v>2</v>
+      </c>
+      <c r="L126">
+        <v>20</v>
+      </c>
+      <c r="M126">
+        <v>10</v>
+      </c>
+      <c r="N126">
+        <v>9</v>
+      </c>
+      <c r="O126">
+        <v>-1.97</v>
+      </c>
+      <c r="P126">
+        <v>-9.07</v>
+      </c>
+      <c r="Q126">
+        <v>3.12</v>
+      </c>
+      <c r="R126">
+        <v>7</v>
+      </c>
+      <c r="S126">
+        <v>70</v>
+      </c>
+      <c r="T126">
+        <v>5</v>
+      </c>
+      <c r="U126">
+        <v>20</v>
+      </c>
+      <c r="V126">
+        <v>20</v>
+      </c>
+      <c r="W126">
+        <v>20</v>
+      </c>
+      <c r="X126">
+        <v>20</v>
+      </c>
+      <c r="Y126">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25">
+      <c r="A127" s="2">
+        <v>45791.86243322917</v>
+      </c>
+      <c r="B127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C127" t="s">
+        <v>45</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" t="s">
+        <v>106</v>
+      </c>
+      <c r="F127">
+        <v>10</v>
+      </c>
+      <c r="G127">
+        <v>9</v>
+      </c>
+      <c r="H127">
+        <v>-0.89</v>
+      </c>
+      <c r="I127">
+        <v>-15.3</v>
+      </c>
+      <c r="J127">
+        <v>0.92</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>20</v>
+      </c>
+      <c r="M127">
+        <v>10</v>
+      </c>
+      <c r="N127">
+        <v>9</v>
+      </c>
+      <c r="O127">
+        <v>-0.4</v>
+      </c>
+      <c r="P127">
+        <v>5.74</v>
+      </c>
+      <c r="Q127">
+        <v>0.28</v>
+      </c>
+      <c r="R127">
+        <v>6</v>
+      </c>
+      <c r="S127">
+        <v>60</v>
+      </c>
+      <c r="T127">
+        <v>14</v>
+      </c>
+      <c r="U127">
+        <v>14</v>
+      </c>
+      <c r="V127">
+        <v>5</v>
+      </c>
+      <c r="W127">
+        <v>20</v>
+      </c>
+      <c r="X127">
+        <v>20</v>
+      </c>
+      <c r="Y127">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25">
+      <c r="A128" s="2">
+        <v>45791.86332027778</v>
+      </c>
+      <c r="B128" t="s">
+        <v>33</v>
+      </c>
+      <c r="C128" t="s">
+        <v>45</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" t="s">
+        <v>106</v>
+      </c>
+      <c r="F128">
+        <v>10</v>
+      </c>
+      <c r="G128">
+        <v>9</v>
+      </c>
+      <c r="H128">
+        <v>-0.89</v>
+      </c>
+      <c r="I128">
+        <v>-15.3</v>
+      </c>
+      <c r="J128">
+        <v>0.92</v>
+      </c>
+      <c r="K128">
+        <v>2</v>
+      </c>
+      <c r="L128">
+        <v>20</v>
+      </c>
+      <c r="M128">
+        <v>10</v>
+      </c>
+      <c r="N128">
+        <v>9</v>
+      </c>
+      <c r="O128">
+        <v>-0.4</v>
+      </c>
+      <c r="P128">
+        <v>5.74</v>
+      </c>
+      <c r="Q128">
+        <v>0.28</v>
+      </c>
+      <c r="R128">
+        <v>6</v>
+      </c>
+      <c r="S128">
+        <v>60</v>
+      </c>
+      <c r="T128">
+        <v>14</v>
+      </c>
+      <c r="U128">
+        <v>14</v>
+      </c>
+      <c r="V128">
+        <v>5</v>
+      </c>
+      <c r="W128">
+        <v>20</v>
+      </c>
+      <c r="X128">
+        <v>20</v>
+      </c>
+      <c r="Y128">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25">
+      <c r="A129" s="2">
+        <v>45791.86364005787</v>
+      </c>
+      <c r="B129" t="s">
+        <v>33</v>
+      </c>
+      <c r="C129" t="s">
+        <v>45</v>
+      </c>
+      <c r="D129" t="s">
+        <v>76</v>
+      </c>
+      <c r="E129" t="s">
+        <v>137</v>
+      </c>
+      <c r="F129">
+        <v>10</v>
+      </c>
+      <c r="G129">
+        <v>9</v>
+      </c>
+      <c r="H129">
+        <v>-0.89</v>
+      </c>
+      <c r="I129">
+        <v>-15.3</v>
+      </c>
+      <c r="J129">
+        <v>0.92</v>
+      </c>
+      <c r="K129">
+        <v>2</v>
+      </c>
+      <c r="L129">
+        <v>20</v>
+      </c>
+      <c r="M129">
+        <v>10</v>
+      </c>
+      <c r="N129">
+        <v>10</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <v>0</v>
+      </c>
+      <c r="S129">
+        <v>0</v>
+      </c>
+      <c r="T129">
+        <v>5</v>
+      </c>
+      <c r="U129">
+        <v>20</v>
+      </c>
+      <c r="W129">
+        <v>20</v>
+      </c>
+      <c r="X129">
+        <v>20</v>
+      </c>
+      <c r="Y129">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25">
+      <c r="A130" s="2">
+        <v>45791.8639434375</v>
+      </c>
+      <c r="B130" t="s">
+        <v>33</v>
+      </c>
+      <c r="C130" t="s">
+        <v>45</v>
+      </c>
+      <c r="D130" t="s">
+        <v>70</v>
+      </c>
+      <c r="E130" t="s">
+        <v>107</v>
+      </c>
+      <c r="F130">
+        <v>10</v>
+      </c>
+      <c r="G130">
+        <v>9</v>
+      </c>
+      <c r="H130">
+        <v>-0.89</v>
+      </c>
+      <c r="I130">
+        <v>-15.3</v>
+      </c>
+      <c r="J130">
+        <v>0.92</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>20</v>
+      </c>
+      <c r="M130">
+        <v>10</v>
+      </c>
+      <c r="N130">
+        <v>10</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <v>0</v>
+      </c>
+      <c r="S130">
+        <v>0</v>
+      </c>
+      <c r="T130">
+        <v>14</v>
+      </c>
+      <c r="U130">
+        <v>14</v>
+      </c>
+      <c r="V130">
+        <v>5</v>
+      </c>
+      <c r="W130">
+        <v>20</v>
+      </c>
+      <c r="X130">
+        <v>20</v>
+      </c>
+      <c r="Y130">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25">
+      <c r="A131" s="2">
+        <v>45791.86425457176</v>
+      </c>
+      <c r="B131" t="s">
+        <v>33</v>
+      </c>
+      <c r="C131" t="s">
+        <v>45</v>
+      </c>
+      <c r="D131" t="s">
+        <v>76</v>
+      </c>
+      <c r="E131" t="s">
+        <v>138</v>
+      </c>
+      <c r="F131">
+        <v>10</v>
+      </c>
+      <c r="G131">
+        <v>9</v>
+      </c>
+      <c r="H131">
+        <v>-0.89</v>
+      </c>
+      <c r="I131">
+        <v>-15.3</v>
+      </c>
+      <c r="J131">
+        <v>0.92</v>
+      </c>
+      <c r="K131">
+        <v>2</v>
+      </c>
+      <c r="L131">
+        <v>20</v>
+      </c>
+      <c r="M131">
+        <v>10</v>
+      </c>
+      <c r="N131">
+        <v>10</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>0</v>
+      </c>
+      <c r="S131">
+        <v>0</v>
+      </c>
+      <c r="T131">
+        <v>5</v>
+      </c>
+      <c r="U131">
+        <v>20</v>
+      </c>
+      <c r="V131">
+        <v>14</v>
+      </c>
+      <c r="W131">
+        <v>20</v>
+      </c>
+      <c r="X131">
+        <v>20</v>
+      </c>
+      <c r="Y131">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25">
+      <c r="A132" s="2">
+        <v>45791.86454346065</v>
+      </c>
+      <c r="B132" t="s">
+        <v>33</v>
+      </c>
+      <c r="C132" t="s">
+        <v>45</v>
+      </c>
+      <c r="D132" t="s">
+        <v>82</v>
+      </c>
+      <c r="E132" t="s">
+        <v>139</v>
+      </c>
+      <c r="F132">
+        <v>10</v>
+      </c>
+      <c r="G132">
+        <v>9</v>
+      </c>
+      <c r="H132">
+        <v>-0.89</v>
+      </c>
+      <c r="I132">
+        <v>-15.3</v>
+      </c>
+      <c r="J132">
+        <v>0.92</v>
+      </c>
+      <c r="K132">
+        <v>2</v>
+      </c>
+      <c r="L132">
+        <v>20</v>
+      </c>
+      <c r="M132">
+        <v>10</v>
+      </c>
+      <c r="N132">
+        <v>10</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="R132">
+        <v>0</v>
+      </c>
+      <c r="S132">
+        <v>0</v>
+      </c>
+      <c r="W132">
+        <v>20</v>
+      </c>
+      <c r="X132">
+        <v>20</v>
+      </c>
+      <c r="Y132">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25">
+      <c r="A133" s="2">
+        <v>45791.86485907408</v>
+      </c>
+      <c r="B133" t="s">
+        <v>33</v>
+      </c>
+      <c r="C133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D133" t="s">
+        <v>83</v>
+      </c>
+      <c r="E133" t="s">
+        <v>140</v>
+      </c>
+      <c r="F133">
+        <v>10</v>
+      </c>
+      <c r="G133">
+        <v>9</v>
+      </c>
+      <c r="H133">
+        <v>-0.89</v>
+      </c>
+      <c r="I133">
+        <v>-15.3</v>
+      </c>
+      <c r="J133">
+        <v>0.92</v>
+      </c>
+      <c r="K133">
+        <v>2</v>
+      </c>
+      <c r="L133">
+        <v>20</v>
+      </c>
+      <c r="M133">
+        <v>10</v>
+      </c>
+      <c r="N133">
+        <v>9</v>
+      </c>
+      <c r="O133">
+        <v>-0.2</v>
+      </c>
+      <c r="P133">
+        <v>15.87</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <v>2</v>
+      </c>
+      <c r="S133">
+        <v>20</v>
+      </c>
+      <c r="T133">
+        <v>14</v>
+      </c>
+      <c r="U133">
+        <v>14</v>
+      </c>
+      <c r="V133">
+        <v>5</v>
+      </c>
+      <c r="W133">
+        <v>20</v>
+      </c>
+      <c r="X133">
+        <v>20</v>
+      </c>
+      <c r="Y133">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25">
+      <c r="A134" s="2">
+        <v>45791.86522829861</v>
+      </c>
+      <c r="B134" t="s">
+        <v>33</v>
+      </c>
+      <c r="C134" t="s">
+        <v>45</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" t="s">
+        <v>106</v>
+      </c>
+      <c r="F134">
+        <v>10</v>
+      </c>
+      <c r="G134">
+        <v>9</v>
+      </c>
+      <c r="H134">
+        <v>-0.89</v>
+      </c>
+      <c r="I134">
+        <v>-15.3</v>
+      </c>
+      <c r="J134">
+        <v>0.92</v>
+      </c>
+      <c r="K134">
+        <v>2</v>
+      </c>
+      <c r="L134">
+        <v>20</v>
+      </c>
+      <c r="M134">
+        <v>10</v>
+      </c>
+      <c r="N134">
+        <v>9</v>
+      </c>
+      <c r="O134">
+        <v>-0.4</v>
+      </c>
+      <c r="P134">
+        <v>5.74</v>
+      </c>
+      <c r="Q134">
+        <v>0.28</v>
+      </c>
+      <c r="R134">
+        <v>6</v>
+      </c>
+      <c r="S134">
+        <v>60</v>
+      </c>
+      <c r="T134">
+        <v>14</v>
+      </c>
+      <c r="U134">
+        <v>14</v>
+      </c>
+      <c r="V134">
+        <v>5</v>
+      </c>
+      <c r="W134">
+        <v>20</v>
+      </c>
+      <c r="X134">
+        <v>20</v>
+      </c>
+      <c r="Y134">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25">
+      <c r="A135" s="2">
+        <v>45791.86554881944</v>
+      </c>
+      <c r="B135" t="s">
+        <v>33</v>
+      </c>
+      <c r="C135" t="s">
+        <v>45</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" t="s">
+        <v>106</v>
+      </c>
+      <c r="F135">
+        <v>10</v>
+      </c>
+      <c r="G135">
+        <v>9</v>
+      </c>
+      <c r="H135">
+        <v>-0.89</v>
+      </c>
+      <c r="I135">
+        <v>-15.3</v>
+      </c>
+      <c r="J135">
+        <v>0.92</v>
+      </c>
+      <c r="K135">
+        <v>2</v>
+      </c>
+      <c r="L135">
+        <v>20</v>
+      </c>
+      <c r="M135">
+        <v>10</v>
+      </c>
+      <c r="N135">
+        <v>9</v>
+      </c>
+      <c r="O135">
+        <v>-0.4</v>
+      </c>
+      <c r="P135">
+        <v>5.74</v>
+      </c>
+      <c r="Q135">
+        <v>0.28</v>
+      </c>
+      <c r="R135">
+        <v>6</v>
+      </c>
+      <c r="S135">
+        <v>60</v>
+      </c>
+      <c r="T135">
+        <v>14</v>
+      </c>
+      <c r="U135">
+        <v>14</v>
+      </c>
+      <c r="V135">
+        <v>5</v>
+      </c>
+      <c r="W135">
+        <v>20</v>
+      </c>
+      <c r="X135">
+        <v>20</v>
+      </c>
+      <c r="Y135">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25">
+      <c r="A136" s="2">
+        <v>45791.8658706713</v>
+      </c>
+      <c r="B136" t="s">
+        <v>33</v>
+      </c>
+      <c r="C136" t="s">
+        <v>47</v>
+      </c>
+      <c r="D136" t="s">
+        <v>73</v>
+      </c>
+      <c r="E136" t="s">
+        <v>113</v>
+      </c>
+      <c r="F136">
+        <v>10</v>
+      </c>
+      <c r="G136">
+        <v>9</v>
+      </c>
+      <c r="H136">
+        <v>-0.89</v>
+      </c>
+      <c r="I136">
+        <v>-15.3</v>
+      </c>
+      <c r="J136">
+        <v>0.92</v>
+      </c>
+      <c r="K136">
+        <v>2</v>
+      </c>
+      <c r="L136">
+        <v>20</v>
+      </c>
+      <c r="M136">
+        <v>10</v>
+      </c>
+      <c r="N136">
+        <v>9</v>
+      </c>
+      <c r="O136">
+        <v>-0.2</v>
+      </c>
+      <c r="P136">
+        <v>15.87</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>2</v>
+      </c>
+      <c r="S136">
+        <v>20</v>
+      </c>
+      <c r="T136">
+        <v>14</v>
+      </c>
+      <c r="U136">
+        <v>14</v>
+      </c>
+      <c r="V136">
+        <v>5</v>
+      </c>
+      <c r="W136">
+        <v>20</v>
+      </c>
+      <c r="X136">
+        <v>20</v>
+      </c>
+      <c r="Y136">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25">
+      <c r="A137" s="2">
+        <v>45791.86617868919</v>
+      </c>
+      <c r="B137" t="s">
+        <v>33</v>
+      </c>
+      <c r="C137" t="s">
+        <v>45</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" t="s">
+        <v>106</v>
+      </c>
+      <c r="F137">
+        <v>10</v>
+      </c>
+      <c r="G137">
+        <v>9</v>
+      </c>
+      <c r="H137">
+        <v>-0.89</v>
+      </c>
+      <c r="I137">
+        <v>-15.3</v>
+      </c>
+      <c r="J137">
+        <v>0.92</v>
+      </c>
+      <c r="K137">
+        <v>2</v>
+      </c>
+      <c r="L137">
+        <v>20</v>
+      </c>
+      <c r="M137">
+        <v>10</v>
+      </c>
+      <c r="N137">
+        <v>9</v>
+      </c>
+      <c r="O137">
+        <v>-0.4</v>
+      </c>
+      <c r="P137">
+        <v>5.74</v>
+      </c>
+      <c r="Q137">
+        <v>0.28</v>
+      </c>
+      <c r="R137">
+        <v>6</v>
+      </c>
+      <c r="S137">
+        <v>60</v>
+      </c>
+      <c r="T137">
+        <v>14</v>
+      </c>
+      <c r="U137">
+        <v>14</v>
+      </c>
+      <c r="V137">
+        <v>5</v>
+      </c>
+      <c r="W137">
+        <v>20</v>
+      </c>
+      <c r="X137">
+        <v>20</v>
+      </c>
+      <c r="Y137">
         <v>14</v>
       </c>
     </row>

--- a/reports/strategy_results.xlsx
+++ b/reports/strategy_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="146">
   <si>
     <t>timestamp</t>
   </si>
@@ -924,6 +924,19 @@
 2. **Looser, More Effective Conditions**: Used a combination of RSI for momentum and a simple MA crossover for trend identification.
 3. **Volatility Awareness**: Incorporated a basic volatility filter using rolling standard deviation to avoid trading in extremely volatile conditions.
 4. **Inspiration from Historical Strategy**: Incorporated elements that focus on short-term trend identification and reversal signals.
+### 2. Revised Python Strategy Function</t>
+  </si>
+  <si>
+    <t>### 1. Brief Explanation of Weaknesses and Improvements
+**Weaknesses in the Original Strategy:**
+1. **Infrequent Signals**: The original strategy generates very few trades (only 2 in 5 days), which might not be effective for intraday trading on 5-minute bars.
+2. **Overly Restrictive Conditions**: Combining RSI extremes with Bollinger Band breaches might be too restrictive, leading to infrequent signals.
+3. **Lack of Diversified Signals**: Reliance on a single strategy (momentum reversal based on recent trends and 3-period highs/lows) without considering other market aspects (e.g., volatility, mean reversion).
+4. **Historical Top Strategy Provided but Not Analyzed**: Though provided, the historical top strategy's strengths/weaknesses aren't discussed, but it seems to offer more frequent trading decisions based on trend reversals.
+**Improvements in the Revised Strategy:**
+- **Increased Signal Frequency**: By using less restrictive conditions.
+- **Diversified Signal Generation**: Combining mean reversion (RSI) with trend following (MA crossover) and a basic volatility filter.
+- **Simplified Conditions for Executability**: Ensuring the strategy can generate at least 5-15 trades over 5 days on 5-minute data.
 ### 2. Revised Python Strategy Function</t>
   </si>
   <si>
@@ -3053,6 +3066,153 @@
     df['signal'] = pd.Series(df['signal'].values, index=df.index)
     return df</t>
   </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a volatility-adjusted RSI strategy with trend confirmation.
+    Parameters:
+    - df (DataFrame): Input DataFrame with 'Open', 'High', 'Low', 'Close', 'Volume' columns.
+    Returns:
+    - df (DataFrame): Modified DataFrame with the added 'signal' column.
+    """
+    # Calculate Standard RSI (Relative Strength Index)
+    df['Delta'] = df['Close'].diff().fillna(0)
+    df['Up'] = df['Delta'].apply(lambda x: x if x &gt; 0 else 0)
+    df['Down'] = df['Delta'].apply(lambda x: -x if x &lt; 0 else 0)
+    df['Rolling_Up'] = df['Up'].rolling(window=14).mean()
+    df['Rolling_Down'] = df['Down'].rolling(window=14).mean()
+    df['RS'] = df['Rolling_Up'] / df['Rolling_Down']
+    df['RSI'] = 100 - (100 / (1 + df['RS']))
+    # Volatility-Adjusted RSI Thresholds
+    df['Volatility'] = df['Close'].rolling(window=20).std()
+    df['Lower_RSI_Threshold'] = 30 + (df['Volatility'] / df['Close']) * 100 * 5  # Adjust threshold with volatility
+    df['Upper_RSI_Threshold'] = 70 - (df['Volatility'] / df['Close']) * 100 * 5
+    # Trend Confirmation with Moving Averages
+    df['MA_Fast'] = df['Close'].rolling(window=50).mean()  # Fast MA for trend direction
+    df['MA_Slow'] = df['Close'].rolling(window=100).mean()  # Slow MA for overall trend
+    # Signal Generation
+    df['signal'] = 0  # Default to Hold
+    # Buy Condition: RSI below lower threshold, price above fast MA, and fast MA above slow MA
+    buy_condition = (df['RSI'] &lt; df['Lower_RSI_Threshold']) &amp; (df['Close'] &gt; df['MA_Fast']) &amp; (df['MA_Fast'] &gt; df['MA_Slow'])
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    # Sell Condition: RSI above upper threshold, price below fast MA, and fast MA below slow MA
+    sell_condition = (df['RSI'] &gt; df['Upper_RSI_Threshold']) &amp; (df['Close'] &lt; df['MA_Fast']) &amp; (df['MA_Fast'] &lt; df['MA_Slow'])
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Clean up temporary columns (optional, for memory efficiency)
+    # df.drop(columns=['Delta', 'Up', 'Down', 'Rolling_Up', 'Rolling_Down', 'RS', 'Volatility', 'Lower_RSI_Threshold', 'Upper_RSI_Threshold', 'MA_Fast', 'MA_Slow'], inplace=True)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a combined RSI mean reversion, 
+    MA crossover trend following, and a simple volatility filter.
+    Parameters:
+    - df (DataFrame): Must contain 'Open', 'High', 'Low', 'Close', 'Volume' columns.
+    Returns:
+    - DataFrame with an additional 'signal' column (-1 for sell, 0 for hold, 1 for buy).
+    """
+    # Ensure necessary columns are present (assuming OHLCV data)
+    required_columns = ['Open', 'High', 'Low', 'Close', 'Volume']
+    if not all(col in df.columns for col in required_columns):
+        raise ValueError("DataFrame must contain 'Open', 'High', 'Low', 'Close', 'Volume' columns.")
+    # Calculate RSI with a 14-period window for mean reversion signals
+    df['Delta'] = df['Close'].diff().fillna(0)
+    df['Up'], df['Down'] = df['Delta'].clip(lower=0), df['Delta'].clip(upper=0).abs()
+    df['AvgUp'] = df['Up'].rolling(window=14).mean()
+    df['AvgDown'] = df['Down'].rolling(window=14).mean()
+    df['RS'] = df['AvgUp'] / df['AvgDown']
+    df['RSI'] = 100 - (100 / (1 + df['RS']))
+    # MA Crossover for Trend Following
+    df['MA5'] = df['Close'].rolling(window=5).mean()
+    df['MA20'] = df['Close'].rolling(window=20).mean()
+    # Simple Volatility Filter using Rolling Standard Deviation
+    df['Volatility'] = df['Close'].rolling(window=20).std()
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Buy Condition: RSI &lt; 40 (mean reversion), MA5 &gt; MA20 (uptrend), and not too volatile
+    buy_condition = (df['RSI'] &lt; 40) &amp; (df['MA5'] &gt; df['MA20']) &amp; (df['Volatility'] &lt; df['Volatility'].mean())
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    # Sell Condition: RSI &gt; 60 (mean reversion), MA5 &lt; MA20 (downtrend), and not too volatile
+    sell_condition = (df['RSI'] &gt; 60) &amp; (df['MA5'] &lt; df['MA20']) &amp; (df['Volatility'] &lt; df['Volatility'].mean())
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Ensure 'signal' column uses the same index as df
+    df['signal'] = pd.Series(df['signal'].values, index=df.index)
+    # Drop intermediate calculations to keep df clean
+    df.drop(columns=['Delta', 'Up', 'Down', 'AvgUp', 'AvgDown', 'RS', 'Volatility'], inplace=True)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a trend and volatility strategy.
+    Parameters:
+    - df (DataFrame): Must contain 'Open', 'High', 'Low', 'Close' columns.
+    Returns:
+    - df (DataFrame): With an additional 'signal' column (-1 for Sell, 0 for Hold, 1 for Buy).
+    """
+    # Ensure necessary columns are present
+    required_columns = ['Open', 'High', 'Low', 'Close']
+    if not all(col in df.columns for col in required_columns):
+        raise ValueError("DataFrame must contain 'Open', 'High', 'Low', 'Close' columns.")
+    # Calculate Moving Averages
+    df['MA5'] = df['Close'].rolling(window=5).mean()
+    df['MA20'] = df['Close'].rolling(window=20).mean()
+    # Calculate Average True Range (ATR) for volatility
+    df['HL'] = df['High'] - df['Low']
+    df['HPC'] = np.abs(df['High'] - df['Close'].shift(1))
+    df['LPC'] = np.abs(df['Low'] - df['Close'].shift(1))
+    df['TR'] = df[['HL', 'HPC', 'LPC']].max(axis=1)
+    df['ATR'] = df['TR'].rolling(window=20).mean()
+    # Calculate ATR Bands
+    df['Upper_ATR_Band'] = df['Close'] + 1 * df['ATR']
+    df['Lower_ATR_Band'] = df['Close'] - 1 * df['ATR']
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Generate Buy Signals
+    buy_condition = (df['MA5'] &gt; df['MA20']) &amp; (df['Low'] &gt; df['Lower_ATR_Band'])
+    df.loc[buy_condition, 'signal'] = 1
+    # Generate Sell Signals
+    sell_condition = (df['MA5'] &lt; df['MA20']) &amp; (df['High'] &lt; df['Upper_ATR_Band'])
+    df.loc[sell_condition, 'signal'] = -1
+    # Ensure signal Series uses the same index as df
+    df['signal'] = pd.Series(df['signal'].values, index=df.index)
+    return df</t>
+  </si>
+  <si>
+    <t>def add_signal(df):
+    """
+    Adds a 'signal' column to the DataFrame based on a combined RSI, MA Crossover, and Volatility Filter Strategy.
+    Parameters:
+    - df (DataFrame): Input DataFrame with 'Open', 'High', 'Low', 'Close', 'Volume' columns.
+    Returns:
+    - df (DataFrame): Modified DataFrame with the added 'signal' column.
+    """
+    # Calculate RSI with a 14-period window
+    df['Delta'] = df['Close'].diff().fillna(0)
+    df['Up'], df['Down'] = df['Delta'].copy(), df['Delta'].copy()
+    df['Up'][df['Up'] &lt; 0] = 0
+    df['Down'][df['Down'] &gt; 0] = 0
+    df['Roll_Up'] = df['Up'].rolling(window=14).mean()
+    df['Roll_Down'] = df['Down'].rolling(window=14).mean().abs()
+    df['RSI'] = 100 - (100 / (1 + (df['Roll_Up'] / df['Roll_Down'])))
+    # Simple MA Crossover
+    df['MA5'] = df['Close'].rolling(window=5).mean()
+    df['MA20'] = df['Close'].rolling(window=20).mean()
+    # Basic Volatility Filter using Rolling Std
+    df['Volatility'] = df['Close'].rolling(window=20).std()
+    # Signal Generation
+    buy_condition = (df['RSI'] &lt; 40) &amp; (df['MA5'] &gt; df['MA20']) &amp; (df['Volatility'] &lt; df['Volatility'].mean())
+    sell_condition = (df['RSI'] &gt; 60) &amp; (df['MA5'] &lt; df['MA20']) &amp; (df['Volatility'] &lt; df['Volatility'].mean())
+    # Initialize Signal Column
+    df['signal'] = 0  # Default to Hold
+    # Assign Signals
+    df.loc[buy_condition, 'signal'] = 1  # Buy
+    df.loc[sell_condition, 'signal'] = -1  # Sell
+    # Clean Up (Remove Intermediate Columns for Memory Efficiency)
+    df.drop(columns=['Delta', 'Up', 'Down', 'Roll_Up', 'Roll_Down', 'MA5', 'MA20', 'Volatility'], inplace=True)
+    return df</t>
+  </si>
 </sst>
 </file>
 
@@ -3413,7 +3573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y137"/>
+  <dimension ref="A1:Y156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3507,7 +3667,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -3563,7 +3723,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -3619,7 +3779,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -3713,7 +3873,7 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -3772,7 +3932,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -3875,7 +4035,7 @@
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -4004,7 +4164,7 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -4063,7 +4223,7 @@
         <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -4227,7 +4387,7 @@
         <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F17">
         <v>10</v>
@@ -4286,7 +4446,7 @@
         <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F18">
         <v>10</v>
@@ -4345,7 +4505,7 @@
         <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F19">
         <v>10</v>
@@ -4410,7 +4570,7 @@
         <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -4469,7 +4629,7 @@
         <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -4903,7 +5063,7 @@
         <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F31">
         <v>10</v>
@@ -5018,7 +5178,7 @@
         <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F33">
         <v>10</v>
@@ -5086,7 +5246,7 @@
         <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F34">
         <v>10</v>
@@ -5160,7 +5320,7 @@
         <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F35">
         <v>10</v>
@@ -5237,7 +5397,7 @@
         <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F36">
         <v>10</v>
@@ -5305,7 +5465,7 @@
         <v>62</v>
       </c>
       <c r="E37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F37">
         <v>10</v>
@@ -5370,7 +5530,7 @@
         <v>58</v>
       </c>
       <c r="E38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F38">
         <v>10</v>
@@ -5438,7 +5598,7 @@
         <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F39">
         <v>10</v>
@@ -5506,7 +5666,7 @@
         <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F40">
         <v>10</v>
@@ -5574,7 +5734,7 @@
         <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F41">
         <v>10</v>
@@ -5642,7 +5802,7 @@
         <v>58</v>
       </c>
       <c r="E42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F42">
         <v>10</v>
@@ -5710,7 +5870,7 @@
         <v>63</v>
       </c>
       <c r="E43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F43">
         <v>10</v>
@@ -5778,7 +5938,7 @@
         <v>64</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F44">
         <v>10</v>
@@ -5852,7 +6012,7 @@
         <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F45">
         <v>10</v>
@@ -5929,7 +6089,7 @@
         <v>66</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F46">
         <v>10</v>
@@ -6006,7 +6166,7 @@
         <v>65</v>
       </c>
       <c r="E47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F47">
         <v>10</v>
@@ -6083,7 +6243,7 @@
         <v>67</v>
       </c>
       <c r="E48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F48">
         <v>10</v>
@@ -6160,7 +6320,7 @@
         <v>68</v>
       </c>
       <c r="E49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F49">
         <v>10</v>
@@ -6237,7 +6397,7 @@
         <v>69</v>
       </c>
       <c r="E50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F50">
         <v>10</v>
@@ -6314,7 +6474,7 @@
         <v>70</v>
       </c>
       <c r="E51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F51">
         <v>10</v>
@@ -6391,7 +6551,7 @@
         <v>68</v>
       </c>
       <c r="E52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F52">
         <v>10</v>
@@ -6468,7 +6628,7 @@
         <v>70</v>
       </c>
       <c r="E53" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F53">
         <v>10</v>
@@ -6545,7 +6705,7 @@
         <v>70</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F54">
         <v>10</v>
@@ -6622,7 +6782,7 @@
         <v>69</v>
       </c>
       <c r="E55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F55">
         <v>10</v>
@@ -6699,7 +6859,7 @@
         <v>69</v>
       </c>
       <c r="E56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F56">
         <v>10</v>
@@ -6776,7 +6936,7 @@
         <v>69</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F57">
         <v>10</v>
@@ -6853,7 +7013,7 @@
         <v>69</v>
       </c>
       <c r="E58" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F58">
         <v>10</v>
@@ -6930,7 +7090,7 @@
         <v>69</v>
       </c>
       <c r="E59" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F59">
         <v>10</v>
@@ -7007,7 +7167,7 @@
         <v>69</v>
       </c>
       <c r="E60" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F60">
         <v>10</v>
@@ -7128,7 +7288,7 @@
         <v>71</v>
       </c>
       <c r="E62" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F62">
         <v>10</v>
@@ -7205,7 +7365,7 @@
         <v>69</v>
       </c>
       <c r="E63" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F63">
         <v>10</v>
@@ -7282,7 +7442,7 @@
         <v>69</v>
       </c>
       <c r="E64" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F64">
         <v>10</v>
@@ -7359,7 +7519,7 @@
         <v>72</v>
       </c>
       <c r="E65" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F65">
         <v>10</v>
@@ -7436,7 +7596,7 @@
         <v>70</v>
       </c>
       <c r="E66" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F66">
         <v>10</v>
@@ -7513,7 +7673,7 @@
         <v>69</v>
       </c>
       <c r="E67" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F67">
         <v>10</v>
@@ -7590,7 +7750,7 @@
         <v>69</v>
       </c>
       <c r="E68" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F68">
         <v>10</v>
@@ -7667,7 +7827,7 @@
         <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F69">
         <v>10</v>
@@ -7744,7 +7904,7 @@
         <v>68</v>
       </c>
       <c r="E70" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F70">
         <v>10</v>
@@ -7821,7 +7981,7 @@
         <v>73</v>
       </c>
       <c r="E71" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F71">
         <v>10</v>
@@ -7898,7 +8058,7 @@
         <v>69</v>
       </c>
       <c r="E72" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F72">
         <v>10</v>
@@ -7975,7 +8135,7 @@
         <v>69</v>
       </c>
       <c r="E73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F73">
         <v>10</v>
@@ -8052,7 +8212,7 @@
         <v>70</v>
       </c>
       <c r="E74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F74">
         <v>10</v>
@@ -8129,7 +8289,7 @@
         <v>69</v>
       </c>
       <c r="E75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F75">
         <v>10</v>
@@ -8250,7 +8410,7 @@
         <v>71</v>
       </c>
       <c r="E77" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F77">
         <v>10</v>
@@ -8327,7 +8487,7 @@
         <v>74</v>
       </c>
       <c r="E78" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F78">
         <v>10</v>
@@ -8404,7 +8564,7 @@
         <v>69</v>
       </c>
       <c r="E79" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F79">
         <v>10</v>
@@ -8481,7 +8641,7 @@
         <v>69</v>
       </c>
       <c r="E80" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F80">
         <v>10</v>
@@ -8558,7 +8718,7 @@
         <v>68</v>
       </c>
       <c r="E81" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F81">
         <v>10</v>
@@ -8635,7 +8795,7 @@
         <v>73</v>
       </c>
       <c r="E82" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F82">
         <v>10</v>
@@ -8712,7 +8872,7 @@
         <v>73</v>
       </c>
       <c r="E83" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F83">
         <v>10</v>
@@ -8789,7 +8949,7 @@
         <v>70</v>
       </c>
       <c r="E84" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F84">
         <v>10</v>
@@ -8866,7 +9026,7 @@
         <v>68</v>
       </c>
       <c r="E85" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F85">
         <v>10</v>
@@ -8943,7 +9103,7 @@
         <v>68</v>
       </c>
       <c r="E86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F86">
         <v>10</v>
@@ -9020,7 +9180,7 @@
         <v>69</v>
       </c>
       <c r="E87" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F87">
         <v>10</v>
@@ -9097,7 +9257,7 @@
         <v>73</v>
       </c>
       <c r="E88" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F88">
         <v>10</v>
@@ -9174,7 +9334,7 @@
         <v>73</v>
       </c>
       <c r="E89" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F89">
         <v>10</v>
@@ -9251,7 +9411,7 @@
         <v>75</v>
       </c>
       <c r="E90" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F90">
         <v>10</v>
@@ -9328,7 +9488,7 @@
         <v>70</v>
       </c>
       <c r="E91" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F91">
         <v>10</v>
@@ -9405,7 +9565,7 @@
         <v>73</v>
       </c>
       <c r="E92" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F92">
         <v>10</v>
@@ -9482,7 +9642,7 @@
         <v>69</v>
       </c>
       <c r="E93" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F93">
         <v>10</v>
@@ -9559,7 +9719,7 @@
         <v>76</v>
       </c>
       <c r="E94" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F94">
         <v>10</v>
@@ -9636,7 +9796,7 @@
         <v>77</v>
       </c>
       <c r="E95" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F95">
         <v>10</v>
@@ -9713,7 +9873,7 @@
         <v>73</v>
       </c>
       <c r="E96" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F96">
         <v>10</v>
@@ -9790,7 +9950,7 @@
         <v>69</v>
       </c>
       <c r="E97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F97">
         <v>10</v>
@@ -9867,7 +10027,7 @@
         <v>70</v>
       </c>
       <c r="E98" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F98">
         <v>10</v>
@@ -9944,7 +10104,7 @@
         <v>70</v>
       </c>
       <c r="E99" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F99">
         <v>10</v>
@@ -10021,7 +10181,7 @@
         <v>68</v>
       </c>
       <c r="E100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F100">
         <v>10</v>
@@ -10098,7 +10258,7 @@
         <v>68</v>
       </c>
       <c r="E101" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F101">
         <v>10</v>
@@ -10175,7 +10335,7 @@
         <v>78</v>
       </c>
       <c r="E102" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F102">
         <v>10</v>
@@ -10252,7 +10412,7 @@
         <v>79</v>
       </c>
       <c r="E103" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F103">
         <v>10</v>
@@ -10329,7 +10489,7 @@
         <v>69</v>
       </c>
       <c r="E104" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F104">
         <v>10</v>
@@ -10406,7 +10566,7 @@
         <v>70</v>
       </c>
       <c r="E105" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F105">
         <v>10</v>
@@ -10483,7 +10643,7 @@
         <v>73</v>
       </c>
       <c r="E106" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F106">
         <v>10</v>
@@ -10560,7 +10720,7 @@
         <v>69</v>
       </c>
       <c r="E107" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F107">
         <v>10</v>
@@ -10637,7 +10797,7 @@
         <v>69</v>
       </c>
       <c r="E108" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F108">
         <v>10</v>
@@ -10714,7 +10874,7 @@
         <v>73</v>
       </c>
       <c r="E109" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F109">
         <v>10</v>
@@ -10791,7 +10951,7 @@
         <v>69</v>
       </c>
       <c r="E110" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F110">
         <v>10</v>
@@ -10868,7 +11028,7 @@
         <v>69</v>
       </c>
       <c r="E111" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F111">
         <v>10</v>
@@ -10945,7 +11105,7 @@
         <v>69</v>
       </c>
       <c r="E112" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F112">
         <v>10</v>
@@ -11022,7 +11182,7 @@
         <v>71</v>
       </c>
       <c r="E113" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F113">
         <v>10</v>
@@ -11099,7 +11259,7 @@
         <v>69</v>
       </c>
       <c r="E114" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F114">
         <v>10</v>
@@ -11176,7 +11336,7 @@
         <v>69</v>
       </c>
       <c r="E115" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F115">
         <v>10</v>
@@ -11253,7 +11413,7 @@
         <v>73</v>
       </c>
       <c r="E116" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F116">
         <v>10</v>
@@ -11330,7 +11490,7 @@
         <v>69</v>
       </c>
       <c r="E117" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F117">
         <v>10</v>
@@ -11407,7 +11567,7 @@
         <v>80</v>
       </c>
       <c r="E118" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F118">
         <v>10</v>
@@ -11484,7 +11644,7 @@
         <v>70</v>
       </c>
       <c r="E119" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F119">
         <v>10</v>
@@ -11561,7 +11721,7 @@
         <v>69</v>
       </c>
       <c r="E120" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F120">
         <v>10</v>
@@ -11638,7 +11798,7 @@
         <v>69</v>
       </c>
       <c r="E121" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F121">
         <v>10</v>
@@ -11715,7 +11875,7 @@
         <v>68</v>
       </c>
       <c r="E122" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F122">
         <v>10</v>
@@ -11792,7 +11952,7 @@
         <v>69</v>
       </c>
       <c r="E123" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F123">
         <v>10</v>
@@ -11869,7 +12029,7 @@
         <v>81</v>
       </c>
       <c r="E124" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F124">
         <v>10</v>
@@ -11946,7 +12106,7 @@
         <v>73</v>
       </c>
       <c r="E125" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F125">
         <v>10</v>
@@ -12023,7 +12183,7 @@
         <v>68</v>
       </c>
       <c r="E126" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F126">
         <v>10</v>
@@ -12100,7 +12260,7 @@
         <v>69</v>
       </c>
       <c r="E127" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F127">
         <v>10</v>
@@ -12177,7 +12337,7 @@
         <v>69</v>
       </c>
       <c r="E128" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F128">
         <v>10</v>
@@ -12254,7 +12414,7 @@
         <v>76</v>
       </c>
       <c r="E129" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F129">
         <v>10</v>
@@ -12328,7 +12488,7 @@
         <v>70</v>
       </c>
       <c r="E130" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F130">
         <v>10</v>
@@ -12405,7 +12565,7 @@
         <v>76</v>
       </c>
       <c r="E131" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F131">
         <v>10</v>
@@ -12482,7 +12642,7 @@
         <v>82</v>
       </c>
       <c r="E132" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F132">
         <v>10</v>
@@ -12550,7 +12710,7 @@
         <v>83</v>
       </c>
       <c r="E133" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F133">
         <v>10</v>
@@ -12627,7 +12787,7 @@
         <v>69</v>
       </c>
       <c r="E134" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F134">
         <v>10</v>
@@ -12704,7 +12864,7 @@
         <v>69</v>
       </c>
       <c r="E135" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F135">
         <v>10</v>
@@ -12781,7 +12941,7 @@
         <v>73</v>
       </c>
       <c r="E136" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F136">
         <v>10</v>
@@ -12846,7 +13006,7 @@
     </row>
     <row r="137" spans="1:25">
       <c r="A137" s="2">
-        <v>45791.86617868919</v>
+        <v>45791.86617869213</v>
       </c>
       <c r="B137" t="s">
         <v>33</v>
@@ -12858,7 +13018,7 @@
         <v>69</v>
       </c>
       <c r="E137" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F137">
         <v>10</v>
@@ -12918,6 +13078,1469 @@
         <v>20</v>
       </c>
       <c r="Y137">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25">
+      <c r="A138" s="2">
+        <v>45791.86649627315</v>
+      </c>
+      <c r="B138" t="s">
+        <v>33</v>
+      </c>
+      <c r="C138" t="s">
+        <v>46</v>
+      </c>
+      <c r="D138" t="s">
+        <v>68</v>
+      </c>
+      <c r="E138" t="s">
+        <v>106</v>
+      </c>
+      <c r="F138">
+        <v>10</v>
+      </c>
+      <c r="G138">
+        <v>9</v>
+      </c>
+      <c r="H138">
+        <v>-0.89</v>
+      </c>
+      <c r="I138">
+        <v>-15.3</v>
+      </c>
+      <c r="J138">
+        <v>0.92</v>
+      </c>
+      <c r="K138">
+        <v>2</v>
+      </c>
+      <c r="L138">
+        <v>20</v>
+      </c>
+      <c r="M138">
+        <v>10</v>
+      </c>
+      <c r="N138">
+        <v>9</v>
+      </c>
+      <c r="O138">
+        <v>-1.97</v>
+      </c>
+      <c r="P138">
+        <v>-9.07</v>
+      </c>
+      <c r="Q138">
+        <v>3.12</v>
+      </c>
+      <c r="R138">
+        <v>7</v>
+      </c>
+      <c r="S138">
+        <v>70</v>
+      </c>
+      <c r="T138">
+        <v>5</v>
+      </c>
+      <c r="U138">
+        <v>20</v>
+      </c>
+      <c r="V138">
+        <v>20</v>
+      </c>
+      <c r="W138">
+        <v>20</v>
+      </c>
+      <c r="X138">
+        <v>20</v>
+      </c>
+      <c r="Y138">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25">
+      <c r="A139" s="2">
+        <v>45791.86680189815</v>
+      </c>
+      <c r="B139" t="s">
+        <v>33</v>
+      </c>
+      <c r="C139" t="s">
+        <v>45</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" t="s">
+        <v>118</v>
+      </c>
+      <c r="F139">
+        <v>10</v>
+      </c>
+      <c r="G139">
+        <v>9</v>
+      </c>
+      <c r="H139">
+        <v>-0.89</v>
+      </c>
+      <c r="I139">
+        <v>-15.3</v>
+      </c>
+      <c r="J139">
+        <v>0.92</v>
+      </c>
+      <c r="K139">
+        <v>2</v>
+      </c>
+      <c r="L139">
+        <v>20</v>
+      </c>
+      <c r="M139">
+        <v>10</v>
+      </c>
+      <c r="N139">
+        <v>9</v>
+      </c>
+      <c r="O139">
+        <v>-0.4</v>
+      </c>
+      <c r="P139">
+        <v>5.74</v>
+      </c>
+      <c r="Q139">
+        <v>0.28</v>
+      </c>
+      <c r="R139">
+        <v>6</v>
+      </c>
+      <c r="S139">
+        <v>60</v>
+      </c>
+      <c r="T139">
+        <v>14</v>
+      </c>
+      <c r="U139">
+        <v>14</v>
+      </c>
+      <c r="V139">
+        <v>5</v>
+      </c>
+      <c r="W139">
+        <v>20</v>
+      </c>
+      <c r="X139">
+        <v>20</v>
+      </c>
+      <c r="Y139">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25">
+      <c r="A140" s="2">
+        <v>45791.86711630787</v>
+      </c>
+      <c r="B140" t="s">
+        <v>33</v>
+      </c>
+      <c r="C140" t="s">
+        <v>45</v>
+      </c>
+      <c r="D140" t="s">
+        <v>70</v>
+      </c>
+      <c r="E140" t="s">
+        <v>119</v>
+      </c>
+      <c r="F140">
+        <v>10</v>
+      </c>
+      <c r="G140">
+        <v>9</v>
+      </c>
+      <c r="H140">
+        <v>-0.89</v>
+      </c>
+      <c r="I140">
+        <v>-15.3</v>
+      </c>
+      <c r="J140">
+        <v>0.92</v>
+      </c>
+      <c r="K140">
+        <v>2</v>
+      </c>
+      <c r="L140">
+        <v>20</v>
+      </c>
+      <c r="M140">
+        <v>10</v>
+      </c>
+      <c r="N140">
+        <v>10</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+      <c r="R140">
+        <v>0</v>
+      </c>
+      <c r="S140">
+        <v>0</v>
+      </c>
+      <c r="T140">
+        <v>14</v>
+      </c>
+      <c r="U140">
+        <v>14</v>
+      </c>
+      <c r="V140">
+        <v>5</v>
+      </c>
+      <c r="W140">
+        <v>20</v>
+      </c>
+      <c r="X140">
+        <v>20</v>
+      </c>
+      <c r="Y140">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25">
+      <c r="A141" s="2">
+        <v>45791.86741905093</v>
+      </c>
+      <c r="B141" t="s">
+        <v>33</v>
+      </c>
+      <c r="C141" t="s">
+        <v>45</v>
+      </c>
+      <c r="D141" t="s">
+        <v>79</v>
+      </c>
+      <c r="E141" t="s">
+        <v>142</v>
+      </c>
+      <c r="F141">
+        <v>10</v>
+      </c>
+      <c r="G141">
+        <v>9</v>
+      </c>
+      <c r="H141">
+        <v>-0.89</v>
+      </c>
+      <c r="I141">
+        <v>-15.3</v>
+      </c>
+      <c r="J141">
+        <v>0.92</v>
+      </c>
+      <c r="K141">
+        <v>2</v>
+      </c>
+      <c r="L141">
+        <v>20</v>
+      </c>
+      <c r="M141">
+        <v>10</v>
+      </c>
+      <c r="N141">
+        <v>10</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <v>0</v>
+      </c>
+      <c r="S141">
+        <v>0</v>
+      </c>
+      <c r="T141">
+        <v>14</v>
+      </c>
+      <c r="U141">
+        <v>14</v>
+      </c>
+      <c r="V141">
+        <v>20</v>
+      </c>
+      <c r="W141">
+        <v>20</v>
+      </c>
+      <c r="X141">
+        <v>20</v>
+      </c>
+      <c r="Y141">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25">
+      <c r="A142" s="2">
+        <v>45791.86772515046</v>
+      </c>
+      <c r="B142" t="s">
+        <v>33</v>
+      </c>
+      <c r="C142" t="s">
+        <v>45</v>
+      </c>
+      <c r="D142" t="s">
+        <v>84</v>
+      </c>
+      <c r="E142" t="s">
+        <v>143</v>
+      </c>
+      <c r="F142">
+        <v>10</v>
+      </c>
+      <c r="G142">
+        <v>9</v>
+      </c>
+      <c r="H142">
+        <v>-0.89</v>
+      </c>
+      <c r="I142">
+        <v>-15.3</v>
+      </c>
+      <c r="J142">
+        <v>0.92</v>
+      </c>
+      <c r="K142">
+        <v>2</v>
+      </c>
+      <c r="L142">
+        <v>20</v>
+      </c>
+      <c r="M142">
+        <v>10</v>
+      </c>
+      <c r="N142">
+        <v>10</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+      <c r="R142">
+        <v>0</v>
+      </c>
+      <c r="S142">
+        <v>0</v>
+      </c>
+      <c r="T142">
+        <v>14</v>
+      </c>
+      <c r="U142">
+        <v>14</v>
+      </c>
+      <c r="V142">
+        <v>5</v>
+      </c>
+      <c r="W142">
+        <v>20</v>
+      </c>
+      <c r="X142">
+        <v>20</v>
+      </c>
+      <c r="Y142">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25">
+      <c r="A143" s="2">
+        <v>45791.86803431713</v>
+      </c>
+      <c r="B143" t="s">
+        <v>33</v>
+      </c>
+      <c r="C143" t="s">
+        <v>45</v>
+      </c>
+      <c r="D143" t="s">
+        <v>70</v>
+      </c>
+      <c r="E143" t="s">
+        <v>108</v>
+      </c>
+      <c r="F143">
+        <v>10</v>
+      </c>
+      <c r="G143">
+        <v>9</v>
+      </c>
+      <c r="H143">
+        <v>-0.89</v>
+      </c>
+      <c r="I143">
+        <v>-15.3</v>
+      </c>
+      <c r="J143">
+        <v>0.92</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+      <c r="L143">
+        <v>20</v>
+      </c>
+      <c r="M143">
+        <v>10</v>
+      </c>
+      <c r="N143">
+        <v>10</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>0</v>
+      </c>
+      <c r="S143">
+        <v>0</v>
+      </c>
+      <c r="T143">
+        <v>14</v>
+      </c>
+      <c r="U143">
+        <v>14</v>
+      </c>
+      <c r="V143">
+        <v>5</v>
+      </c>
+      <c r="W143">
+        <v>20</v>
+      </c>
+      <c r="X143">
+        <v>20</v>
+      </c>
+      <c r="Y143">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25">
+      <c r="A144" s="2">
+        <v>45791.86836534723</v>
+      </c>
+      <c r="B144" t="s">
+        <v>33</v>
+      </c>
+      <c r="C144" t="s">
+        <v>45</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" t="s">
+        <v>107</v>
+      </c>
+      <c r="F144">
+        <v>10</v>
+      </c>
+      <c r="G144">
+        <v>9</v>
+      </c>
+      <c r="H144">
+        <v>-0.89</v>
+      </c>
+      <c r="I144">
+        <v>-15.3</v>
+      </c>
+      <c r="J144">
+        <v>0.92</v>
+      </c>
+      <c r="K144">
+        <v>2</v>
+      </c>
+      <c r="L144">
+        <v>20</v>
+      </c>
+      <c r="M144">
+        <v>10</v>
+      </c>
+      <c r="N144">
+        <v>9</v>
+      </c>
+      <c r="O144">
+        <v>-0.4</v>
+      </c>
+      <c r="P144">
+        <v>5.74</v>
+      </c>
+      <c r="Q144">
+        <v>0.28</v>
+      </c>
+      <c r="R144">
+        <v>6</v>
+      </c>
+      <c r="S144">
+        <v>60</v>
+      </c>
+      <c r="T144">
+        <v>14</v>
+      </c>
+      <c r="U144">
+        <v>14</v>
+      </c>
+      <c r="V144">
+        <v>5</v>
+      </c>
+      <c r="W144">
+        <v>20</v>
+      </c>
+      <c r="X144">
+        <v>20</v>
+      </c>
+      <c r="Y144">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25">
+      <c r="A145" s="2">
+        <v>45791.86868604166</v>
+      </c>
+      <c r="B145" t="s">
+        <v>33</v>
+      </c>
+      <c r="C145" t="s">
+        <v>46</v>
+      </c>
+      <c r="D145" t="s">
+        <v>68</v>
+      </c>
+      <c r="E145" t="s">
+        <v>144</v>
+      </c>
+      <c r="F145">
+        <v>10</v>
+      </c>
+      <c r="G145">
+        <v>9</v>
+      </c>
+      <c r="H145">
+        <v>-0.89</v>
+      </c>
+      <c r="I145">
+        <v>-15.3</v>
+      </c>
+      <c r="J145">
+        <v>0.92</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+      <c r="L145">
+        <v>20</v>
+      </c>
+      <c r="M145">
+        <v>10</v>
+      </c>
+      <c r="N145">
+        <v>9</v>
+      </c>
+      <c r="O145">
+        <v>-3.44</v>
+      </c>
+      <c r="P145">
+        <v>-12.08</v>
+      </c>
+      <c r="Q145">
+        <v>2.82</v>
+      </c>
+      <c r="R145">
+        <v>19</v>
+      </c>
+      <c r="S145">
+        <v>190</v>
+      </c>
+      <c r="T145">
+        <v>5</v>
+      </c>
+      <c r="U145">
+        <v>20</v>
+      </c>
+      <c r="V145">
+        <v>20</v>
+      </c>
+      <c r="W145">
+        <v>20</v>
+      </c>
+      <c r="X145">
+        <v>20</v>
+      </c>
+      <c r="Y145">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25">
+      <c r="A146" s="2">
+        <v>45791.86899276621</v>
+      </c>
+      <c r="B146" t="s">
+        <v>33</v>
+      </c>
+      <c r="C146" t="s">
+        <v>47</v>
+      </c>
+      <c r="D146" t="s">
+        <v>73</v>
+      </c>
+      <c r="E146" t="s">
+        <v>114</v>
+      </c>
+      <c r="F146">
+        <v>10</v>
+      </c>
+      <c r="G146">
+        <v>9</v>
+      </c>
+      <c r="H146">
+        <v>-0.89</v>
+      </c>
+      <c r="I146">
+        <v>-15.3</v>
+      </c>
+      <c r="J146">
+        <v>0.92</v>
+      </c>
+      <c r="K146">
+        <v>2</v>
+      </c>
+      <c r="L146">
+        <v>20</v>
+      </c>
+      <c r="M146">
+        <v>10</v>
+      </c>
+      <c r="N146">
+        <v>9</v>
+      </c>
+      <c r="O146">
+        <v>-0.2</v>
+      </c>
+      <c r="P146">
+        <v>15.87</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <v>2</v>
+      </c>
+      <c r="S146">
+        <v>20</v>
+      </c>
+      <c r="T146">
+        <v>14</v>
+      </c>
+      <c r="U146">
+        <v>14</v>
+      </c>
+      <c r="V146">
+        <v>5</v>
+      </c>
+      <c r="W146">
+        <v>20</v>
+      </c>
+      <c r="X146">
+        <v>20</v>
+      </c>
+      <c r="Y146">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25">
+      <c r="A147" s="2">
+        <v>45791.87045351852</v>
+      </c>
+      <c r="B147" t="s">
+        <v>33</v>
+      </c>
+      <c r="C147" t="s">
+        <v>45</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" t="s">
+        <v>107</v>
+      </c>
+      <c r="F147">
+        <v>10</v>
+      </c>
+      <c r="G147">
+        <v>9</v>
+      </c>
+      <c r="H147">
+        <v>-0.89</v>
+      </c>
+      <c r="I147">
+        <v>-15.3</v>
+      </c>
+      <c r="J147">
+        <v>0.92</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+      <c r="L147">
+        <v>20</v>
+      </c>
+      <c r="M147">
+        <v>10</v>
+      </c>
+      <c r="N147">
+        <v>9</v>
+      </c>
+      <c r="O147">
+        <v>-0.4</v>
+      </c>
+      <c r="P147">
+        <v>5.74</v>
+      </c>
+      <c r="Q147">
+        <v>0.28</v>
+      </c>
+      <c r="R147">
+        <v>6</v>
+      </c>
+      <c r="S147">
+        <v>60</v>
+      </c>
+      <c r="T147">
+        <v>14</v>
+      </c>
+      <c r="U147">
+        <v>14</v>
+      </c>
+      <c r="V147">
+        <v>5</v>
+      </c>
+      <c r="W147">
+        <v>20</v>
+      </c>
+      <c r="X147">
+        <v>20</v>
+      </c>
+      <c r="Y147">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25">
+      <c r="A148" s="2">
+        <v>45791.87104958334</v>
+      </c>
+      <c r="B148" t="s">
+        <v>33</v>
+      </c>
+      <c r="C148" t="s">
+        <v>45</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" t="s">
+        <v>107</v>
+      </c>
+      <c r="F148">
+        <v>10</v>
+      </c>
+      <c r="G148">
+        <v>9</v>
+      </c>
+      <c r="H148">
+        <v>-0.89</v>
+      </c>
+      <c r="I148">
+        <v>-15.3</v>
+      </c>
+      <c r="J148">
+        <v>0.92</v>
+      </c>
+      <c r="K148">
+        <v>2</v>
+      </c>
+      <c r="L148">
+        <v>20</v>
+      </c>
+      <c r="M148">
+        <v>10</v>
+      </c>
+      <c r="N148">
+        <v>9</v>
+      </c>
+      <c r="O148">
+        <v>-0.4</v>
+      </c>
+      <c r="P148">
+        <v>5.74</v>
+      </c>
+      <c r="Q148">
+        <v>0.28</v>
+      </c>
+      <c r="R148">
+        <v>6</v>
+      </c>
+      <c r="S148">
+        <v>60</v>
+      </c>
+      <c r="T148">
+        <v>14</v>
+      </c>
+      <c r="U148">
+        <v>14</v>
+      </c>
+      <c r="V148">
+        <v>5</v>
+      </c>
+      <c r="W148">
+        <v>20</v>
+      </c>
+      <c r="X148">
+        <v>20</v>
+      </c>
+      <c r="Y148">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25">
+      <c r="A149" s="2">
+        <v>45791.87349009259</v>
+      </c>
+      <c r="B149" t="s">
+        <v>33</v>
+      </c>
+      <c r="C149" t="s">
+        <v>45</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" t="s">
+        <v>118</v>
+      </c>
+      <c r="F149">
+        <v>10</v>
+      </c>
+      <c r="G149">
+        <v>9</v>
+      </c>
+      <c r="H149">
+        <v>-0.89</v>
+      </c>
+      <c r="I149">
+        <v>-15.3</v>
+      </c>
+      <c r="J149">
+        <v>0.92</v>
+      </c>
+      <c r="K149">
+        <v>2</v>
+      </c>
+      <c r="L149">
+        <v>20</v>
+      </c>
+      <c r="M149">
+        <v>10</v>
+      </c>
+      <c r="N149">
+        <v>9</v>
+      </c>
+      <c r="O149">
+        <v>-0.4</v>
+      </c>
+      <c r="P149">
+        <v>5.74</v>
+      </c>
+      <c r="Q149">
+        <v>0.28</v>
+      </c>
+      <c r="R149">
+        <v>6</v>
+      </c>
+      <c r="S149">
+        <v>60</v>
+      </c>
+      <c r="T149">
+        <v>14</v>
+      </c>
+      <c r="U149">
+        <v>14</v>
+      </c>
+      <c r="V149">
+        <v>5</v>
+      </c>
+      <c r="W149">
+        <v>20</v>
+      </c>
+      <c r="X149">
+        <v>20</v>
+      </c>
+      <c r="Y149">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25">
+      <c r="A150" s="2">
+        <v>45791.87475809028</v>
+      </c>
+      <c r="B150" t="s">
+        <v>33</v>
+      </c>
+      <c r="C150" t="s">
+        <v>47</v>
+      </c>
+      <c r="D150" t="s">
+        <v>73</v>
+      </c>
+      <c r="E150" t="s">
+        <v>121</v>
+      </c>
+      <c r="F150">
+        <v>10</v>
+      </c>
+      <c r="G150">
+        <v>9</v>
+      </c>
+      <c r="H150">
+        <v>-0.89</v>
+      </c>
+      <c r="I150">
+        <v>-15.3</v>
+      </c>
+      <c r="J150">
+        <v>0.92</v>
+      </c>
+      <c r="K150">
+        <v>2</v>
+      </c>
+      <c r="L150">
+        <v>20</v>
+      </c>
+      <c r="M150">
+        <v>10</v>
+      </c>
+      <c r="N150">
+        <v>9</v>
+      </c>
+      <c r="O150">
+        <v>-0.2</v>
+      </c>
+      <c r="P150">
+        <v>15.87</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>20</v>
+      </c>
+      <c r="T150">
+        <v>14</v>
+      </c>
+      <c r="U150">
+        <v>14</v>
+      </c>
+      <c r="V150">
+        <v>5</v>
+      </c>
+      <c r="W150">
+        <v>20</v>
+      </c>
+      <c r="X150">
+        <v>20</v>
+      </c>
+      <c r="Y150">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25">
+      <c r="A151" s="2">
+        <v>45791.87505850694</v>
+      </c>
+      <c r="B151" t="s">
+        <v>33</v>
+      </c>
+      <c r="C151" t="s">
+        <v>45</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" t="s">
+        <v>107</v>
+      </c>
+      <c r="F151">
+        <v>10</v>
+      </c>
+      <c r="G151">
+        <v>9</v>
+      </c>
+      <c r="H151">
+        <v>-0.89</v>
+      </c>
+      <c r="I151">
+        <v>-15.3</v>
+      </c>
+      <c r="J151">
+        <v>0.92</v>
+      </c>
+      <c r="K151">
+        <v>2</v>
+      </c>
+      <c r="L151">
+        <v>20</v>
+      </c>
+      <c r="M151">
+        <v>10</v>
+      </c>
+      <c r="N151">
+        <v>9</v>
+      </c>
+      <c r="O151">
+        <v>-0.4</v>
+      </c>
+      <c r="P151">
+        <v>5.74</v>
+      </c>
+      <c r="Q151">
+        <v>0.28</v>
+      </c>
+      <c r="R151">
+        <v>6</v>
+      </c>
+      <c r="S151">
+        <v>60</v>
+      </c>
+      <c r="T151">
+        <v>14</v>
+      </c>
+      <c r="U151">
+        <v>14</v>
+      </c>
+      <c r="V151">
+        <v>5</v>
+      </c>
+      <c r="W151">
+        <v>20</v>
+      </c>
+      <c r="X151">
+        <v>20</v>
+      </c>
+      <c r="Y151">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25">
+      <c r="A152" s="2">
+        <v>45791.87537936342</v>
+      </c>
+      <c r="B152" t="s">
+        <v>33</v>
+      </c>
+      <c r="C152" t="s">
+        <v>45</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" t="s">
+        <v>131</v>
+      </c>
+      <c r="F152">
+        <v>10</v>
+      </c>
+      <c r="G152">
+        <v>9</v>
+      </c>
+      <c r="H152">
+        <v>-0.89</v>
+      </c>
+      <c r="I152">
+        <v>-15.3</v>
+      </c>
+      <c r="J152">
+        <v>0.92</v>
+      </c>
+      <c r="K152">
+        <v>2</v>
+      </c>
+      <c r="L152">
+        <v>20</v>
+      </c>
+      <c r="M152">
+        <v>10</v>
+      </c>
+      <c r="N152">
+        <v>10</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="R152">
+        <v>0</v>
+      </c>
+      <c r="S152">
+        <v>0</v>
+      </c>
+      <c r="T152">
+        <v>14</v>
+      </c>
+      <c r="U152">
+        <v>14</v>
+      </c>
+      <c r="V152">
+        <v>5</v>
+      </c>
+      <c r="W152">
+        <v>20</v>
+      </c>
+      <c r="X152">
+        <v>20</v>
+      </c>
+      <c r="Y152">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25">
+      <c r="A153" s="2">
+        <v>45791.87566962963</v>
+      </c>
+      <c r="B153" t="s">
+        <v>33</v>
+      </c>
+      <c r="C153" t="s">
+        <v>45</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" t="s">
+        <v>107</v>
+      </c>
+      <c r="F153">
+        <v>10</v>
+      </c>
+      <c r="G153">
+        <v>9</v>
+      </c>
+      <c r="H153">
+        <v>-0.89</v>
+      </c>
+      <c r="I153">
+        <v>-15.3</v>
+      </c>
+      <c r="J153">
+        <v>0.92</v>
+      </c>
+      <c r="K153">
+        <v>2</v>
+      </c>
+      <c r="L153">
+        <v>20</v>
+      </c>
+      <c r="M153">
+        <v>10</v>
+      </c>
+      <c r="N153">
+        <v>9</v>
+      </c>
+      <c r="O153">
+        <v>-0.4</v>
+      </c>
+      <c r="P153">
+        <v>5.74</v>
+      </c>
+      <c r="Q153">
+        <v>0.28</v>
+      </c>
+      <c r="R153">
+        <v>6</v>
+      </c>
+      <c r="S153">
+        <v>60</v>
+      </c>
+      <c r="T153">
+        <v>14</v>
+      </c>
+      <c r="U153">
+        <v>14</v>
+      </c>
+      <c r="V153">
+        <v>5</v>
+      </c>
+      <c r="W153">
+        <v>20</v>
+      </c>
+      <c r="X153">
+        <v>20</v>
+      </c>
+      <c r="Y153">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25">
+      <c r="A154" s="2">
+        <v>45791.8759937037</v>
+      </c>
+      <c r="B154" t="s">
+        <v>33</v>
+      </c>
+      <c r="C154" t="s">
+        <v>45</v>
+      </c>
+      <c r="D154" t="s">
+        <v>70</v>
+      </c>
+      <c r="E154" t="s">
+        <v>108</v>
+      </c>
+      <c r="F154">
+        <v>10</v>
+      </c>
+      <c r="G154">
+        <v>9</v>
+      </c>
+      <c r="H154">
+        <v>-0.89</v>
+      </c>
+      <c r="I154">
+        <v>-15.3</v>
+      </c>
+      <c r="J154">
+        <v>0.92</v>
+      </c>
+      <c r="K154">
+        <v>2</v>
+      </c>
+      <c r="L154">
+        <v>20</v>
+      </c>
+      <c r="M154">
+        <v>10</v>
+      </c>
+      <c r="N154">
+        <v>10</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="P154">
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <v>0</v>
+      </c>
+      <c r="R154">
+        <v>0</v>
+      </c>
+      <c r="S154">
+        <v>0</v>
+      </c>
+      <c r="T154">
+        <v>14</v>
+      </c>
+      <c r="U154">
+        <v>14</v>
+      </c>
+      <c r="V154">
+        <v>5</v>
+      </c>
+      <c r="W154">
+        <v>20</v>
+      </c>
+      <c r="X154">
+        <v>20</v>
+      </c>
+      <c r="Y154">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25">
+      <c r="A155" s="2">
+        <v>45791.87686707176</v>
+      </c>
+      <c r="B155" t="s">
+        <v>33</v>
+      </c>
+      <c r="C155" t="s">
+        <v>47</v>
+      </c>
+      <c r="D155" t="s">
+        <v>73</v>
+      </c>
+      <c r="E155" t="s">
+        <v>124</v>
+      </c>
+      <c r="F155">
+        <v>10</v>
+      </c>
+      <c r="G155">
+        <v>9</v>
+      </c>
+      <c r="H155">
+        <v>-0.89</v>
+      </c>
+      <c r="I155">
+        <v>-15.3</v>
+      </c>
+      <c r="J155">
+        <v>0.92</v>
+      </c>
+      <c r="K155">
+        <v>2</v>
+      </c>
+      <c r="L155">
+        <v>20</v>
+      </c>
+      <c r="M155">
+        <v>10</v>
+      </c>
+      <c r="N155">
+        <v>9</v>
+      </c>
+      <c r="O155">
+        <v>-0.2</v>
+      </c>
+      <c r="P155">
+        <v>15.87</v>
+      </c>
+      <c r="Q155">
+        <v>0</v>
+      </c>
+      <c r="R155">
+        <v>2</v>
+      </c>
+      <c r="S155">
+        <v>20</v>
+      </c>
+      <c r="T155">
+        <v>14</v>
+      </c>
+      <c r="U155">
+        <v>14</v>
+      </c>
+      <c r="V155">
+        <v>5</v>
+      </c>
+      <c r="W155">
+        <v>20</v>
+      </c>
+      <c r="X155">
+        <v>20</v>
+      </c>
+      <c r="Y155">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25">
+      <c r="A156" s="2">
+        <v>45791.88086666165</v>
+      </c>
+      <c r="B156" t="s">
+        <v>33</v>
+      </c>
+      <c r="C156" t="s">
+        <v>45</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" t="s">
+        <v>145</v>
+      </c>
+      <c r="F156">
+        <v>10</v>
+      </c>
+      <c r="G156">
+        <v>9</v>
+      </c>
+      <c r="H156">
+        <v>-0.89</v>
+      </c>
+      <c r="I156">
+        <v>-15.3</v>
+      </c>
+      <c r="J156">
+        <v>0.92</v>
+      </c>
+      <c r="K156">
+        <v>2</v>
+      </c>
+      <c r="L156">
+        <v>20</v>
+      </c>
+      <c r="M156">
+        <v>10</v>
+      </c>
+      <c r="N156">
+        <v>10</v>
+      </c>
+      <c r="O156">
+        <v>0</v>
+      </c>
+      <c r="P156">
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <v>0</v>
+      </c>
+      <c r="R156">
+        <v>0</v>
+      </c>
+      <c r="S156">
+        <v>0</v>
+      </c>
+      <c r="T156">
+        <v>14</v>
+      </c>
+      <c r="U156">
+        <v>14</v>
+      </c>
+      <c r="V156">
+        <v>5</v>
+      </c>
+      <c r="W156">
+        <v>20</v>
+      </c>
+      <c r="X156">
+        <v>20</v>
+      </c>
+      <c r="Y156">
         <v>14</v>
       </c>
     </row>
